--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$E$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>Requirements</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve"> Check if all “.arxml” files from the given input directory are parsed</t>
-  </si>
-  <si>
     <t>Test(s)</t>
   </si>
   <si>
@@ -51,32 +48,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: provide to the tool several .arxml  files as an input argument</t>
-    </r>
-  </si>
-  <si>
     <t>Implemented</t>
   </si>
   <si>
@@ -99,9 +70,6 @@
   </si>
   <si>
     <t>CST</t>
-  </si>
-  <si>
-    <t>TRS.MEMCFG.INOUT.001</t>
   </si>
   <si>
     <t>CHECK.XML</t>
@@ -237,6 +205,835 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>7/23/2018</t>
+  </si>
+  <si>
+    <t>- added tests for the rest of requirements</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.003</t>
+  </si>
+  <si>
+    <t>Check that the tool will propely create te PduRRountingTables</t>
+  </si>
+  <si>
+    <t>- check that the routing table is created with the correct name
+- check that the routing path is created with the correct name
+- check that the destination is created with the correct name and the correct parameters
+- check that the source is created with the correct name</t>
+  </si>
+  <si>
+    <t>- check that the routing table is not created</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.005</t>
+  </si>
+  <si>
+    <t>Check that the tool will create the CanTp PDUs</t>
+  </si>
+  <si>
+    <t>- check that no PDUs are created</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.006</t>
+  </si>
+  <si>
+    <t>Check that the tool will create the LinTp PDUs</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.007</t>
+  </si>
+  <si>
+    <t>Check that the tool will create the LIN type 2.1 PDUs</t>
+  </si>
+  <si>
+    <t>-check that the four PDUs will be created for the specified NAD
+- check that the naming rule is respected for each PDU</t>
+  </si>
+  <si>
+    <t>-check that the two PDUs will be created for the specified NAD
+- check that the naming rule is respected for each PDU</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.008</t>
+  </si>
+  <si>
+    <t>Check that the tool will create the CanIf PDUs</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.009</t>
+  </si>
+  <si>
+    <t>Check that the tool will create the LinIf PDUs</t>
+  </si>
+  <si>
+    <t>-check that the four PDUs will be created for the specified network
+- check that the naming rule is respected for each PDU</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.00B</t>
+  </si>
+  <si>
+    <t>- check that the request frame is created and has the correct name
+- check that the response frame is created and has the correct name</t>
+  </si>
+  <si>
+    <t>Check  that the CanTp frames are created</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.00C</t>
+  </si>
+  <si>
+    <t>Check that the LinTp frames are created</t>
+  </si>
+  <si>
+    <t>- check that no frame is created for the specified NAD</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.00D</t>
+  </si>
+  <si>
+    <t>Check that the LinIf frames are created</t>
+  </si>
+  <si>
+    <t>Check that the CanIf frames are created</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.00E</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.01F</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.02F</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.03F</t>
+  </si>
+  <si>
+    <t>Check that CCD gateway frames are created</t>
+  </si>
+  <si>
+    <t>Check that CCB gateway frames are created</t>
+  </si>
+  <si>
+    <t>Check that CCLD gateway frames are created</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.04F</t>
+  </si>
+  <si>
+    <t>Check that Fonc gateway frames are created</t>
+  </si>
+  <si>
+    <t>- check that no frames are created for the specified mapping</t>
+  </si>
+  <si>
+    <t>- check that no file is generated</t>
+  </si>
+  <si>
+    <t>Check the tool functionality</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.INOUT.001</t>
+  </si>
+  <si>
+    <t>- check that the tool will output only the file ComCallout.xml</t>
+  </si>
+  <si>
+    <t>- check that the tool will output the files: EcuC.epc, PduR.epc, EnGwCCB.epc, EnGwCCD.epc, EnGwCCLD.epc, EnGwCLD.epc, EnGwFonc.epc</t>
+  </si>
+  <si>
+    <t>- check that the tool will ouput all the above mentioned files</t>
+  </si>
+  <si>
+    <t>- check that the tool will not output any of the above mentioned files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Call the tool using only the NeMo parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Call the tool using only the EnGw parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Call the tool using both EnGw and NeMo parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Call the tool without any of the above mentioned parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping, where the source frame is referenced in a cluster HS or DIAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping, where the source frame is referenced in a cluster different than LIN, and the target-frame is referenced in a cluster HS or DIAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping of type GW-BTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping of type GW-ISACTIVE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping of type CCL-DIAG-GW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping of type GW-FILTERED, where the target frame and the source frame are+C60 referenced in a cluster of type FD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 2.1 LIN network, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 1.3 LIN network, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 2.1 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 1.3 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one 2.1 LIN, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one 1.3 LIN, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 1.3 LIN network, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one NAD configured in a 2.1 LIN network, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one NAD configured in a 1.3 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one NAD configured in a 2.1 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one NAD configured in a 1.3 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one NAD configured in a 2.1 LIN network, and one Diag tool configured</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool one NAD configured in a 2.1 LIN network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide one valid mapping of type CCL-DIAG-GW,  where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping with type different than CCL-DIAG-GW, where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide one valid mapping of type GW-BTA,  where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping with type different than GW-BTA, where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide one valid mapping of type GW-CAN-DIAG,  where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping with type different than GW-CAN-DIAG, where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide one valid mapping of type GW-ISACTIVE,  where the source and target frames are referenced in the cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool one valid mapping with type different than GW-ISACTIVE, where the source and target frames are referenced in the cluster</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -268,7 +1065,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -439,21 +1236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -583,6 +1365,79 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -591,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,72 +1481,295 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1011,7 +2089,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,37 +2101,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1153,185 +2239,833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="39" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="17" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="B10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
+  <autoFilter ref="E1:F1"/>
+  <mergeCells count="32">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+  <conditionalFormatting sqref="F2:F42">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+  <conditionalFormatting sqref="F2:F42">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\COM_Configurator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -19,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$E$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="127">
   <si>
     <t>Requirements</t>
   </si>
@@ -1035,13 +1030,130 @@
       <t xml:space="preserve"> provide to the tool one valid mapping with type different than GW-ISACTIVE, where the source and target frames are referenced in the cluster</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: provide to the tool a SPECIFIC-CALLOUT which has the SYSTEM-SIGNAL-REF tag set, but it does not exist a &lt;SENDER-RECEIVER-TO-SIGNAL-MAPPING&gt; tag from System Generated file which have the same SYSTEM-SIGNAL-REF tag </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a SPECIFIC-CALLOUT which has the SYSTEM-SIGNAL-REF tag set, but it does not exist a &lt;SENDER-RECEIVER-TO-SIGNAL-MAPPING&gt; tag from System Generated file which have the same SYSTEM-SIGNAL-REF tag and the PDU-REF tag set</t>
+    </r>
+  </si>
+  <si>
+    <t>- chech that the tool will set the ComIPduCallout parameter</t>
+  </si>
+  <si>
+    <t>Can not be tested</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN,</t>
+  </si>
+  <si>
+    <t>Covered by the tests below</t>
+  </si>
+  <si>
+    <t>Check the input files</t>
+  </si>
+  <si>
+    <t>Check the output files</t>
+  </si>
+  <si>
+    <t>Check the format of the PduRconfiguration script</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.010</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.012</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.011</t>
+  </si>
+  <si>
+    <t>Check if each &lt;GATEWAY-MAPPING&gt; will be analysed</t>
+  </si>
+  <si>
+    <t>Check if only the next &lt;GATEWAY-MAPPING&gt; types will be present in the output file: GW-REMOTE-DIAG, GW-FILTERED, GW-LIN-UNCONNECTED, GW-CAN-DIAG</t>
+  </si>
+  <si>
+    <t>Check if only &lt;SOURCE-I-PDU-REF&gt; that have the transmission direction established will be present in the output file</t>
+  </si>
+  <si>
+    <t>Check if each &lt;SOURCE-I-PDU-REF&gt; and &lt;TARGET-I-PDU-REF&gt; will have the following information: Cluster, PDU ID, Transmission direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1: provide to the tool a </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1054,6 +1166,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1065,7 +1178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1442,11 +1555,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1463,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1473,18 +1649,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,277 +1675,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2078,28 +2118,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -2141,91 +2181,91 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2238,31 +2278,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24:B25"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="32" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="17" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -2278,33 +2318,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" ht="30.75" thickTop="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60">
+      <c r="A3" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="28" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2314,13 +2354,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="31" t="s">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="40"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2330,13 +2370,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="41"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="29" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2346,11 +2386,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="37"/>
+      <c r="B6" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -2366,9 +2404,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="38"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="22" t="s">
         <v>29</v>
       </c>
@@ -2382,9 +2420,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
@@ -2398,9 +2436,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="47"/>
       <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
@@ -2414,298 +2454,270 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A13" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A14" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A15" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A16" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A17" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" s="66" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A18" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A19" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="120">
+      <c r="A20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="120">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="120">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22" t="s">
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="120">
+      <c r="A23" s="53"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22" t="s">
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="120">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="22" t="s">
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="54"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60">
+      <c r="A26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B26" s="46" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>30</v>
@@ -2714,14 +2726,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="26"/>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>30</v>
@@ -2730,18 +2742,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>57</v>
+    <row r="28" spans="1:6" ht="60">
+      <c r="A28" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>30</v>
@@ -2750,14 +2762,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="26"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>30</v>
@@ -2766,54 +2778,54 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>61</v>
+    <row r="30" spans="1:6" ht="60">
+      <c r="A30" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60">
+      <c r="A32" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>101</v>
-      </c>
       <c r="D32" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>30</v>
@@ -2822,14 +2834,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="26"/>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>30</v>
@@ -2838,18 +2850,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>68</v>
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>30</v>
@@ -2858,14 +2870,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="26"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>30</v>
@@ -2874,15 +2886,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>67</v>
+    <row r="36" spans="1:6" ht="60">
+      <c r="A36" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>54</v>
@@ -2894,14 +2906,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="26"/>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="22" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>30</v>
@@ -2910,15 +2922,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>66</v>
+    <row r="38" spans="1:6" ht="60">
+      <c r="A38" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>54</v>
@@ -2930,14 +2942,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="26"/>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>30</v>
@@ -2946,15 +2958,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>70</v>
+    <row r="40" spans="1:6" ht="60">
+      <c r="A40" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>54</v>
@@ -2966,106 +2978,284 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="26"/>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="45"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60">
+      <c r="A42" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="45"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60">
+      <c r="A44" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="45"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60">
+      <c r="A46" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="45"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="60">
+      <c r="A48" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="45"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="45"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D51" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="E51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A52" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B52" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="E52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="32" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:F1"/>
-  <mergeCells count="32">
+  <mergeCells count="30">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+  <conditionalFormatting sqref="F2:F52">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+  <conditionalFormatting sqref="F2:F52">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="164">
   <si>
     <t>Requirements</t>
   </si>
@@ -934,9 +934,6 @@
     <t>Can not be tested</t>
   </si>
   <si>
-    <t>TRS.COMCONF.GEN,</t>
-  </si>
-  <si>
     <t>Covered by the tests below</t>
   </si>
   <si>
@@ -1302,6 +1299,168 @@
         <scheme val="minor"/>
       </rPr>
       <t>: provide to the tool a different type for &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.013(0)</t>
+  </si>
+  <si>
+    <t>Check the format of the PduR.epc file</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.014(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.015(0)</t>
+  </si>
+  <si>
+    <t>Check if each &lt;SOURCE-I-PDU-REF&gt; and &lt;TARGET-I-PDU-REF&gt; will have the following information present in the messagery file: PDU ID and Transmission direction</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.016(0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid PDU ID, but no Transmission direction. The &lt;TARGET-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the routing path will not be created</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid Transmission direction,but no PDU ID. The &lt;TARGET-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction. The &lt;TARGET-I-PDU-REF&gt; has a valid PDU ID, but no Transmission direction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction. The &lt;TARGET-I-PDU-REF&gt; has a valid Transmission direction,but no PUD ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction. The &lt;TARGET-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the routing path will be created</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 2:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a different type for &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool all types for &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will create routing paths for each &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>- check that the Pdu.epc file will not create a routing path for &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.017(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for a valid &lt;GATEWAY-MAPPING&gt;, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_&lt;source_name&gt;</t>
     </r>
   </si>
 </sst>
@@ -1309,12 +1468,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1701,7 +1876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1710,58 +1885,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1771,7 +1922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1780,7 +1931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1793,7 +1944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1817,68 +1968,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1902,19 +2020,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1923,10 +2032,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1939,6 +2048,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1951,10 +2136,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2438,1052 +2668,1218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:B20"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="35.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="49" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="51"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="51"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="67" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="E5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A9" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="45" customHeight="1">
+      <c r="A11" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="51" customHeight="1">
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="41" customFormat="1" ht="51" customHeight="1">
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="65" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A15" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="36" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="36" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="68" t="s">
+      <c r="C15" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A16" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="49" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="81" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A17" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A18" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F18" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="36" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="42" t="s">
+    <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
+      <c r="A19" s="91"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F19" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="42" t="s">
+    <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F20" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="36" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="42" t="s">
+    <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A21" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F21" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="49" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="81" t="s">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F22" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="36" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A14" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="87" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A15" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A23" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="74" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A24" s="89"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A25" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C26" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A17" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="41" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A27" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="41" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A30" s="99"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A32" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="C32" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F32" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="33" t="s">
+    <row r="33" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F33" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A25" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" ht="120">
-      <c r="A26" s="59" t="s">
+    <row r="34" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A34" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="1:6" ht="120">
+      <c r="A36" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B36" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C36" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="60"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="11" t="s">
+      <c r="E36" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="120">
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="120">
-      <c r="A28" s="60"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="11" t="s">
+      <c r="E37" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="120">
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="120">
-      <c r="A29" s="60"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11" t="s">
+      <c r="E38" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="120">
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="120">
-      <c r="A30" s="60"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11" t="s">
+      <c r="E39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="120">
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="61"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="11" t="s">
+      <c r="E40" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="107"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60">
-      <c r="A32" s="62" t="s">
+      <c r="E41" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60">
+      <c r="A42" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B42" s="83" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="63"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60">
-      <c r="A34" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="63"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="60">
-      <c r="A36" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="63"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="60">
-      <c r="A38" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="63"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="60">
-      <c r="A40" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="63"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60">
-      <c r="A42" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="D42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="63"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="43" t="s">
+      <c r="D43" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60">
-      <c r="A44" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>49</v>
+      <c r="A44" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>35</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="82"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60">
+      <c r="A46" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="82"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="60">
+      <c r="A48" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="82"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="82"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="60">
+      <c r="A52" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="63"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="11" t="s">
+      <c r="E52" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="82"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60">
+      <c r="A54" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30">
+      <c r="A55" s="82"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D55" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="60">
-      <c r="A46" s="62" t="s">
+      <c r="E55" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60">
+      <c r="A56" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B56" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D56" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="63"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="11" t="s">
+      <c r="E56" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="82"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="60">
-      <c r="A48" s="62" t="s">
+      <c r="E57" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60">
+      <c r="A58" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B58" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D58" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="63"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="11" t="s">
+      <c r="E58" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30">
+      <c r="A59" s="82"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="60">
-      <c r="A50" s="62" t="s">
+      <c r="E59" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60">
+      <c r="A60" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B60" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D60" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="63"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="11" t="s">
+      <c r="E60" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="82"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D61" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60">
-      <c r="A52" s="62" t="s">
+      <c r="E61" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60">
+      <c r="A62" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B62" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="63"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="11" t="s">
+      <c r="E62" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30">
+      <c r="A63" s="82"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60">
-      <c r="A54" s="62" t="s">
+      <c r="E63" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="60">
+      <c r="A64" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B64" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="63"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="11" t="s">
+      <c r="E64" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30">
+      <c r="A65" s="82"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="60">
-      <c r="A56" s="62" t="s">
+      <c r="E65" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60">
+      <c r="A66" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B66" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D66" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="63"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="11" t="s">
+      <c r="E66" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30">
+      <c r="A67" s="82"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D67" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A58" s="64" t="s">
+      <c r="E67" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A68" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C68" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D68" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="30" t="s">
+      <c r="E68" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3498,46 +3894,52 @@
       <autoFilter ref="E1:F1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="39">
+  <mergeCells count="45">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
@@ -3547,21 +3949,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F58">
+  <conditionalFormatting sqref="F2:F68">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F58">
+  <conditionalFormatting sqref="F2:F68">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E68">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F68">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="215">
   <si>
     <t>Requirements</t>
   </si>
@@ -1438,17 +1438,311 @@
     </r>
   </si>
   <si>
-    <t>- check that the PduR.epc file will create routing paths for each &lt;GATEWAY-MAPPING&gt;</t>
-  </si>
-  <si>
-    <t>- check that the Pdu.epc file will not create a routing path for &lt;GATEWAY-MAPPING&gt;</t>
-  </si>
-  <si>
     <t>TRS.COMCONF.GEN.017(0)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if for a valid &lt;GATEWAY-MAPPING&gt;, a routing path will be created with the following name: </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a valid &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will set the routing paths for each &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>- check that the Pdu.epc file will not set a routing path for &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.018(0)</t>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will set a routing path with the corect content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.019(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each target found in a valid &lt;GATEWAY-MAPPING&gt;, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_&lt;source_name&gt;_&lt;target_name&gt;_FROM_CDD</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.020(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.021(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured LIN 1.3 network found in the entry data, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_LinIf_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 1.3 network</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will set a routing path with the corect name</t>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will set a routing path for each target found with the corect name</t>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will set a routing  path for that &lt;GATEWAY-MAPPING&gt; with the corect name</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.022(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.023(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.024(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.025(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured LIN 1.3 network found in the entry data, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_LinIf_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a valid LIN 1.3 network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to LIN 2.1 network found in the entry data, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_LinTp_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a valid ECU that is connected to a LIN 2.1 network</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.026(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.027(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid ECU that is connected to a LIN 2.1 network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to LIN 2.1 network found in the entry data, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_LinTp_REP_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.028(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.029(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to a LIN 1.3 network found in the entry data and for each configured DIAG network, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_CanIf_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.030(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each target found in a valid &lt;GATEWAY-MAPPING&gt;, a routing path will be created with the following name:  </t>
     </r>
     <r>
       <rPr>
@@ -1462,18 +1756,222 @@
       </rPr>
       <t>PduRRoutingPath_&lt;source_name&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Check if for each target found in a valid &lt;GATEWAY-MAPPING&gt;, the content of the routing path is the same as in PduR.epc example</t>
+  </si>
+  <si>
+    <t>Check if for each configured LIN 1.3 network found in the entry data, the content of the routing path is the same as in PduR.epc example</t>
+  </si>
+  <si>
+    <t>Check if for each configured ECU that is connected to a LIN 2.1 network found in the entry data, the content of the routing path is the same as in PduR.epc example</t>
+  </si>
+  <si>
+    <t>Check if for each configured ECU that is connected to a LIN 1.3 network found in the entry data and for each configured DIAG network, the content of the routing path is the same as in PduR.epc example</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.031(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to a LIN 1.3 network found in the entry data and for each configured DIAG network, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_CanIf_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid ECU that is connected to a LIN 1.3 network and a DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.032(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.033(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.034(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.035(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.036(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.037(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to a LIN 2.1 network found in the entry data and for each configured DIAG network, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_CanTp_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each configured ECU that is connected to a LIN 2.1 network found in the entry data and for each configured DIAG network, a routing path will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRRoutingPath_EnGw_CanTp_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid ECU that is connected to a LIN 2.1 network and a DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool a valid ECU that is connected to a LIN 2.1 network and a DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if for each configured ECU that is connected to a LIN 2.1 network found in the entry data and for each configured DIAG network, the content of the routing path is the same as in PduR.epc example</t>
+  </si>
+  <si>
+    <t>Check if the PduRSourcePduHandledId parameter found in the source section ot each routing path will be unique for each routing path, will start from 0 and will be continuous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- checK that the PduR.epc file will set a routing path with the corect name </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool all tree files with valid &lt;GATEWAY-MAPPING&gt;, &lt;LIN-SLAVE-CONFIG&gt; and &lt;CAN-DIAG-TOOL&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the PduR.epc file will meet the initial requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1876,7 +2374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1885,11 +2383,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,20 +2397,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1922,7 +2420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1931,7 +2429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +2442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1968,35 +2466,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,7 +2503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2020,10 +2518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2032,10 +2530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2051,7 +2549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2070,7 +2568,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2079,70 +2577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2151,40 +2598,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,7 +3019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2668,13 +3187,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34:B35"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2710,7 +3229,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="42"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="115" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="47" t="s">
@@ -2730,7 +3249,7 @@
       <c r="A3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="47" t="s">
         <v>72</v>
       </c>
@@ -2746,7 +3265,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="43"/>
-      <c r="B4" s="86"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="47" t="s">
         <v>73</v>
       </c>
@@ -2762,7 +3281,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="43"/>
-      <c r="B5" s="87"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="48" t="s">
         <v>74</v>
       </c>
@@ -2831,10 +3350,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="91" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -2851,8 +3370,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="28" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="47" t="s">
         <v>130</v>
       </c>
@@ -2867,10 +3386,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="28" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="91" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="66" t="s">
@@ -2887,8 +3406,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="49" t="s">
         <v>136</v>
       </c>
@@ -2903,8 +3422,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="41" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="58" t="s">
         <v>137</v>
       </c>
@@ -2991,10 +3510,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="110" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -3011,8 +3530,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="23" t="s">
         <v>139</v>
       </c>
@@ -3027,8 +3546,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="19" t="s">
         <v>140</v>
       </c>
@@ -3043,10 +3562,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="113" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3063,8 +3582,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="19" t="s">
         <v>142</v>
       </c>
@@ -3079,13 +3598,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="87" t="s">
         <v>143</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -3099,9 +3618,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="74" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="113" t="s">
+      <c r="A24" s="106"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="88" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="71" t="s">
@@ -3151,7 +3670,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="41" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="100" t="s">
@@ -3171,7 +3690,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="41" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="101"/>
       <c r="C28" s="78" t="s">
         <v>153</v>
@@ -3187,9 +3706,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="101"/>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="86" t="s">
         <v>154</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -3203,9 +3722,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="101"/>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="86" t="s">
         <v>155</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -3219,9 +3738,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="110"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="108" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="85" t="s">
         <v>156</v>
       </c>
       <c r="D31" s="70" t="s">
@@ -3235,17 +3754,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="97" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="86" t="s">
         <v>159</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>4</v>
@@ -3255,13 +3774,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="109" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="86" t="s">
         <v>158</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>4</v>
@@ -3271,369 +3790,437 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A34" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="37"/>
+      <c r="A34" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="37"/>
-    </row>
-    <row r="36" spans="1:6" ht="120">
-      <c r="A36" s="104" t="s">
+      <c r="A35" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="28" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A36" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A37" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="28" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A38" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A39" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="28" customFormat="1" ht="81.75" customHeight="1">
+      <c r="A40" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A41" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="41" customFormat="1" ht="99" customHeight="1">
+      <c r="A42" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="28" customFormat="1" ht="75" customHeight="1">
+      <c r="A43" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
+      <c r="A44" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="28" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A45" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
+      <c r="A46" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
+      <c r="A47" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
+      <c r="A48" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="41" customFormat="1" ht="93" customHeight="1">
+      <c r="A49" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
+      <c r="A50" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
+      <c r="A51" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
+      <c r="A52" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
+      <c r="A53" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
+      <c r="A54" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="120">
+      <c r="A55" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B55" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C55" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="120">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="120">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="120">
-      <c r="A39" s="105"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="120">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="107"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60">
-      <c r="A42" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="82"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60">
-      <c r="A44" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="82"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="60">
-      <c r="A46" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="82"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="60">
-      <c r="A48" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="82"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="60">
-      <c r="A50" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="82"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60">
-      <c r="A52" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="82"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60">
-      <c r="A54" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="82"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>22</v>
@@ -3642,18 +4229,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60">
-      <c r="A56" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>53</v>
-      </c>
+    <row r="56" spans="1:6" ht="120">
+      <c r="A56" s="94"/>
+      <c r="B56" s="95"/>
       <c r="C56" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>22</v>
@@ -3662,14 +4245,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="82"/>
-      <c r="B57" s="84"/>
+    <row r="57" spans="1:6" ht="120">
+      <c r="A57" s="94"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>22</v>
@@ -3678,18 +4261,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60">
-      <c r="A58" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>52</v>
-      </c>
+    <row r="58" spans="1:6" ht="120">
+      <c r="A58" s="94"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>22</v>
@@ -3698,14 +4277,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30">
-      <c r="A59" s="82"/>
-      <c r="B59" s="84"/>
+    <row r="59" spans="1:6" ht="120">
+      <c r="A59" s="94"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>22</v>
@@ -3714,18 +4293,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60">
-      <c r="A60" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>60</v>
-      </c>
+    <row r="60" spans="1:6" ht="30">
+      <c r="A60" s="96"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>22</v>
@@ -3734,14 +4309,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="82"/>
-      <c r="B61" s="84"/>
+    <row r="61" spans="1:6" ht="60">
+      <c r="A61" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>32</v>
+      </c>
       <c r="C61" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E61" s="32" t="s">
         <v>22</v>
@@ -3750,18 +4329,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="60">
-      <c r="A62" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="83" t="s">
-        <v>59</v>
-      </c>
+    <row r="62" spans="1:6" ht="30">
+      <c r="A62" s="104"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>22</v>
@@ -3770,14 +4345,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="82"/>
-      <c r="B63" s="84"/>
+    <row r="63" spans="1:6" ht="60">
+      <c r="A63" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>22</v>
@@ -3786,18 +4365,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="60">
-      <c r="A64" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>58</v>
-      </c>
+    <row r="64" spans="1:6">
+      <c r="A64" s="104"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E64" s="32" t="s">
         <v>22</v>
@@ -3806,14 +4381,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="82"/>
-      <c r="B65" s="84"/>
+    <row r="65" spans="1:6" ht="60">
+      <c r="A65" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>37</v>
+      </c>
       <c r="C65" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E65" s="32" t="s">
         <v>22</v>
@@ -3822,18 +4401,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60">
-      <c r="A66" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="83" t="s">
-        <v>62</v>
-      </c>
+    <row r="66" spans="1:6">
+      <c r="A66" s="104"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>22</v>
@@ -3842,14 +4417,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
-      <c r="A67" s="82"/>
-      <c r="B67" s="84"/>
+    <row r="67" spans="1:6" ht="60">
+      <c r="A67" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C67" s="11" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E67" s="32" t="s">
         <v>22</v>
@@ -3858,18 +4437,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A68" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>64</v>
+    <row r="68" spans="1:6" ht="30">
+      <c r="A68" s="104"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="E68" s="32" t="s">
         <v>22</v>
@@ -3878,8 +4453,352 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="22" t="s">
+    <row r="69" spans="1:6" ht="60">
+      <c r="A69" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="104"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60">
+      <c r="A71" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30">
+      <c r="A72" s="104"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60">
+      <c r="A73" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30">
+      <c r="A74" s="104"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60">
+      <c r="A75" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30">
+      <c r="A76" s="104"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="60">
+      <c r="A77" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30">
+      <c r="A78" s="104"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60">
+      <c r="A79" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30">
+      <c r="A80" s="104"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60">
+      <c r="A81" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30">
+      <c r="A82" s="104"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60">
+      <c r="A83" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30">
+      <c r="A84" s="104"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60">
+      <c r="A85" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30">
+      <c r="A86" s="104"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A87" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3894,52 +4813,50 @@
       <autoFilter ref="E1:F1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="45">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
+  <mergeCells count="43">
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
@@ -3949,21 +4866,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F68">
+  <conditionalFormatting sqref="F2:F87">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F68">
+  <conditionalFormatting sqref="F2:F87">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E87">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F87">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="274">
   <si>
     <t>Requirements</t>
   </si>
@@ -1952,18 +1952,1150 @@
   </si>
   <si>
     <t>- check that the PduR.epc file will meet the initial requirement</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.038(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.039(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.040(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.041(0)</t>
+  </si>
+  <si>
+    <t>'- check that the EcuC.epc file will set a PDU with the corect content</t>
+  </si>
+  <si>
+    <t>- check that the EcuC.epc file will set a PDU with the corect content</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.042(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.043(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.044(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.045(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTp_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTp_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to LIN 2.1 network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EnGwCLD_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_LinTp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and PDU length:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.046(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to LIN 2.1 network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTp_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.047(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to LIN 2.1 network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_LinTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.048(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to LIN 2.1 network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTp_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.049(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.050(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.051(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.052(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIf_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3 network and each DIAG configured network,an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIf_REp_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.053(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.054(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.055(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.056(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a LIN 1.3 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.057(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.058(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.059(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.060(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.061(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMOCNF.GEN.062(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a LIN 2.1 network that has at least one ECU connected to it and a DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network configured that has at least one ECU connected to it, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIf_REP_&lt;network&gt;_1P3_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network configured that has at least one ECU connected to it, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REP_&lt;network&gt;_1P3_LinIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network configured that has at least one ECU connected to it, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIf_REQ_&lt;network&gt;_1P3_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network configured that has at least one ECU connected to it, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLD_REQ_&lt;network&gt;_1P3_LinIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network configured that has at least one ECU connected to it, and each DIAG configured network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIf_REQ_&lt;DIAG_name&gt;_network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network configured that has at least one ECU connected to it, and each DIAG configured network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTp_REP_&lt;DIAG_name&gt;_network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network configured that has at least one ECU connected to it, and each DIAG configured network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTp_REP_&lt;DIAG_name&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network configured that has at least one ECU connected to it, and each DIAG configured network, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTp_FC_REP_&lt;DIAG_name&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each valid mapping found in mappings file, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;target_name&gt;_FROM_CDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each valid mapping found in mappings file, an PDU will be created with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;target_name&gt;_TO_CDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PDU length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1: provide to the tool a valid &lt;GATEWAY-MAPPING&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a &lt;GATEWAY-MAPPING&gt;. The  &lt;SOURCE-I-PDU-REF&gt; does not have an equivalent CAN-FRAME.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a &lt;GATEWAY-MAPPING&gt;. The  &lt;TARGET-I-PDU-REF&gt;  does not have an equivalent CAN-FRAME.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a &lt;GATEWAY-MAPPING&gt;. The  &lt;SOURCE-I-PDU-REF&gt; and the &lt;TARGET-I-PDU-REF&gt; do not have an equivalent CAN-FRAME.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:provide to the tool a &lt;GATEWAY-MAPPING&gt;. The &lt;SOURTCE-I-PDU-REF&gt; and the &lt;TARGET-I-PDU-REF&gt; have an equivalent CAN-FRAME.</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if the source and the target from mapping have an equivalent CAN-FRAME. If not, the mapping will not be taken into account</t>
+  </si>
+  <si>
+    <t>- check that the EcuC.epc will not contain that &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>- check that the EcuC.epc will contain that &lt;GATEWAY-MAPPING&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2040,7 +3172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2370,11 +3502,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2383,11 +3526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2397,52 +3540,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2466,62 +3585,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2530,13 +3619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2549,16 +3632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2568,7 +3642,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2577,44 +3651,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2622,25 +3705,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2652,58 +3741,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3019,7 +4147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3187,294 +4315,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="115" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="43"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="43"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A7" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="89"/>
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A8" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A9" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A10" s="101"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A11" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="49" t="s">
+    <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="41" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="58" t="s">
+    <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A14" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="92"/>
+      <c r="E14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="65" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:6" s="45" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A15" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="104" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3483,16 +4611,16 @@
       <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="104" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -3501,1304 +4629,1856 @@
       <c r="C17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="109"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="74" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="88" t="s">
+    <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A24" s="75"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A25" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="92"/>
+      <c r="E25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A26" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="34" t="s">
+      <c r="D26" s="92"/>
+      <c r="E26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="41" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="97" t="s">
+    <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A27" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="41" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="78" t="s">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="86" t="s">
+    <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="86" t="s">
+    <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="99"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="85" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="97" t="s">
+    <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A32" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="28" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="86" t="s">
+    <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A34" s="82" t="s">
+    <row r="34" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A34" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A35" s="82" t="s">
+    <row r="35" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A35" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="28" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:6" s="22" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A36" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="28" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:6" s="22" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A38" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A39" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="28" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A40" s="39" t="s">
+    <row r="40" spans="1:6" s="22" customFormat="1" ht="81.75" customHeight="1">
+      <c r="A40" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="28" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="39" t="s">
+    <row r="41" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A41" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="41" customFormat="1" ht="99" customHeight="1">
-      <c r="A42" s="82" t="s">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="99" customHeight="1">
+      <c r="A42" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="28" customFormat="1" ht="75" customHeight="1">
-      <c r="A43" s="39" t="s">
+    <row r="43" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A43" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
-      <c r="A44" s="39" t="s">
+    <row r="44" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+      <c r="A44" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="28" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:6" s="22" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A45" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="118" t="s">
+      <c r="C45" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
-      <c r="A46" s="39" t="s">
+    <row r="46" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+      <c r="A46" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
-      <c r="A47" s="39" t="s">
+    <row r="47" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+      <c r="A47" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="118" t="s">
+      <c r="C47" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="28" customFormat="1" ht="99" customHeight="1">
-      <c r="A48" s="39" t="s">
+    <row r="48" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+      <c r="A48" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="41" customFormat="1" ht="93" customHeight="1">
-      <c r="A49" s="82" t="s">
+    <row r="49" spans="1:6" s="32" customFormat="1" ht="93" customHeight="1">
+      <c r="A49" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="83" t="s">
+      <c r="E49" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
-      <c r="A50" s="39" t="s">
+    <row r="50" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="A50" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
-      <c r="A51" s="39" t="s">
+    <row r="51" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="A51" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="118" t="s">
+      <c r="C51" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
-      <c r="A52" s="39" t="s">
+    <row r="52" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="A52" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
-      <c r="A53" s="39" t="s">
+    <row r="53" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="A53" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="28" customFormat="1" ht="93" customHeight="1">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="A54" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120">
-      <c r="A55" s="94" t="s">
+    <row r="55" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A55" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="92"/>
+      <c r="E55" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A56" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="92"/>
+      <c r="E56" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A57" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="115" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A58" s="80"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A59" s="80"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="115" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A60" s="81"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A61" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A62" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A63" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A64" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A65" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A66" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A67" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A68" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A69" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A70" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A71" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A72" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A73" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A74" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A75" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A76" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A77" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A78" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A79" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A80" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A81" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A82" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A83" s="86"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" ht="120">
+      <c r="A84" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B84" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C84" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D84" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E84" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F84" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="120">
-      <c r="A56" s="94"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="11" t="s">
+    <row r="85" spans="1:6" ht="120">
+      <c r="A85" s="103"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D85" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E85" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F85" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="120">
-      <c r="A57" s="94"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="11" t="s">
+    <row r="86" spans="1:6" ht="120">
+      <c r="A86" s="103"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D86" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F86" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="120">
-      <c r="A58" s="94"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="11" t="s">
+    <row r="87" spans="1:6" ht="120">
+      <c r="A87" s="103"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D87" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E87" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F87" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="120">
-      <c r="A59" s="94"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="11" t="s">
+    <row r="88" spans="1:6" ht="120">
+      <c r="A88" s="103"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D88" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E88" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F88" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30">
-      <c r="A60" s="96"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="11" t="s">
+    <row r="89" spans="1:6" ht="30">
+      <c r="A89" s="108"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D89" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E89" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F89" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60">
-      <c r="A61" s="103" t="s">
+    <row r="90" spans="1:6" ht="60">
+      <c r="A90" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B90" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D90" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E90" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F90" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
-      <c r="A62" s="104"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="11" t="s">
+    <row r="91" spans="1:6" ht="30">
+      <c r="A91" s="110"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D91" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E91" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F91" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="60">
-      <c r="A63" s="103" t="s">
+    <row r="92" spans="1:6" ht="60">
+      <c r="A92" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="91" t="s">
+      <c r="B92" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D92" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E92" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F92" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="104"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="11" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="110"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D93" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E93" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F93" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60">
-      <c r="A65" s="103" t="s">
+    <row r="94" spans="1:6" ht="60">
+      <c r="A94" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="B94" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D94" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E94" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F94" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="104"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="11" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="110"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D95" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E95" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F95" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60">
-      <c r="A67" s="103" t="s">
+    <row r="96" spans="1:6" ht="60">
+      <c r="A96" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="91" t="s">
+      <c r="B96" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D96" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E96" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F96" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
-      <c r="A68" s="104"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="11" t="s">
+    <row r="97" spans="1:6" ht="30">
+      <c r="A97" s="110"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D97" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E97" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F97" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60">
-      <c r="A69" s="103" t="s">
+    <row r="98" spans="1:6" ht="60">
+      <c r="A98" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B98" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D98" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E98" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F98" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="104"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="11" t="s">
+    <row r="99" spans="1:6">
+      <c r="A99" s="110"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D99" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E99" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="35" t="s">
+      <c r="F99" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="60">
-      <c r="A71" s="103" t="s">
+    <row r="100" spans="1:6" ht="60">
+      <c r="A100" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="91" t="s">
+      <c r="B100" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D100" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E100" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F100" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
-      <c r="A72" s="104"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="11" t="s">
+    <row r="101" spans="1:6" ht="30">
+      <c r="A101" s="110"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D101" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E101" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="F101" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="60">
-      <c r="A73" s="103" t="s">
+    <row r="102" spans="1:6" ht="60">
+      <c r="A102" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="91" t="s">
+      <c r="B102" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C102" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D102" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E102" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F102" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30">
-      <c r="A74" s="104"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="11" t="s">
+    <row r="103" spans="1:6" ht="30">
+      <c r="A103" s="110"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D103" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E103" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="F103" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60">
-      <c r="A75" s="103" t="s">
+    <row r="104" spans="1:6" ht="60">
+      <c r="A104" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="91" t="s">
+      <c r="B104" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D104" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E104" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="F104" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30">
-      <c r="A76" s="104"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="11" t="s">
+    <row r="105" spans="1:6" ht="30">
+      <c r="A105" s="110"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D105" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E105" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F105" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60">
-      <c r="A77" s="103" t="s">
+    <row r="106" spans="1:6" ht="60">
+      <c r="A106" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="91" t="s">
+      <c r="B106" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D106" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E106" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F106" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30">
-      <c r="A78" s="104"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="11" t="s">
+    <row r="107" spans="1:6" ht="30">
+      <c r="A107" s="110"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D107" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E107" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F107" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60">
-      <c r="A79" s="103" t="s">
+    <row r="108" spans="1:6" ht="60">
+      <c r="A108" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B108" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C108" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D108" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E108" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="F108" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30">
-      <c r="A80" s="104"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="11" t="s">
+    <row r="109" spans="1:6" ht="30">
+      <c r="A109" s="110"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D109" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E109" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F109" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60">
-      <c r="A81" s="103" t="s">
+    <row r="110" spans="1:6" ht="60">
+      <c r="A110" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="91" t="s">
+      <c r="B110" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C110" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D110" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E110" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F110" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
-      <c r="A82" s="104"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="11" t="s">
+    <row r="111" spans="1:6" ht="30">
+      <c r="A111" s="110"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D111" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E111" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="35" t="s">
+      <c r="F111" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60">
-      <c r="A83" s="103" t="s">
+    <row r="112" spans="1:6" ht="60">
+      <c r="A112" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B112" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C112" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D112" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E112" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="35" t="s">
+      <c r="F112" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30">
-      <c r="A84" s="104"/>
-      <c r="B84" s="92"/>
-      <c r="C84" s="11" t="s">
+    <row r="113" spans="1:6" ht="30">
+      <c r="A113" s="110"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D113" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E113" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F113" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="60">
-      <c r="A85" s="103" t="s">
+    <row r="114" spans="1:6" ht="60">
+      <c r="A114" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="91" t="s">
+      <c r="B114" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D114" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E114" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F114" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30">
-      <c r="A86" s="104"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="11" t="s">
+    <row r="115" spans="1:6" ht="30">
+      <c r="A115" s="110"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D115" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E115" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F115" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A87" s="45" t="s">
+    <row r="116" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A116" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C116" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D116" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E116" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="F116" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="22" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4813,52 +6493,54 @@
       <autoFilter ref="E1:F1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="43">
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
+  <mergeCells count="45">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E84:E1048576 E1:E82">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -4866,21 +6548,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F87">
+  <conditionalFormatting sqref="F84:F116 F2:F82">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F87">
+  <conditionalFormatting sqref="F84:F116 F2:F82">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E82 E84:E116">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F82 F84:F116">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="298">
   <si>
     <t>Requirements</t>
   </si>
@@ -1966,9 +1966,6 @@
     <t>TRS.COMCONF.GEN.041(0)</t>
   </si>
   <si>
-    <t>'- check that the EcuC.epc file will set a PDU with the corect content</t>
-  </si>
-  <si>
     <t>- check that the EcuC.epc file will set a PDU with the corect content</t>
   </si>
   <si>
@@ -3076,18 +3073,525 @@
   </si>
   <si>
     <t>- check that the EcuC.epc will contain that &lt;GATEWAY-MAPPING&gt;</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.063(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.064(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.065(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network, a PDU will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpRxNSdu_REP_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1 network</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the LinTp.epc file will set PDU with the corect name</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.066(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.067(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will generate the following values to the given paarameters: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpDL:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpRxNSduNad:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ECU ID; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpNcr:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will generate the following values to the given paarameters: LinTpRxNSduPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/LinTp_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinTpRxNSduChannelRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;LIN_channel&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinTpRxNSduTpChannelRef : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinTp/LinTp/LinTpGlobalConfig/LinTpChannel_&lt;network_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1 network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a valid LIN 2.1 network</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the LinTp.epc file will set PDU with the corect content</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.068(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1 network, a PDU will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpRxNSdu_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.069(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will generate the following values to the given paarameters: LinTpNas: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; LinTpTxNSduNad: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECU ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; LinTpNcs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.070(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will generate the following values to the given paarameters: LinTpTxNSduPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/LinTp_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinTpTxNSduChannelRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;LIN_channel&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinTpTxNSduTpChannelRef : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinTp/LinTp/LinTpGlobalConfig/LinTpChannel_&lt;network_name</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.071(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network that has at least one ECU connected to id, the tool will create the LinTp channels: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinTpChannel_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1 network  that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.072(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinTp generated channel, the tool will generate the following values to the given parameters: LinTpDropNotRequestedNad: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinTpScheduleChangeDiag:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1 network  that has at least one ECU connected to it</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3517,7 +4021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3526,11 +4030,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3540,14 +4044,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3561,7 +4065,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3585,20 +4089,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3607,10 +4111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3619,7 +4123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3632,7 +4136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3642,7 +4146,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3651,7 +4155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3663,16 +4167,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3684,20 +4188,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3705,13 +4272,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3719,108 +4328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4147,7 +4654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4315,13 +4822,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4336,7 +4843,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="32" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -4345,7 +4852,7 @@
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -4356,14 +4863,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="112" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="113" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -4374,14 +4881,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="75" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -4392,12 +4899,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="98"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="75" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -4408,12 +4915,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="98"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="76" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -4424,16 +4931,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="85" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="26" t="s">
         <v>22</v>
       </c>
@@ -4442,7 +4949,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="85" t="s">
         <v>116</v>
       </c>
       <c r="B7" s="47" t="s">
@@ -4451,7 +4958,7 @@
       <c r="C7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
@@ -4460,7 +4967,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="85" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -4469,7 +4976,7 @@
       <c r="C8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
@@ -4478,16 +4985,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="92" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="77" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="41" t="s">
@@ -4498,12 +5005,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="78" t="s">
         <v>129</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -4514,16 +5021,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="92" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -4534,12 +5041,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -4550,12 +5057,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="41" t="s">
@@ -4566,7 +5073,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="82" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -4575,7 +5082,7 @@
       <c r="C14" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="26" t="s">
         <v>22</v>
       </c>
@@ -4593,7 +5100,7 @@
       <c r="C15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="20" t="s">
         <v>22</v>
       </c>
@@ -4602,7 +5109,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="86" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -4620,7 +5127,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="86" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -4638,10 +5145,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="111" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -4658,8 +5165,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -4674,8 +5181,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -4690,10 +5197,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="111" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4710,8 +5217,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -4726,10 +5233,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="111" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -4746,12 +5253,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="80" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="49" t="s">
@@ -4762,7 +5269,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="82" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -4771,7 +5278,7 @@
       <c r="C25" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="92"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="26" t="s">
         <v>22</v>
       </c>
@@ -4780,7 +5287,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="82" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="47" t="s">
@@ -4789,7 +5296,7 @@
       <c r="C26" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="92"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="26" t="s">
         <v>22</v>
       </c>
@@ -4798,16 +5305,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="101" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="77" t="s">
         <v>152</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -4818,12 +5325,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="77" t="s">
         <v>152</v>
       </c>
       <c r="E28" s="53" t="s">
@@ -4834,12 +5341,12 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="78" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -4850,12 +5357,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="83"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="78" t="s">
         <v>152</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -4866,12 +5373,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="71" t="s">
         <v>157</v>
       </c>
       <c r="E31" s="54" t="s">
@@ -4882,16 +5389,16 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="101" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="78" t="s">
         <v>162</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -4902,12 +5409,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="84"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="78" t="s">
         <v>163</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -4918,7 +5425,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="87" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -4927,7 +5434,7 @@
       <c r="C34" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="78" t="s">
         <v>175</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -4938,7 +5445,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="87" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -4947,7 +5454,7 @@
       <c r="C35" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -4958,7 +5465,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="22" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -4967,7 +5474,7 @@
       <c r="C36" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="78" t="s">
         <v>174</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -4978,7 +5485,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="82" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="65" t="s">
@@ -4987,7 +5494,7 @@
       <c r="C37" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="71" t="s">
         <v>165</v>
       </c>
       <c r="E37" s="58" t="s">
@@ -4998,7 +5505,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="22" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="82" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -5007,7 +5514,7 @@
       <c r="C38" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="78" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -5018,7 +5525,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="82" t="s">
         <v>176</v>
       </c>
       <c r="B39" s="26" t="s">
@@ -5027,7 +5534,7 @@
       <c r="C39" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -5038,7 +5545,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="22" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="82" t="s">
         <v>177</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -5047,7 +5554,7 @@
       <c r="C40" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="78" t="s">
         <v>173</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -5058,7 +5565,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -5067,7 +5574,7 @@
       <c r="C41" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -5078,7 +5585,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="32" customFormat="1" ht="99" customHeight="1">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="87" t="s">
         <v>179</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -5087,7 +5594,7 @@
       <c r="C42" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="77" t="s">
         <v>173</v>
       </c>
       <c r="E42" s="57" t="s">
@@ -5098,7 +5605,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="82" t="s">
         <v>184</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -5107,7 +5614,7 @@
       <c r="C43" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -5118,7 +5625,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="82" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -5127,7 +5634,7 @@
       <c r="C44" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="78" t="s">
         <v>173</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -5138,7 +5645,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="22" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="82" t="s">
         <v>188</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -5147,7 +5654,7 @@
       <c r="C45" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -5158,7 +5665,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="82" t="s">
         <v>189</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -5167,7 +5674,7 @@
       <c r="C46" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="D46" s="78" t="s">
         <v>212</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -5178,7 +5685,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="82" t="s">
         <v>191</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -5187,7 +5694,7 @@
       <c r="C47" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -5198,7 +5705,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="82" t="s">
         <v>197</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -5207,7 +5714,7 @@
       <c r="C48" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="78" t="s">
         <v>212</v>
       </c>
       <c r="E48" s="26" t="s">
@@ -5218,7 +5725,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="32" customFormat="1" ht="93" customHeight="1">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="87" t="s">
         <v>200</v>
       </c>
       <c r="B49" s="64" t="s">
@@ -5227,7 +5734,7 @@
       <c r="C49" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="77" t="s">
         <v>165</v>
       </c>
       <c r="E49" s="57" t="s">
@@ -5238,7 +5745,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="82" t="s">
         <v>201</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -5247,7 +5754,7 @@
       <c r="C50" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="92" t="s">
+      <c r="D50" s="78" t="s">
         <v>212</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -5258,7 +5765,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="82" t="s">
         <v>202</v>
       </c>
       <c r="B51" s="26" t="s">
@@ -5267,7 +5774,7 @@
       <c r="C51" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -5278,7 +5785,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="82" t="s">
         <v>203</v>
       </c>
       <c r="B52" s="26" t="s">
@@ -5287,7 +5794,7 @@
       <c r="C52" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="78" t="s">
         <v>212</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -5298,7 +5805,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="82" t="s">
         <v>204</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -5307,7 +5814,7 @@
       <c r="C53" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D53" s="78" t="s">
         <v>165</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -5318,7 +5825,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="82" t="s">
         <v>205</v>
       </c>
       <c r="B54" s="26" t="s">
@@ -5327,7 +5834,7 @@
       <c r="C54" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="78" t="s">
         <v>214</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -5338,16 +5845,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="82" t="s">
         <v>215</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C55" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="78"/>
       <c r="E55" s="26" t="s">
         <v>22</v>
       </c>
@@ -5356,7 +5863,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="82" t="s">
         <v>216</v>
       </c>
       <c r="B56" s="26" t="s">
@@ -5365,7 +5872,7 @@
       <c r="C56" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="92"/>
+      <c r="D56" s="78"/>
       <c r="E56" s="26" t="s">
         <v>22</v>
       </c>
@@ -5374,705 +5881,729 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="115" t="s">
+      <c r="E57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A58" s="105"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D58" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A59" s="105"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A60" s="106"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="80"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="115" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="80"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="115" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="115" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="92" t="s">
+      <c r="E60" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A61" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A62" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A63" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A64" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A65" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A66" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A67" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A68" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A69" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A70" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A71" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A72" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A73" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A74" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A75" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A76" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A77" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A78" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A79" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A80" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A81" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A82" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A83" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="E60" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A61" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A62" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A63" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A64" s="96" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A65" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A66" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A67" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C67" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A68" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A69" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A70" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C70" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A71" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A72" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C72" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A73" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C73" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D73" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A74" s="96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D74" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A75" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D75" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A76" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
-      <c r="A77" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
-      <c r="A78" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C78" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
-      <c r="A79" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C79" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
-      <c r="A80" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A81" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="115" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A82" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="1:6" ht="120">
-      <c r="A84" s="103" t="s">
+      <c r="B83" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="78"/>
+      <c r="E83" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A84" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="78"/>
+      <c r="E84" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A85" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A86" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1">
+      <c r="A87" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A88" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A89" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1">
+      <c r="A90" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A91" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="116" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A92" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A93" s="72"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="29"/>
+    </row>
+    <row r="94" spans="1:6" ht="120">
+      <c r="A94" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B94" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C94" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D94" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="120">
-      <c r="A85" s="103"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="120">
-      <c r="A86" s="103"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="120">
-      <c r="A87" s="103"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="120">
-      <c r="A88" s="103"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30">
-      <c r="A89" s="108"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="60">
-      <c r="A90" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30">
-      <c r="A91" s="110"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="60">
-      <c r="A92" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="110"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="60">
-      <c r="A94" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="91" t="s">
-        <v>39</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>22</v>
@@ -6081,14 +6612,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="110"/>
-      <c r="B95" s="72"/>
+    <row r="95" spans="1:6" ht="120">
+      <c r="A95" s="95"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="91" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="D95" s="77" t="s">
+        <v>29</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>22</v>
@@ -6097,18 +6628,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="60">
-      <c r="A96" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>41</v>
-      </c>
+    <row r="96" spans="1:6" ht="120">
+      <c r="A96" s="95"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="91" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="D96" s="77" t="s">
+        <v>29</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>22</v>
@@ -6117,14 +6644,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30">
-      <c r="A97" s="110"/>
-      <c r="B97" s="72"/>
+    <row r="97" spans="1:6" ht="120">
+      <c r="A97" s="95"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" s="91" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="D97" s="77" t="s">
+        <v>29</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>22</v>
@@ -6133,18 +6660,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60">
-      <c r="A98" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>43</v>
-      </c>
+    <row r="98" spans="1:6" ht="120">
+      <c r="A98" s="95"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" s="91" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="D98" s="77" t="s">
+        <v>29</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>22</v>
@@ -6153,14 +6676,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="110"/>
-      <c r="B99" s="72"/>
+    <row r="99" spans="1:6" ht="30">
+      <c r="A99" s="97"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="91" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="D99" s="77" t="s">
+        <v>30</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>22</v>
@@ -6170,17 +6693,17 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="60">
-      <c r="A100" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="71" t="s">
-        <v>47</v>
+      <c r="A100" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="92" t="s">
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="91" t="s">
-        <v>46</v>
+      <c r="D100" s="77" t="s">
+        <v>38</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>22</v>
@@ -6190,13 +6713,13 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="30">
-      <c r="A101" s="110"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="108"/>
+      <c r="B101" s="93"/>
       <c r="C101" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D101" s="91" t="s">
-        <v>50</v>
+      <c r="D101" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>22</v>
@@ -6206,17 +6729,17 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="60">
-      <c r="A102" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="71" t="s">
-        <v>49</v>
+      <c r="A102" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="92" t="s">
+        <v>35</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="91" t="s">
-        <v>46</v>
+      <c r="D102" s="77" t="s">
+        <v>38</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>22</v>
@@ -6225,14 +6748,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30">
-      <c r="A103" s="110"/>
-      <c r="B103" s="72"/>
+    <row r="103" spans="1:6">
+      <c r="A103" s="108"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" s="91" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="D103" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>22</v>
@@ -6242,17 +6765,17 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="60">
-      <c r="A104" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B104" s="71" t="s">
-        <v>53</v>
+      <c r="A104" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="92" t="s">
+        <v>37</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="91" t="s">
-        <v>46</v>
+        <v>85</v>
+      </c>
+      <c r="D104" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>22</v>
@@ -6261,14 +6784,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30">
-      <c r="A105" s="110"/>
-      <c r="B105" s="72"/>
+    <row r="105" spans="1:6">
+      <c r="A105" s="108"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="91" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="D105" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>22</v>
@@ -6278,17 +6801,17 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="60">
-      <c r="A106" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" s="71" t="s">
-        <v>52</v>
+      <c r="A106" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="92" t="s">
+        <v>41</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106" s="91" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="D106" s="77" t="s">
+        <v>38</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>22</v>
@@ -6298,13 +6821,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="30">
-      <c r="A107" s="110"/>
-      <c r="B107" s="72"/>
+      <c r="A107" s="108"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="91" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="D107" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>22</v>
@@ -6314,17 +6837,17 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="60">
-      <c r="A108" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" s="71" t="s">
-        <v>60</v>
+      <c r="A108" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="92" t="s">
+        <v>43</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="91" t="s">
-        <v>46</v>
+        <v>89</v>
+      </c>
+      <c r="D108" s="77" t="s">
+        <v>44</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>22</v>
@@ -6333,14 +6856,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30">
-      <c r="A109" s="110"/>
-      <c r="B109" s="72"/>
+    <row r="109" spans="1:6">
+      <c r="A109" s="108"/>
+      <c r="B109" s="93"/>
       <c r="C109" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="91" t="s">
-        <v>63</v>
+        <v>90</v>
+      </c>
+      <c r="D109" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>22</v>
@@ -6350,16 +6873,16 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="60">
-      <c r="A110" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" s="71" t="s">
-        <v>59</v>
+      <c r="A110" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="92" t="s">
+        <v>47</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E110" s="24" t="s">
@@ -6370,13 +6893,13 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="30">
-      <c r="A111" s="110"/>
-      <c r="B111" s="72"/>
+      <c r="A111" s="108"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="91" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="D111" s="77" t="s">
+        <v>50</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>22</v>
@@ -6386,16 +6909,16 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="60">
-      <c r="A112" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="71" t="s">
-        <v>58</v>
+      <c r="A112" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="92" t="s">
+        <v>49</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D112" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="24" t="s">
@@ -6406,13 +6929,13 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="30">
-      <c r="A113" s="110"/>
-      <c r="B113" s="72"/>
+      <c r="A113" s="108"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="91" t="s">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="D113" s="77" t="s">
+        <v>50</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>22</v>
@@ -6422,16 +6945,16 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="60">
-      <c r="A114" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114" s="71" t="s">
-        <v>62</v>
+      <c r="A114" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="92" t="s">
+        <v>53</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E114" s="24" t="s">
@@ -6442,13 +6965,13 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="30">
-      <c r="A115" s="110"/>
-      <c r="B115" s="72"/>
+      <c r="A115" s="108"/>
+      <c r="B115" s="93"/>
       <c r="C115" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" s="91" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="D115" s="77" t="s">
+        <v>50</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>22</v>
@@ -6457,18 +6980,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A116" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="95" t="s">
-        <v>64</v>
+    <row r="116" spans="1:6" ht="60">
+      <c r="A116" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="77" t="s">
+        <v>46</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>22</v>
@@ -6477,8 +7000,188 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="63" t="s">
+    <row r="117" spans="1:6" ht="30">
+      <c r="A117" s="108"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="60">
+      <c r="A118" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30">
+      <c r="A119" s="108"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="60">
+      <c r="A120" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30">
+      <c r="A121" s="108"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="60">
+      <c r="A122" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30">
+      <c r="A123" s="108"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="60">
+      <c r="A124" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30">
+      <c r="A125" s="108"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A126" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6494,53 +7197,53 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
   </mergeCells>
-  <conditionalFormatting sqref="E84:E1048576 E1:E82">
+  <conditionalFormatting sqref="E94:E1048576 E1:E92">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -6548,21 +7251,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F116 F2:F82">
+  <conditionalFormatting sqref="F94:F126 F2:F92">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F116 F2:F82">
+  <conditionalFormatting sqref="F94:F126 F2:F92">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E82 E84:E116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E92 E94:E126">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F82 F84:F116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F92 F94:F126">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="344">
   <si>
     <t>Requirements</t>
   </si>
@@ -3571,6 +3571,907 @@
         <scheme val="minor"/>
       </rPr>
       <t>: provide to the tool a valid LIN 2.1 network  that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.073(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.074(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.075(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network that has at least one ECU connected to it, the tool will create the LinIf channels: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;network_name&gt;_Channel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool a valid LIN 1.3 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the LinTp.epc file will set a PDU with the corect name</t>
+  </si>
+  <si>
+    <t>- check that the LinTp.epc file will set a PDU with the corect content</t>
+  </si>
+  <si>
+    <t>- check that the LinIf.epc file will set a PDU with the corect content</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.076(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf generated channel, the tool will generate a frame with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfFrame_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 1.3 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.077(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf generated as above, the tool will have to generate the following parameters: LinIfLenght : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfPid : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfChecksumType : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASSIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfFrameType : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNCONDITIONAL</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.078(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf frame generated as above, the tool will have to generate the PDU direction with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfPduDirection_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.079(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf PDU direction, the tool will have to generate a PDU with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfRxPdu_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/LinIf_REP_&lt;network_name&gt;_1P3_EnGwCLD</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.080(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf generated channel, the tool will generate a frame with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfFrame_REQ_&lt;newwork_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 1.3 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.081(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf generated as above, the tool will have to generate the following parameters: LinIfLenght : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfPid : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfChecksumType : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASSIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfFrameType : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNCONDITIONAL</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.082(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf frame generated as above, the tool will have to generate the PDU direction with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfPduDirection_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.083(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf PDU direction, the tool will have to generate a PDU with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfTxPdu_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/LinIf_REQ_&lt;network_name&gt;_1P3_EnGwCLD</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.084(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.085(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if each LinIf generated channel, the tool will generate a schedule-table with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfScheduleTable_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have to generate the following parameters: LinIfScheduleTableName: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCH_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfResumePosition: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>START_FORM_BEGINNING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RUN_ONCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfScheduleMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_RESPONSE</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.086(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if each LinIF schedule-table generated as above, the tool will have to generate an LinIf entry with the following name : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfEntry_0</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.087(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.088(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the generated LinIf entry, the tool will set the following parameters: LinIfEntryIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfDelay: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfFrameRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;network_name&gt;_Channel/LinIfFrame_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have to generate an LinIf entry with the following name : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfEntry_1</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.089(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the generated LinIf entry, the tool will set the following parameters: LinIfEntryIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfDelay: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfFrameRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;network_name&gt;_Channel/LinIfFrame_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.090(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.091(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.092(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf generated channel, the tool will generate a schedule-table with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfScheduleTable_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have ti generate the following parameters: LinIfSchdeuleTableName: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCH_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfResumePosition: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>START_FROM_BEGINNING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfRunMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RUN_ONCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfScheduleMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_REQUEST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have to generate an LinIf entry with the following name : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinIfEntry_0</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.093(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the generated LinIf entry, the tool will set the following parameters: LinIfEntryIndex : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfDelay: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfFrameRefL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;network_name&gt;_Channel/LinIfFrame_REQ_&lt;network_name&gt;_1P3</t>
     </r>
   </si>
 </sst>
@@ -3578,12 +4479,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4021,7 +4938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4030,11 +4947,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4044,14 +4961,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4065,7 +4982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4089,20 +5006,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,10 +5028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4123,7 +5040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4136,191 +5053,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4822,13 +5745,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4864,7 +5787,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -4884,7 +5807,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -4900,7 +5823,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -4916,7 +5839,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="115"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -4985,10 +5908,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="94" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -5005,8 +5928,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -5021,10 +5944,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="94" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -5041,8 +5964,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -5057,8 +5980,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -5145,10 +6068,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="113" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -5165,8 +6088,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -5181,8 +6104,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -5197,10 +6120,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="113" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -5217,8 +6140,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -5233,10 +6156,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="113" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -5253,8 +6176,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -5305,10 +6228,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -5325,8 +6248,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -5341,8 +6264,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -5357,8 +6280,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -5373,8 +6296,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -5389,10 +6312,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="103" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -5409,8 +6332,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -5851,7 +6774,7 @@
       <c r="B55" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="116" t="s">
+      <c r="C55" s="91" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="78"/>
@@ -5881,10 +6804,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="103" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -5901,8 +6824,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="105"/>
-      <c r="B58" s="102"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -5917,8 +6840,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="102"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -5933,8 +6856,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="106"/>
-      <c r="B60" s="103"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -6335,7 +7258,7 @@
       <c r="B80" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="116" t="s">
+      <c r="C80" s="90" t="s">
         <v>254</v>
       </c>
       <c r="D80" s="78" t="s">
@@ -6395,7 +7318,7 @@
       <c r="B83" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="116" t="s">
+      <c r="C83" s="90" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="78"/>
@@ -6413,7 +7336,7 @@
       <c r="B84" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="116" t="s">
+      <c r="C84" s="90" t="s">
         <v>103</v>
       </c>
       <c r="D84" s="78"/>
@@ -6431,11 +7354,11 @@
       <c r="B85" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="116" t="s">
+      <c r="C85" s="90" t="s">
         <v>277</v>
       </c>
       <c r="D85" s="78" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>4</v>
@@ -6451,11 +7374,11 @@
       <c r="B86" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="116" t="s">
+      <c r="C86" s="90" t="s">
         <v>283</v>
       </c>
       <c r="D86" s="78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>4</v>
@@ -6475,7 +7398,7 @@
         <v>284</v>
       </c>
       <c r="D87" s="78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>4</v>
@@ -6491,7 +7414,7 @@
       <c r="B88" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C88" s="116" t="s">
+      <c r="C88" s="90" t="s">
         <v>277</v>
       </c>
       <c r="D88" s="78" t="s">
@@ -6511,7 +7434,7 @@
       <c r="B89" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="116" t="s">
+      <c r="C89" s="90" t="s">
         <v>277</v>
       </c>
       <c r="D89" s="78" t="s">
@@ -6531,11 +7454,11 @@
       <c r="B90" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C90" s="116" t="s">
+      <c r="C90" s="90" t="s">
         <v>277</v>
       </c>
       <c r="D90" s="78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>4</v>
@@ -6551,11 +7474,11 @@
       <c r="B91" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="116" t="s">
+      <c r="C91" s="90" t="s">
         <v>294</v>
       </c>
       <c r="D91" s="78" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>4</v>
@@ -6571,11 +7494,11 @@
       <c r="B92" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C92" s="116" t="s">
+      <c r="C92" s="90" t="s">
         <v>297</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>4</v>
@@ -6584,430 +7507,458 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A93" s="72"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="29"/>
-    </row>
-    <row r="94" spans="1:6" ht="120">
-      <c r="A94" s="95" t="s">
+    <row r="93" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A93" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="78"/>
+      <c r="E93" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A94" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="78"/>
+      <c r="E94" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
+      <c r="A95" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
+      <c r="A96" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
+      <c r="A97" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D97" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A98" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A99" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A100" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A101" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A102" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+      <c r="A103" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A104" s="82" t="s">
+        <v>324</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C104" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A105" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A106" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A107" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A108" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A109" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A110" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D110" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A111" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A112" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C112" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D112" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A113" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D113" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A114" s="82"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A115" s="82"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A116" s="72"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="29"/>
+    </row>
+    <row r="117" spans="1:6" ht="120">
+      <c r="A117" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="96" t="s">
+      <c r="B117" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="56" t="s">
+      <c r="C117" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="71" t="s">
+      <c r="D117" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="120">
-      <c r="A95" s="95"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="120">
-      <c r="A96" s="95"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="120">
-      <c r="A97" s="95"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="120">
-      <c r="A98" s="95"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30">
-      <c r="A99" s="97"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="60">
-      <c r="A100" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30">
-      <c r="A101" s="108"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="60">
-      <c r="A102" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="108"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="60">
-      <c r="A104" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="108"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="60">
-      <c r="A106" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30">
-      <c r="A107" s="108"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="60">
-      <c r="A108" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="108"/>
-      <c r="B109" s="93"/>
-      <c r="C109" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D109" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="60">
-      <c r="A110" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30">
-      <c r="A111" s="108"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="60">
-      <c r="A112" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="30">
-      <c r="A113" s="108"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="60">
-      <c r="A114" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D114" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30">
-      <c r="A115" s="108"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D115" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="60">
-      <c r="A116" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D116" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30">
-      <c r="A117" s="108"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="77" t="s">
-        <v>50</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>22</v>
@@ -7016,18 +7967,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="60">
-      <c r="A118" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" s="92" t="s">
-        <v>60</v>
-      </c>
+    <row r="118" spans="1:6" ht="120">
+      <c r="A118" s="97"/>
+      <c r="B118" s="98"/>
       <c r="C118" s="11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D118" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>22</v>
@@ -7036,14 +7983,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30">
-      <c r="A119" s="108"/>
-      <c r="B119" s="93"/>
+    <row r="119" spans="1:6" ht="120">
+      <c r="A119" s="97"/>
+      <c r="B119" s="98"/>
       <c r="C119" s="11" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D119" s="77" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>22</v>
@@ -7052,18 +7999,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="60">
-      <c r="A120" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="92" t="s">
-        <v>59</v>
-      </c>
+    <row r="120" spans="1:6" ht="120">
+      <c r="A120" s="97"/>
+      <c r="B120" s="98"/>
       <c r="C120" s="11" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D120" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>22</v>
@@ -7072,14 +8015,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30">
-      <c r="A121" s="108"/>
-      <c r="B121" s="93"/>
+    <row r="121" spans="1:6" ht="120">
+      <c r="A121" s="97"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="11" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D121" s="77" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E121" s="24" t="s">
         <v>22</v>
@@ -7088,18 +8031,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="60">
-      <c r="A122" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="92" t="s">
-        <v>58</v>
-      </c>
+    <row r="122" spans="1:6" ht="30">
+      <c r="A122" s="99"/>
+      <c r="B122" s="95"/>
       <c r="C122" s="11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D122" s="77" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>22</v>
@@ -7108,14 +8047,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30">
-      <c r="A123" s="108"/>
-      <c r="B123" s="93"/>
+    <row r="123" spans="1:6" ht="60">
+      <c r="A123" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="94" t="s">
+        <v>32</v>
+      </c>
       <c r="C123" s="11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D123" s="77" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>22</v>
@@ -7124,18 +8067,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="60">
-      <c r="A124" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="B124" s="92" t="s">
-        <v>62</v>
-      </c>
+    <row r="124" spans="1:6" ht="30">
+      <c r="A124" s="110"/>
+      <c r="B124" s="95"/>
       <c r="C124" s="11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D124" s="77" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>22</v>
@@ -7144,14 +8083,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30">
-      <c r="A125" s="108"/>
-      <c r="B125" s="93"/>
+    <row r="125" spans="1:6" ht="60">
+      <c r="A125" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="94" t="s">
+        <v>35</v>
+      </c>
       <c r="C125" s="11" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D125" s="77" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>22</v>
@@ -7160,18 +8103,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A126" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="81" t="s">
-        <v>64</v>
+    <row r="126" spans="1:6">
+      <c r="A126" s="110"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>22</v>
@@ -7180,8 +8119,424 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="63" t="s">
+    <row r="127" spans="1:6" ht="60">
+      <c r="A127" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="110"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="60">
+      <c r="A129" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30">
+      <c r="A130" s="110"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="60">
+      <c r="A131" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D131" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="110"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D132" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="60">
+      <c r="A133" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30">
+      <c r="A134" s="110"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="60">
+      <c r="A135" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30">
+      <c r="A136" s="110"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="60">
+      <c r="A137" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30">
+      <c r="A138" s="110"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="60">
+      <c r="A139" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30">
+      <c r="A140" s="110"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="60">
+      <c r="A141" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30">
+      <c r="A142" s="110"/>
+      <c r="B142" s="95"/>
+      <c r="C142" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="60">
+      <c r="A143" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30">
+      <c r="A144" s="110"/>
+      <c r="B144" s="95"/>
+      <c r="C144" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="60">
+      <c r="A145" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30">
+      <c r="A146" s="110"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D146" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="60">
+      <c r="A147" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30">
+      <c r="A148" s="110"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D148" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A149" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7197,33 +8552,33 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
@@ -7234,8 +8589,8 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B27:B31"/>
@@ -7243,7 +8598,7 @@
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="B57:B60"/>
   </mergeCells>
-  <conditionalFormatting sqref="E94:E1048576 E1:E92">
+  <conditionalFormatting sqref="E117:E1048576 E1:E115">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -7251,21 +8606,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F126 F2:F92">
+  <conditionalFormatting sqref="F117:F149 F2:F115">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F126 F2:F92">
+  <conditionalFormatting sqref="F117:F149 F2:F115">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E92 E94:E126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E115 E117:E149">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F92 F94:F126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F115 F117:F149">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="387">
   <si>
     <t>Requirements</t>
   </si>
@@ -4472,6 +4472,1106 @@
         <scheme val="minor"/>
       </rPr>
       <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;network_name&gt;_Channel/LinIfFrame_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.094(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.095(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.096(0)</t>
+  </si>
+  <si>
+    <t>- check that the CanTp.epc file will have the corect content</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.097(0)</t>
+  </si>
+  <si>
+    <t>Check if the tool will create a default configuration called "CanTpGeneral", where it will set the following parameters to the following values: CanTpPaddingByte: 255 ; CanTpMaxTxNSdus: 32767 ; CanTpMaxRxNSdus: 32767 ; CanTpMaxFcPdus: 32767</t>
+  </si>
+  <si>
+    <t>Test 1: provide to the tool a valid LIN 2.1network that has at least one ECU connected to it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network found in the entry data that has at least one ECU connected to it and for each configured DIAG network, a CanTp channel will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpChannel_Gw_&lt;DIAG_network&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.098(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each created channel, the tool wil set the following parameter to the following value: CanTpChannelMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_MODE_HALF_DUPLEX</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.099(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0100(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each channel crated, the tool will create one PDU for each ECU connected to the LIN network and DIAG network with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpRxNSdu_REQ_&lt;DIAG_network&gt;_&lt;network&gt;_&lt;ECU_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU created as above, the tool will set the following parameters to the following values: CanTpRxNSduId :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ CanTpBs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpRxDl: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpRxWftMax: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNar: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNbr: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNcr: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpSTmin: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CanTpRxAddressingFormat: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_EXTENDED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpRxPaddingActivation: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_OFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpRxTaType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_PHYSICAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0101(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following reference to the following value: CanTpRxNSduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0102(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0103(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following parameters: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpNSa_REQ_&lt;DIAG_name&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanTpNSa: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECU ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following parameters: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpNTa_REQ_&lt;DIAG_name&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanTpNSa: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECU ID</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0104(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following references: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpRxNPdu_REQ_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanTpRxNPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanIf_REQ_&lt;DIAG_name&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0105(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0107(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0106(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following references: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpTxFcNPdu_REQ_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanTpRxNPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_FC_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each channel created, the tool will create one PDU for each ECU connected to the LIN network and DIAG network with the following name:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpRxNSdu_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following parameters to the following values: CanTpTxNSduId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpTxDl: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpTc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNas: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNbs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNcs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpTxAddressingFormat: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_EXTENDED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpTxPaddingActivation: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANTP_OFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpTxTaType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CANTP_PHYSICAL
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0108(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following reference to the following value: CanTpRxNSduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0109(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0110(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following parameters: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CanTpNSa_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CanTpNSa: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECU ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0111(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following parameters: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpNTa_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanTpNTa: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECU ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following references: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpTxNPdu_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CanTpTxNPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_REP_&lt;DIAG_name&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0112(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will create the following PDU with the following references: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpRxFcNPdu_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CanTpRxFcNPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanIf_REQ_&lt;DIAG_network&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0113(0)</t>
+  </si>
+  <si>
+    <t>Check if the CanTpTxNSduId parameter will be integer and continuous from 0. It have the same value for the (CanTpTxNSdu, CanTpRxNSdu) pair of PDUs from the same channel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide to the tool a valid LIN 2.1network that has at least one ECU connected to it</t>
     </r>
   </si>
 </sst>
@@ -4479,12 +5579,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4938,7 +6046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4947,11 +6055,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4961,14 +6069,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4982,7 +6090,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5006,20 +6114,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5028,10 +6136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5040,7 +6148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5053,7 +6161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5063,7 +6171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5072,7 +6180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5084,16 +6192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5105,75 +6213,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5183,11 +6294,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5195,25 +6306,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5225,44 +6363,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5577,7 +6691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5745,13 +6859,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5787,7 +6901,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="97" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -5807,7 +6921,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -5823,7 +6937,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="116"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -5839,7 +6953,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="117"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -5908,10 +7022,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -5928,8 +7042,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -5944,10 +7058,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -5964,8 +7078,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -5980,8 +7094,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -6068,10 +7182,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="103" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -6088,8 +7202,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -6104,8 +7218,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="112"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -6120,10 +7234,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -6140,8 +7254,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="112"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -6156,10 +7270,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="103" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -6176,8 +7290,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="114"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -6228,10 +7342,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="113" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -6248,8 +7362,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -6264,8 +7378,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="101"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -6280,8 +7394,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="101"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -6296,8 +7410,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -6312,10 +7426,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="113" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -6332,8 +7446,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -6804,10 +7918,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="103" t="s">
+      <c r="B57" s="113" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -6824,8 +7938,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="107"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -6840,8 +7954,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="107"/>
-      <c r="B59" s="104"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -6856,8 +7970,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="108"/>
-      <c r="B60" s="105"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -7514,7 +8628,7 @@
       <c r="B93" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="119" t="s">
         <v>103</v>
       </c>
       <c r="D93" s="78"/>
@@ -7570,7 +8684,7 @@
       <c r="B96" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C96" s="118" t="s">
+      <c r="C96" s="92" t="s">
         <v>308</v>
       </c>
       <c r="D96" s="78" t="s">
@@ -7590,7 +8704,7 @@
       <c r="B97" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C97" s="118" t="s">
+      <c r="C97" s="92" t="s">
         <v>308</v>
       </c>
       <c r="D97" s="78" t="s">
@@ -7610,7 +8724,7 @@
       <c r="B98" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="118" t="s">
+      <c r="C98" s="92" t="s">
         <v>308</v>
       </c>
       <c r="D98" s="78" t="s">
@@ -7630,7 +8744,7 @@
       <c r="B99" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="118" t="s">
+      <c r="C99" s="92" t="s">
         <v>308</v>
       </c>
       <c r="D99" s="78" t="s">
@@ -7650,7 +8764,7 @@
       <c r="B100" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="118" t="s">
+      <c r="C100" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D100" s="78" t="s">
@@ -7670,7 +8784,7 @@
       <c r="B101" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="118" t="s">
+      <c r="C101" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D101" s="78" t="s">
@@ -7690,7 +8804,7 @@
       <c r="B102" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C102" s="118" t="s">
+      <c r="C102" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D102" s="78" t="s">
@@ -7710,7 +8824,7 @@
       <c r="B103" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="C103" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D103" s="78" t="s">
@@ -7730,7 +8844,7 @@
       <c r="B104" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C104" s="118" t="s">
+      <c r="C104" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D104" s="78" t="s">
@@ -7750,7 +8864,7 @@
       <c r="B105" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="C105" s="118" t="s">
+      <c r="C105" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D105" s="78" t="s">
@@ -7770,7 +8884,7 @@
       <c r="B106" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="C106" s="118" t="s">
+      <c r="C106" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D106" s="78" t="s">
@@ -7790,7 +8904,7 @@
       <c r="B107" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C107" s="118" t="s">
+      <c r="C107" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D107" s="78" t="s">
@@ -7810,7 +8924,7 @@
       <c r="B108" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="118" t="s">
+      <c r="C108" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D108" s="78" t="s">
@@ -7830,7 +8944,7 @@
       <c r="B109" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C109" s="118" t="s">
+      <c r="C109" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D109" s="78" t="s">
@@ -7850,7 +8964,7 @@
       <c r="B110" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C110" s="118" t="s">
+      <c r="C110" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D110" s="78" t="s">
@@ -7870,7 +8984,7 @@
       <c r="B111" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="C111" s="118" t="s">
+      <c r="C111" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D111" s="78" t="s">
@@ -7890,7 +9004,7 @@
       <c r="B112" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C112" s="118" t="s">
+      <c r="C112" s="92" t="s">
         <v>317</v>
       </c>
       <c r="D112" s="78" t="s">
@@ -7910,8 +9024,8 @@
       <c r="B113" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="118" t="s">
-        <v>317</v>
+      <c r="C113" s="119" t="s">
+        <v>308</v>
       </c>
       <c r="D113" s="78" t="s">
         <v>305</v>
@@ -7924,373 +9038,429 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A114" s="82"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="118"/>
+      <c r="A114" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="119" t="s">
+        <v>103</v>
+      </c>
       <c r="D114" s="78"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="29"/>
+      <c r="E114" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A115" s="82"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="118"/>
+      <c r="A115" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="119" t="s">
+        <v>103</v>
+      </c>
       <c r="D115" s="78"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A116" s="72"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="29"/>
-    </row>
-    <row r="117" spans="1:6" ht="120">
-      <c r="A117" s="97" t="s">
+      <c r="E115" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A116" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D116" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A117" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A118" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A119" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
+      <c r="A120" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D120" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A121" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A122" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A123" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A124" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D124" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A125" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A126" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
+      <c r="A127" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="B127" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D127" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A128" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C128" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="D128" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A129" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A130" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D130" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A131" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C131" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D131" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A132" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A133" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C133" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="D133" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A134" s="82"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="119"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="29"/>
+    </row>
+    <row r="135" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A135" s="72"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="29"/>
+    </row>
+    <row r="136" spans="1:6" ht="120">
+      <c r="A136" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B117" s="98" t="s">
+      <c r="B136" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C136" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D117" s="71" t="s">
+      <c r="D136" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="120">
-      <c r="A118" s="97"/>
-      <c r="B118" s="98"/>
-      <c r="C118" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="120">
-      <c r="A119" s="97"/>
-      <c r="B119" s="98"/>
-      <c r="C119" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="120">
-      <c r="A120" s="97"/>
-      <c r="B120" s="98"/>
-      <c r="C120" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D120" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="120">
-      <c r="A121" s="97"/>
-      <c r="B121" s="98"/>
-      <c r="C121" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30">
-      <c r="A122" s="99"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D122" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="60">
-      <c r="A123" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B123" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D123" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="30">
-      <c r="A124" s="110"/>
-      <c r="B124" s="95"/>
-      <c r="C124" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D124" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="60">
-      <c r="A125" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="110"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D126" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="60">
-      <c r="A127" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="B127" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="110"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D128" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="60">
-      <c r="A129" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D129" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30">
-      <c r="A130" s="110"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D130" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="60">
-      <c r="A131" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D131" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="110"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D132" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="60">
-      <c r="A133" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B133" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D133" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="30">
-      <c r="A134" s="110"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D134" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="60">
-      <c r="A135" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D135" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30">
-      <c r="A136" s="110"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="77" t="s">
-        <v>50</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>22</v>
@@ -8299,18 +9469,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="60">
-      <c r="A137" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B137" s="94" t="s">
-        <v>53</v>
-      </c>
+    <row r="137" spans="1:6" ht="120">
+      <c r="A137" s="109"/>
+      <c r="B137" s="104"/>
       <c r="C137" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D137" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E137" s="24" t="s">
         <v>22</v>
@@ -8319,14 +9485,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
-      <c r="A138" s="110"/>
-      <c r="B138" s="95"/>
+    <row r="138" spans="1:6" ht="120">
+      <c r="A138" s="109"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D138" s="77" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E138" s="24" t="s">
         <v>22</v>
@@ -8335,18 +9501,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="60">
-      <c r="A139" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B139" s="94" t="s">
-        <v>52</v>
-      </c>
+    <row r="139" spans="1:6" ht="120">
+      <c r="A139" s="109"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D139" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E139" s="24" t="s">
         <v>22</v>
@@ -8355,14 +9517,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30">
-      <c r="A140" s="110"/>
-      <c r="B140" s="95"/>
+    <row r="140" spans="1:6" ht="120">
+      <c r="A140" s="109"/>
+      <c r="B140" s="104"/>
       <c r="C140" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D140" s="77" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E140" s="24" t="s">
         <v>22</v>
@@ -8371,18 +9533,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60">
-      <c r="A141" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B141" s="94" t="s">
-        <v>60</v>
-      </c>
+    <row r="141" spans="1:6" ht="30">
+      <c r="A141" s="110"/>
+      <c r="B141" s="96"/>
       <c r="C141" s="11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D141" s="77" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>22</v>
@@ -8391,14 +9549,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30">
-      <c r="A142" s="110"/>
-      <c r="B142" s="95"/>
+    <row r="142" spans="1:6" ht="60">
+      <c r="A142" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="95" t="s">
+        <v>32</v>
+      </c>
       <c r="C142" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D142" s="77" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E142" s="24" t="s">
         <v>22</v>
@@ -8407,18 +9569,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="60">
-      <c r="A143" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B143" s="94" t="s">
-        <v>59</v>
-      </c>
+    <row r="143" spans="1:6" ht="30">
+      <c r="A143" s="94"/>
+      <c r="B143" s="96"/>
       <c r="C143" s="11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D143" s="77" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>22</v>
@@ -8427,14 +9585,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30">
-      <c r="A144" s="110"/>
-      <c r="B144" s="95"/>
+    <row r="144" spans="1:6" ht="60">
+      <c r="A144" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="95" t="s">
+        <v>35</v>
+      </c>
       <c r="C144" s="11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D144" s="77" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E144" s="24" t="s">
         <v>22</v>
@@ -8443,18 +9605,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="60">
-      <c r="A145" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="B145" s="94" t="s">
-        <v>58</v>
-      </c>
+    <row r="145" spans="1:6">
+      <c r="A145" s="94"/>
+      <c r="B145" s="96"/>
       <c r="C145" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D145" s="77" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>22</v>
@@ -8463,14 +9621,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30">
-      <c r="A146" s="110"/>
-      <c r="B146" s="95"/>
+    <row r="146" spans="1:6" ht="60">
+      <c r="A146" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B146" s="95" t="s">
+        <v>37</v>
+      </c>
       <c r="C146" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D146" s="77" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E146" s="24" t="s">
         <v>22</v>
@@ -8479,18 +9641,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="60">
-      <c r="A147" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B147" s="94" t="s">
-        <v>62</v>
-      </c>
+    <row r="147" spans="1:6">
+      <c r="A147" s="94"/>
+      <c r="B147" s="96"/>
       <c r="C147" s="11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D147" s="77" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>22</v>
@@ -8499,14 +9657,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30">
-      <c r="A148" s="110"/>
-      <c r="B148" s="95"/>
+    <row r="148" spans="1:6" ht="60">
+      <c r="A148" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="95" t="s">
+        <v>41</v>
+      </c>
       <c r="C148" s="11" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D148" s="77" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E148" s="24" t="s">
         <v>22</v>
@@ -8515,18 +9677,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A149" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="81" t="s">
-        <v>64</v>
+    <row r="149" spans="1:6" ht="30">
+      <c r="A149" s="94"/>
+      <c r="B149" s="96"/>
+      <c r="C149" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>22</v>
@@ -8535,8 +9693,352 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="63" t="s">
+    <row r="150" spans="1:6" ht="60">
+      <c r="A150" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B150" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="94"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D151" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="60">
+      <c r="A152" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30">
+      <c r="A153" s="94"/>
+      <c r="B153" s="96"/>
+      <c r="C153" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="60">
+      <c r="A154" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30">
+      <c r="A155" s="94"/>
+      <c r="B155" s="96"/>
+      <c r="C155" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="60">
+      <c r="A156" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30">
+      <c r="A157" s="94"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="60">
+      <c r="A158" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30">
+      <c r="A159" s="94"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="60">
+      <c r="A160" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30">
+      <c r="A161" s="94"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="60">
+      <c r="A162" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30">
+      <c r="A163" s="94"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="60">
+      <c r="A164" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30">
+      <c r="A165" s="94"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D165" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="60">
+      <c r="A166" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B166" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D166" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="30">
+      <c r="A167" s="94"/>
+      <c r="B167" s="96"/>
+      <c r="C167" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A168" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8552,53 +10054,53 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
-  <conditionalFormatting sqref="E117:E1048576 E1:E115">
+  <conditionalFormatting sqref="E136:E1048576 E1:E134">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -8606,21 +10108,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:F149 F2:F115">
+  <conditionalFormatting sqref="F136:F168 F2:F134">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:F149 F2:F115">
+  <conditionalFormatting sqref="F136:F168 F2:F134">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E115 E117:E149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E134 E136:E168">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F115 F117:F149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F134 F136:F168">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="435">
   <si>
     <t>Requirements</t>
   </si>
@@ -5573,18 +5573,1292 @@
       </rPr>
       <t>provide to the tool a valid LIN 2.1network that has at least one ECU connected to it</t>
     </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0114(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0115(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0116(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0117(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0118(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network found in the entry data and for each configured DIAG network, a PDU will be created with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfRxPduCfg_REQ_&lt;DIAG_network&gt;_&lt;network_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU created as above, the tool will set the following parameters to the followings values: CanIfRxPduCanId:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> REQ ID of LIN network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfRxPduDlc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfRxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_NO_FD_CAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfRxPduUserRxIndicationUL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAN_TP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values: CanIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanIf_REQ_&lt;DIAG_network&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfRxPduHrhIdRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/CanIfInitHohCfg/HOH_0_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0119(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 2.1 network found in the entry data and for each configured DIAG network, a PDU will be created with the following name:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfTxPduCfg_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0120(0)</t>
+  </si>
+  <si>
+    <t>- check that the CanIf.epc file will have the corect content</t>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU created as above, the tool will set the following parameters to the following values:  CanIfTxPduCanId:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> REP ID of LIN network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduDlc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CanIfTxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_CAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0121(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values:
+ CanIfTxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;  CanIfTxPduBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/HOH_2_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0122(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3network and each DIAG configured network, the tool will create an PDU with the following data:  Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfRxPduCfg_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0123(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool a valid LIN 2.1 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0124(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following parameters to the following values:
+CanIfRxPduCanId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REQ ID of LIN network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;
+ CanIfRxPduDlc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CanIfRxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_NO_FD_CAN ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ CanIfRxPduUserRxIndicationUL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDUR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values: CanIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanIf_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/CanIfInitHohCfg/HOH_0_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0125(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 1.3  network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3network and each DIAG configured network, the tool will create an PDU with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfTxPduCfg_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0126(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following parameters to the following values:  CanIfTxPduCanId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REP ID of LIN network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduDlc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_CAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STATIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; CanIfTxPduUserTxConfirmationUL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDUR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0127(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values: CanIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanIf_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_EnGwCLD ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CanIfTxPduBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/HOH_2_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0128(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN 2.1  network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1network and each DIAG configured network, the tool will create an PDU with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfTxPduCfg_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0129(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following parameters to the following values: CanIfTxPduCanId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REP ID of LIN network ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanIfTxPduDlc: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanIfTxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_CAN ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanIfTxPduType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STATIC ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CanIfTxPduUserTxConfirmationUL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAN_TP ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0130(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values: CanIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ CanIfTxPduBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/HOH_2_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Test 1: provide to the tool a valid LIN 2.1  network that has at least one ECU connected to it</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0131(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 2.1network and each DIAG configured network, the tool will create an PDU with the following data: Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfTxPduCfg_FC_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool a valid LIN 2.1  network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0132(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following parameters to the following values: CanIfTxPduCanId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REP ID of LIN network ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanIfTxPduDlc:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CanIfTxPduCanIdType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STANDARD_CAN ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CanIfTxPduType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STATIC ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CanIfTxPduUserTxConfirmationUL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAN_TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0133(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU created as above, the tool will set the following references to the following values:
+CanIfRxPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/CanTp_FC_REP_&lt;DIAG_network&gt;_&lt;network_name&gt;_&lt;ECU_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CanIfTxPduBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CanIf/CanIf/CanIfInitCfg/HOH_2_VSM_&lt;DIAG_network&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0135(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0134(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0136(0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6046,7 +7320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -6055,11 +7329,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6069,14 +7343,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -6090,7 +7364,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6114,20 +7388,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6136,10 +7410,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6148,7 +7422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6161,7 +7435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6171,7 +7445,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6180,7 +7454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6192,16 +7466,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6213,19 +7487,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -6237,7 +7511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6261,26 +7535,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6294,16 +7571,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -6315,68 +7652,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6691,7 +7968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6859,13 +8136,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6901,7 +8178,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="118" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -6921,7 +8198,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -6937,7 +8214,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="98"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -6953,7 +8230,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="99"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -7022,10 +8299,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="97" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -7042,8 +8319,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -7058,10 +8335,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="97" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -7078,8 +8355,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -7094,8 +8371,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -7182,10 +8459,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="116" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -7202,8 +8479,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -7218,8 +8495,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -7234,10 +8511,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="116" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -7254,8 +8531,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="105"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -7270,10 +8547,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="116" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -7290,8 +8567,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -7342,10 +8619,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="106" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -7362,8 +8639,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="114"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -7378,8 +8655,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -7394,8 +8671,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -7410,8 +8687,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="112"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -7426,10 +8703,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="106" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -7446,8 +8723,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -7918,10 +9195,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="116" t="s">
+      <c r="A57" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="106" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -7938,8 +9215,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="114"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -7954,8 +9231,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="117"/>
-      <c r="B59" s="114"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -7970,8 +9247,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="118"/>
-      <c r="B60" s="115"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -8628,7 +9905,7 @@
       <c r="B93" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="93" t="s">
         <v>103</v>
       </c>
       <c r="D93" s="78"/>
@@ -9024,7 +10301,7 @@
       <c r="B113" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="119" t="s">
+      <c r="C113" s="93" t="s">
         <v>308</v>
       </c>
       <c r="D113" s="78" t="s">
@@ -9037,14 +10314,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="114" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A114" s="82" t="s">
         <v>344</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="119" t="s">
+      <c r="C114" s="121" t="s">
         <v>103</v>
       </c>
       <c r="D114" s="78"/>
@@ -9055,14 +10332,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="115" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A115" s="82" t="s">
         <v>345</v>
       </c>
       <c r="B115" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="119" t="s">
+      <c r="C115" s="93" t="s">
         <v>103</v>
       </c>
       <c r="D115" s="78"/>
@@ -9080,7 +10357,7 @@
       <c r="B116" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C116" s="119" t="s">
+      <c r="C116" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D116" s="78" t="s">
@@ -9100,7 +10377,7 @@
       <c r="B117" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="C117" s="119" t="s">
+      <c r="C117" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D117" s="78" t="s">
@@ -9120,7 +10397,7 @@
       <c r="B118" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="119" t="s">
+      <c r="C118" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D118" s="78" t="s">
@@ -9140,7 +10417,7 @@
       <c r="B119" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="119" t="s">
+      <c r="C119" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D119" s="78" t="s">
@@ -9160,7 +10437,7 @@
       <c r="B120" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="119" t="s">
+      <c r="C120" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D120" s="78" t="s">
@@ -9180,7 +10457,7 @@
       <c r="B121" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C121" s="119" t="s">
+      <c r="C121" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D121" s="78" t="s">
@@ -9200,7 +10477,7 @@
       <c r="B122" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="C122" s="119" t="s">
+      <c r="C122" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D122" s="78" t="s">
@@ -9220,7 +10497,7 @@
       <c r="B123" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="119" t="s">
+      <c r="C123" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D123" s="78" t="s">
@@ -9240,7 +10517,7 @@
       <c r="B124" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="119" t="s">
+      <c r="C124" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D124" s="78" t="s">
@@ -9260,7 +10537,7 @@
       <c r="B125" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="119" t="s">
+      <c r="C125" s="93" t="s">
         <v>350</v>
       </c>
       <c r="D125" s="78" t="s">
@@ -9280,7 +10557,7 @@
       <c r="B126" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C126" s="119" t="s">
+      <c r="C126" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D126" s="78" t="s">
@@ -9297,10 +10574,10 @@
       <c r="A127" s="82" t="s">
         <v>368</v>
       </c>
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="94" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="119" t="s">
+      <c r="C127" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D127" s="78" t="s">
@@ -9320,7 +10597,7 @@
       <c r="B128" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="119" t="s">
+      <c r="C128" s="93" t="s">
         <v>374</v>
       </c>
       <c r="D128" s="78" t="s">
@@ -9340,7 +10617,7 @@
       <c r="B129" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="119" t="s">
+      <c r="C129" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D129" s="78" t="s">
@@ -9360,7 +10637,7 @@
       <c r="B130" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="C130" s="119" t="s">
+      <c r="C130" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D130" s="78" t="s">
@@ -9380,7 +10657,7 @@
       <c r="B131" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C131" s="119" t="s">
+      <c r="C131" s="93" t="s">
         <v>351</v>
       </c>
       <c r="D131" s="78" t="s">
@@ -9400,7 +10677,7 @@
       <c r="B132" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="C132" s="119" t="s">
+      <c r="C132" s="93" t="s">
         <v>374</v>
       </c>
       <c r="D132" s="78" t="s">
@@ -9433,458 +10710,484 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A134" s="82"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="119"/>
+    <row r="134" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A134" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="121" t="s">
+        <v>103</v>
+      </c>
       <c r="D134" s="78"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="29"/>
-    </row>
-    <row r="135" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A135" s="72"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="29"/>
-    </row>
-    <row r="136" spans="1:6" ht="120">
-      <c r="A136" s="109" t="s">
+      <c r="E134" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A135" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="78"/>
+      <c r="E135" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A136" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C136" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="22" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A137" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D137" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+      <c r="A138" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D138" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A139" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A140" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C140" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="22" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A141" s="82" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A142" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C142" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D142" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="22" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A143" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" s="121" t="s">
+        <v>406</v>
+      </c>
+      <c r="D143" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="22" customFormat="1" ht="150" customHeight="1">
+      <c r="A144" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D144" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A145" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C145" s="121" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A146" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C146" s="121" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
+      <c r="A147" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C147" s="121" t="s">
+        <v>411</v>
+      </c>
+      <c r="D147" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A148" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C148" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="D148" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A149" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C149" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="D149" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A150" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C150" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A151" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C151" s="121" t="s">
+        <v>424</v>
+      </c>
+      <c r="D151" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="22" customFormat="1" ht="96" customHeight="1">
+      <c r="A152" s="82" t="s">
+        <v>428</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C152" s="121" t="s">
+        <v>427</v>
+      </c>
+      <c r="D152" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
+      <c r="A153" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C153" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="D153" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A154" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C154" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" s="78"/>
+      <c r="E154" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A155" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" s="78"/>
+      <c r="E155" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A156" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B156" s="26"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="78"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="29"/>
+    </row>
+    <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A157" s="82"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="78"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="29"/>
+    </row>
+    <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A158" s="82"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="29"/>
+    </row>
+    <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A159" s="72"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="29"/>
+    </row>
+    <row r="160" spans="1:6" ht="120">
+      <c r="A160" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B136" s="104" t="s">
+      <c r="B160" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C160" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="71" t="s">
+      <c r="D160" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="120">
-      <c r="A137" s="109"/>
-      <c r="B137" s="104"/>
-      <c r="C137" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="120">
-      <c r="A138" s="109"/>
-      <c r="B138" s="104"/>
-      <c r="C138" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="120">
-      <c r="A139" s="109"/>
-      <c r="B139" s="104"/>
-      <c r="C139" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D139" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F139" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="120">
-      <c r="A140" s="109"/>
-      <c r="B140" s="104"/>
-      <c r="C140" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D140" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="30">
-      <c r="A141" s="110"/>
-      <c r="B141" s="96"/>
-      <c r="C141" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D141" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="60">
-      <c r="A142" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B142" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="30">
-      <c r="A143" s="94"/>
-      <c r="B143" s="96"/>
-      <c r="C143" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="60">
-      <c r="A144" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D144" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E144" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="94"/>
-      <c r="B145" s="96"/>
-      <c r="C145" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="60">
-      <c r="A146" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D146" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="94"/>
-      <c r="B147" s="96"/>
-      <c r="C147" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D147" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F147" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="60">
-      <c r="A148" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D148" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="30">
-      <c r="A149" s="94"/>
-      <c r="B149" s="96"/>
-      <c r="C149" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D149" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F149" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="60">
-      <c r="A150" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="B150" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D150" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="94"/>
-      <c r="B151" s="96"/>
-      <c r="C151" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D151" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F151" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="60">
-      <c r="A152" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D152" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30">
-      <c r="A153" s="94"/>
-      <c r="B153" s="96"/>
-      <c r="C153" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="60">
-      <c r="A154" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="B154" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="30">
-      <c r="A155" s="94"/>
-      <c r="B155" s="96"/>
-      <c r="C155" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D155" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F155" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="60">
-      <c r="A156" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="B156" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D156" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F156" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30">
-      <c r="A157" s="94"/>
-      <c r="B157" s="96"/>
-      <c r="C157" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D157" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F157" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="60">
-      <c r="A158" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B158" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D158" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F158" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="30">
-      <c r="A159" s="94"/>
-      <c r="B159" s="96"/>
-      <c r="C159" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D159" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="60">
-      <c r="A160" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="B160" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="77" t="s">
-        <v>46</v>
       </c>
       <c r="E160" s="24" t="s">
         <v>22</v>
@@ -9893,14 +11196,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="30">
-      <c r="A161" s="94"/>
-      <c r="B161" s="96"/>
+    <row r="161" spans="1:6" ht="120">
+      <c r="A161" s="100"/>
+      <c r="B161" s="101"/>
       <c r="C161" s="11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D161" s="77" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E161" s="24" t="s">
         <v>22</v>
@@ -9909,18 +11212,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="60">
-      <c r="A162" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" s="95" t="s">
-        <v>59</v>
-      </c>
+    <row r="162" spans="1:6" ht="120">
+      <c r="A162" s="100"/>
+      <c r="B162" s="101"/>
       <c r="C162" s="11" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D162" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E162" s="24" t="s">
         <v>22</v>
@@ -9929,14 +11228,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="30">
-      <c r="A163" s="94"/>
-      <c r="B163" s="96"/>
+    <row r="163" spans="1:6" ht="120">
+      <c r="A163" s="100"/>
+      <c r="B163" s="101"/>
       <c r="C163" s="11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D163" s="77" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E163" s="24" t="s">
         <v>22</v>
@@ -9945,18 +11244,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="60">
-      <c r="A164" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="B164" s="95" t="s">
-        <v>58</v>
-      </c>
+    <row r="164" spans="1:6" ht="120">
+      <c r="A164" s="100"/>
+      <c r="B164" s="101"/>
       <c r="C164" s="11" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D164" s="77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E164" s="24" t="s">
         <v>22</v>
@@ -9966,13 +11261,13 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="30">
-      <c r="A165" s="94"/>
-      <c r="B165" s="96"/>
+      <c r="A165" s="102"/>
+      <c r="B165" s="98"/>
       <c r="C165" s="11" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D165" s="77" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E165" s="24" t="s">
         <v>22</v>
@@ -9982,17 +11277,17 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="60">
-      <c r="A166" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B166" s="95" t="s">
-        <v>62</v>
+      <c r="A166" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" s="97" t="s">
+        <v>32</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D166" s="77" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E166" s="24" t="s">
         <v>22</v>
@@ -10002,13 +11297,13 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="30">
-      <c r="A167" s="94"/>
-      <c r="B167" s="96"/>
+      <c r="A167" s="113"/>
+      <c r="B167" s="98"/>
       <c r="C167" s="11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D167" s="77" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E167" s="24" t="s">
         <v>22</v>
@@ -10017,18 +11312,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A168" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="81" t="s">
-        <v>64</v>
+    <row r="168" spans="1:6" ht="60">
+      <c r="A168" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" s="77" t="s">
+        <v>38</v>
       </c>
       <c r="E168" s="24" t="s">
         <v>22</v>
@@ -10037,8 +11332,440 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="63" t="s">
+    <row r="169" spans="1:6">
+      <c r="A169" s="113"/>
+      <c r="B169" s="98"/>
+      <c r="C169" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="60">
+      <c r="A170" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D170" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="113"/>
+      <c r="B171" s="98"/>
+      <c r="C171" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="60">
+      <c r="A172" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="30">
+      <c r="A173" s="113"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="60">
+      <c r="A174" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B174" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="113"/>
+      <c r="B175" s="98"/>
+      <c r="C175" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D175" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="60">
+      <c r="A176" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30">
+      <c r="A177" s="113"/>
+      <c r="B177" s="98"/>
+      <c r="C177" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="60">
+      <c r="A178" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D178" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30">
+      <c r="A179" s="113"/>
+      <c r="B179" s="98"/>
+      <c r="C179" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D179" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="60">
+      <c r="A180" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30">
+      <c r="A181" s="113"/>
+      <c r="B181" s="98"/>
+      <c r="C181" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D181" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="60">
+      <c r="A182" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D182" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="30">
+      <c r="A183" s="113"/>
+      <c r="B183" s="98"/>
+      <c r="C183" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="60">
+      <c r="A184" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D184" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30">
+      <c r="A185" s="113"/>
+      <c r="B185" s="98"/>
+      <c r="C185" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="60">
+      <c r="A186" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D186" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30">
+      <c r="A187" s="113"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="60">
+      <c r="A188" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D188" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30">
+      <c r="A189" s="113"/>
+      <c r="B189" s="98"/>
+      <c r="C189" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D189" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="60">
+      <c r="A190" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D190" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="30">
+      <c r="A191" s="113"/>
+      <c r="B191" s="98"/>
+      <c r="C191" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D191" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A192" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10054,53 +11781,53 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="A160:A165"/>
+    <mergeCell ref="B160:B165"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
-  <conditionalFormatting sqref="E136:E1048576 E1:E134">
+  <conditionalFormatting sqref="E160:E1048576 E1:E158">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -10108,21 +11835,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136:F168 F2:F134">
+  <conditionalFormatting sqref="F160:F192 F2:F158">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136:F168 F2:F134">
+  <conditionalFormatting sqref="F160:F192 F2:F158">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E134 E136:E168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E158 E160:E192">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F134 F136:F168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F158 F160:F192">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="498">
   <si>
     <t>Requirements</t>
   </si>
@@ -6839,18 +6839,2652 @@
   </si>
   <si>
     <t>TRS.COMCONF.GEN.0136(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the tool will create the BswM Autosar module configuration that will have the name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMConfig_0.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the BswM.epc file will have the corect content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a valid LIN-CLUSTER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: provide to the tool a valid LIN-CLUSTER </t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0137(0)</t>
+  </si>
+  <si>
+    <t>Check if the LIN clusters have at least one &lt;LIN-SCHEDULE-TABEL&gt; of REQUEST_DIAG category and at least one &lt;LIN-SCHEDULE-TABLE&gt; of RESPONSE_DIAG category. If this condition is not fulfilled, the tool will ignore the LIN cluster and all of &lt;LIN-SCHEDULE-TABLE&gt; associated data.</t>
+  </si>
+  <si>
+    <t>- check that the BswM.epc file will not contain that LIN-CLUSTER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a LIN-CLUSTER that have one &lt;LIN-SCHEDULE-TABLE&gt; of REQUEST_DIAG catergory and no &lt;LIN-SCHEDULE-TABLE&gt; of RESPONSE_DIAG catergory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a LIN-CLUSTER that have one &lt;LIN-SCHEDULE-TABLE&gt; of RESPONSE_DIAG catergory and no &lt;LIN-SCHEDULE-TABLE&gt; of REQUEST_DIAG catergory.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the BswM.epc file will contain that LIN-CLUSTER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool a LIN-CLUSTER that have at least one &lt;LIN-SCHEDULE-TABLE&gt; of RESPONSE_DIAG category and at least one &lt;LIN-SCHEDULE-TABLE&gt; of REQUEST_DIAG caregory.</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0138(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category REQUEST_DIAG, RESPONSE_DIAG or FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMLogicalExpression_BswMRule_CurrentSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMArgumentRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeCondition_LinScheduleTable_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0139(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category REQUEST_DIAG, RESPONSE_DIAG or FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeCondition_LinScheduleTable_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_EQUALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMScheduleIndication_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMConditionValue/BswMConditionValue, the parameter:
+o BswMBswRequestedMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0140(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each schedule table of category REQUEST_DIAG, RESPONSE_DIAG or FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMScheduleIndication_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRequestProcessing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_IMMEDIATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMModeRequestSource/BswMModeRequestSource, the parameter:
+o BswMLinScheduleRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinSM/LinSM/LinSMConfigSet/&lt;LIN_name&gt;/&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0141(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each schedule table of category REQUEST_DIAG, RESPONSE_DIAG or FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMRule_CurrentSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMNestedExecutionOnly: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleInitState : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleExpressionRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMLogicalExpression_BswMRule_CurrentSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleTrueActionList: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMActionList_BswMRule_CurrentSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0142(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0143(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0144(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category RESPONSE_DIAG, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMAvailableActions/BswMAvailableActions, the parameter:
+o BswMUserCalloutFunction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_DiagScheduleResponse(ComMConf_ComMChannel_&lt;LIN_name&gt;,LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category RESPONSE _DIAG, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_Confirmation_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAvailableActions/BswMAvailableActions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the parameter:
+o BswMUserCalloutFunction: o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_ScheduleRequestConfirmation(ComMConf_ComMChannel_&lt;LIN_name&gt;,LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;,LINTP_DIAG_RESPONSE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category REQUEST_DIAG, RESPONSE_DIAG or FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_BswMRule_CurrentSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMActionListExecution: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subcontainer:BswMActionList_&lt;LIN_name&gt;_&lt;table_name&gt;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the parameters:
+o BswMAbortOnFail: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMAction_BswMUserCallout_Confirmation_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0145(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category FUNCTIONAL, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_Confirmation_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer: BswMAvailableActions/BswMAvailableActions, the parameter:
+o BswMUserCalloutFunction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_ScheduleRequestConfirmation(ComMConf_ComMChannel_&lt;LIN_name&gt;,LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;,LINTP_APPLICATIVE_SCHEDULE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0146(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each schedule table of category REQUEST_DIAG, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_Confirmation_&lt;LIN_name&gt;_&lt;table_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer: BswMAvailableActions/BswMAvailableActions, the parameter:
+o BswMUserCalloutFunction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_ScheduleRequestConfirmation(ComMConf_ComMChannel_&lt;LIN_name&gt;,LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;,LINTP_DIAG_REQUEST)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0147(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each schedule table of category REQUEST _DIAG, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMAvailableActions/BswMAvailableActions, the parameter:
+o BswMUserCalloutFunction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_DiagScheduleRequest(ComMConf_ComMChannel_&lt;LIN_name&gt;,LinSMConf_LinSMSchedule_&lt;LIN_name&gt;_&lt;table_name&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0148(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMArgumentRef : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_APPLICATIVE_SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0149(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMArgumentRef : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_DIAG_REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0150(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMArgumentRef : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_DIAG_RESPONSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0151(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_APPLICATIVE_SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_EQUALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeRequestPort_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMConditionValue/ BswMConditionValue, the parameter:
+o BswMBswRequestedMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_APPLICATIVE_SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0152(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_DIAG_REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_EQUALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeRequestPort_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMConditionValue/ BswMConditionValue, the parameter:
+o BswMBswRequestedMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0153(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeCondition_BswMModeRequestPort_&lt;LIN_name&gt;_LINTP_DIAG_RESPONSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_EQUALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMConditionMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMModeRequestPort_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMConditionValue/ BswMConditionValue, the parameter:
+o BswMBswRequestedMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_RESPONSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0154(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeRequestPort_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRequestProcessing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_IMMEDIATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer BswMModeInitValue, the parameter:
+o BswMBswModeInitValueMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_APPLICATIVE_SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMModeRequestSource/BswMModeRequestSource, the parameter:
+o BswMLinTpChannelRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;LIN_name&gt;_Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0155(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeRequestPort_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRequestProcessing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_IMMEDIATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer BswMModeInitValue, the parameter:
+o BswMBswModeInitValueMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_APPLICATIVE_SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMModeRequestSource/BswMModeRequestSource, the parameter:
+o BswMLinTpChannelRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;LIN_name&gt;_Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0156(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0157(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMModeRequestPort_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRequestProcessing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_IMMEDIATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer BswMModeInitValue, the parameter:
+o BswMBswModeInitValueMode:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMModeRequestSource/BswMModeRequestSource, the parameter:
+o BswMLinTpChannelRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/LinIf/LinIf/LinIfGlobalConfig/&lt;LIN_name&gt;_Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0158(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMRule_LinTp_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMNestedExecutionOnly: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleInitState: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleExpressionRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleTrueActionList: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_Applicative_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMRule_LinTp_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMNestedExecutionOnly: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleInitState: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleExpressionRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleTrueActionList: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_DiagReq_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0159(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMRule_LinTp_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMNestedExecutionOnly: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleInitState: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleExpressionRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMArbitration/BswMLogicalExpression_BswMRule_LinTp_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMRuleTrueActionList: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_DiagResp_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0160(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0161(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_DiagReq_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMActionListExecution: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subcontainer:BswMActionList_&lt;LIN_name&gt;_DiagReq,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the parameter:
+o BswMAbortOnFail: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMAction_BswMUserCallout_&lt;LIN_name&gt;_DiagReq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0162(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_Applicative_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMActionListExecution: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subcontainer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_&lt;LIN_name&gt;_Applicative,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the parameter:
+o BswMAbortOnFail: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMAction_BswMUserCallout_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_BswMRule_LinTp_&lt;LIN_name&gt;_DiagResp_TrueActionList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• BswMActionListExecution: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSWM_CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMActionList_&lt;LIN_name&gt;_DiagResp,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the parameter:
+o BswMAbortOnFail: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemIndex: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+o BswMActionListItemRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/BswM/BswM/BswMConfig_0/BswMModeControl/BswMAction_BswMUserCallout_&lt;LIN_name&gt;_DiagResp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0163(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN cluster, the tool will have to generate the following container:
+• Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswMAction_BswMUserCallout_&lt;LIN_name&gt;_Applicative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Under subcontainer:BswMAvailableActions/BswMAvailableActions, the parameter:
+o  BswMUserCalloutFunction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSR_AppLicativeScheduleRequest(ComMConf_ComMChannel_&lt;LIN_name&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7320,7 +9954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -7329,11 +9963,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7343,14 +9977,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7364,7 +9998,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7388,20 +10022,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7410,10 +10044,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7422,7 +10056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7435,7 +10069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7445,7 +10079,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7454,7 +10088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7466,16 +10100,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7487,19 +10121,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -7511,7 +10145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7535,26 +10169,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7568,17 +10205,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7586,25 +10229,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7616,41 +10286,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7968,7 +10611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8136,13 +10779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
+      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8178,7 +10821,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="102" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -8198,7 +10841,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -8214,7 +10857,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="119"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -8230,7 +10873,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="120"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -8299,10 +10942,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="100" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -8319,8 +10962,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -8335,10 +10978,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -8355,8 +10998,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -8371,8 +11014,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -8459,10 +11102,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="108" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -8479,8 +11122,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -8495,8 +11138,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -8511,10 +11154,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="108" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -8531,8 +11174,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -8547,10 +11190,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="108" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -8567,8 +11210,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -8619,10 +11262,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="118" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -8639,8 +11282,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -8655,8 +11298,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -8671,8 +11314,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -8687,8 +11330,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -8703,10 +11346,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="118" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -8723,8 +11366,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -9195,10 +11838,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="118" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -9215,8 +11858,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="110"/>
-      <c r="B58" s="107"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -9231,8 +11874,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="110"/>
-      <c r="B59" s="107"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -9247,8 +11890,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="111"/>
-      <c r="B60" s="108"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -10321,7 +12964,7 @@
       <c r="B114" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="121" t="s">
+      <c r="C114" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D114" s="78"/>
@@ -10717,7 +13360,7 @@
       <c r="B134" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="121" t="s">
+      <c r="C134" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D134" s="78"/>
@@ -10735,7 +13378,7 @@
       <c r="B135" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="121" t="s">
+      <c r="C135" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D135" s="78"/>
@@ -10753,7 +13396,7 @@
       <c r="B136" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="C136" s="121" t="s">
+      <c r="C136" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D136" s="78" t="s">
@@ -10773,7 +13416,7 @@
       <c r="B137" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C137" s="121" t="s">
+      <c r="C137" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D137" s="78" t="s">
@@ -10793,7 +13436,7 @@
       <c r="B138" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C138" s="121" t="s">
+      <c r="C138" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D138" s="78" t="s">
@@ -10813,7 +13456,7 @@
       <c r="B139" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C139" s="121" t="s">
+      <c r="C139" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D139" s="78" t="s">
@@ -10833,7 +13476,7 @@
       <c r="B140" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C140" s="121" t="s">
+      <c r="C140" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D140" s="78" t="s">
@@ -10853,7 +13496,7 @@
       <c r="B141" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="121" t="s">
+      <c r="C141" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D141" s="78" t="s">
@@ -10873,7 +13516,7 @@
       <c r="B142" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="121" t="s">
+      <c r="C142" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D142" s="78" t="s">
@@ -10893,7 +13536,7 @@
       <c r="B143" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C143" s="121" t="s">
+      <c r="C143" s="97" t="s">
         <v>406</v>
       </c>
       <c r="D143" s="78" t="s">
@@ -10913,7 +13556,7 @@
       <c r="B144" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C144" s="121" t="s">
+      <c r="C144" s="97" t="s">
         <v>391</v>
       </c>
       <c r="D144" s="78" t="s">
@@ -10933,7 +13576,7 @@
       <c r="B145" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="C145" s="121" t="s">
+      <c r="C145" s="97" t="s">
         <v>411</v>
       </c>
       <c r="D145" s="78" t="s">
@@ -10953,7 +13596,7 @@
       <c r="B146" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="C146" s="121" t="s">
+      <c r="C146" s="97" t="s">
         <v>411</v>
       </c>
       <c r="D146" s="78" t="s">
@@ -10973,7 +13616,7 @@
       <c r="B147" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C147" s="121" t="s">
+      <c r="C147" s="97" t="s">
         <v>411</v>
       </c>
       <c r="D147" s="78" t="s">
@@ -10993,7 +13636,7 @@
       <c r="B148" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="C148" s="121" t="s">
+      <c r="C148" s="97" t="s">
         <v>418</v>
       </c>
       <c r="D148" s="78" t="s">
@@ -11013,7 +13656,7 @@
       <c r="B149" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="C149" s="121" t="s">
+      <c r="C149" s="97" t="s">
         <v>418</v>
       </c>
       <c r="D149" s="78" t="s">
@@ -11033,7 +13676,7 @@
       <c r="B150" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="97" t="s">
         <v>418</v>
       </c>
       <c r="D150" s="78" t="s">
@@ -11053,7 +13696,7 @@
       <c r="B151" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C151" s="121" t="s">
+      <c r="C151" s="97" t="s">
         <v>424</v>
       </c>
       <c r="D151" s="78" t="s">
@@ -11073,7 +13716,7 @@
       <c r="B152" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C152" s="121" t="s">
+      <c r="C152" s="97" t="s">
         <v>427</v>
       </c>
       <c r="D152" s="78" t="s">
@@ -11093,7 +13736,7 @@
       <c r="B153" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="121" t="s">
+      <c r="C153" s="97" t="s">
         <v>418</v>
       </c>
       <c r="D153" s="78" t="s">
@@ -11113,7 +13756,7 @@
       <c r="B154" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C154" s="121" t="s">
+      <c r="C154" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D154" s="78"/>
@@ -11131,7 +13774,7 @@
       <c r="B155" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="121" t="s">
+      <c r="C155" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D155" s="78"/>
@@ -11146,580 +13789,638 @@
       <c r="A156" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="78"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="29"/>
+      <c r="B156" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A157" s="82"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="29"/>
+      <c r="A157" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="B157" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="C157" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="D157" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A158" s="82"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="29"/>
+      <c r="A158" s="122"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="124" t="s">
+        <v>443</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A159" s="72"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="29"/>
-    </row>
-    <row r="160" spans="1:6" ht="120">
-      <c r="A160" s="100" t="s">
+      <c r="A159" s="123"/>
+      <c r="B159" s="120"/>
+      <c r="C159" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="D159" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="22" customFormat="1" ht="159" customHeight="1">
+      <c r="A160" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="B160" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="C160" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D160" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="22" customFormat="1" ht="228.75" customHeight="1">
+      <c r="A161" s="95" t="s">
+        <v>448</v>
+      </c>
+      <c r="B161" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C161" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D161" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="22" customFormat="1" ht="180.75" customHeight="1">
+      <c r="A162" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C162" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D162" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="22" customFormat="1" ht="228" customHeight="1">
+      <c r="A163" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="C163" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D163" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="22" customFormat="1" ht="240.75" customHeight="1">
+      <c r="A164" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="B164" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="C164" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D164" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
+      <c r="A165" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D165" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="22" customFormat="1" ht="206.25" customHeight="1">
+      <c r="A166" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D166" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+      <c r="A167" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="B167" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C167" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+      <c r="A168" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B168" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C168" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D168" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="22" customFormat="1" ht="182.25" customHeight="1">
+      <c r="A169" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="B169" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C169" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D169" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
+      <c r="A170" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="B170" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="C170" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D170" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="22" customFormat="1" ht="140.25" customHeight="1">
+      <c r="A171" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="B171" s="96" t="s">
+        <v>469</v>
+      </c>
+      <c r="C171" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D171" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
+      <c r="A172" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="B172" s="96" t="s">
+        <v>471</v>
+      </c>
+      <c r="C172" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D172" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
+      <c r="A173" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="B173" s="96" t="s">
+        <v>473</v>
+      </c>
+      <c r="C173" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D173" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="22" customFormat="1" ht="181.5" customHeight="1">
+      <c r="A174" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="B174" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="C174" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D174" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="22" customFormat="1" ht="187.5" customHeight="1">
+      <c r="A175" s="95" t="s">
+        <v>476</v>
+      </c>
+      <c r="B175" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D175" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="22" customFormat="1" ht="217.5" customHeight="1">
+      <c r="A176" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="B176" s="96" t="s">
+        <v>479</v>
+      </c>
+      <c r="C176" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D176" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
+      <c r="A177" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="B177" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="C177" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D177" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="22" customFormat="1" ht="216.75" customHeight="1">
+      <c r="A178" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="B178" s="96" t="s">
+        <v>484</v>
+      </c>
+      <c r="C178" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D178" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
+      <c r="A179" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="B179" s="96" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D179" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+      <c r="A180" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>487</v>
+      </c>
+      <c r="C180" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D180" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="22" customFormat="1" ht="204.75" customHeight="1">
+      <c r="A181" s="95" t="s">
+        <v>488</v>
+      </c>
+      <c r="B181" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="C181" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D181" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="22" customFormat="1" ht="216" customHeight="1">
+      <c r="A182" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="B182" s="96" t="s">
+        <v>494</v>
+      </c>
+      <c r="C182" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D182" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="22" customFormat="1" ht="214.5" customHeight="1">
+      <c r="A183" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" s="96" t="s">
+        <v>492</v>
+      </c>
+      <c r="C183" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D183" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="22" customFormat="1" ht="213" customHeight="1">
+      <c r="A184" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="B184" s="96" t="s">
+        <v>495</v>
+      </c>
+      <c r="C184" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D184" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="22" customFormat="1" ht="156" customHeight="1">
+      <c r="A185" s="95" t="s">
+        <v>496</v>
+      </c>
+      <c r="B185" s="96" t="s">
+        <v>497</v>
+      </c>
+      <c r="C185" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="D185" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A186" s="95"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="124"/>
+      <c r="D186" s="78"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="29"/>
+    </row>
+    <row r="187" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A187" s="82"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="97"/>
+      <c r="D187" s="78"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="29"/>
+    </row>
+    <row r="188" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A188" s="82"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="97"/>
+      <c r="D188" s="78"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="29"/>
+    </row>
+    <row r="189" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A189" s="72"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="29"/>
+    </row>
+    <row r="190" spans="1:6" ht="120">
+      <c r="A190" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="101" t="s">
+      <c r="B190" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C160" s="56" t="s">
+      <c r="C190" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D160" s="71" t="s">
+      <c r="D190" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="E160" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F160" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="120">
-      <c r="A161" s="100"/>
-      <c r="B161" s="101"/>
-      <c r="C161" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F161" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="120">
-      <c r="A162" s="100"/>
-      <c r="B162" s="101"/>
-      <c r="C162" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D162" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="120">
-      <c r="A163" s="100"/>
-      <c r="B163" s="101"/>
-      <c r="C163" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D163" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F163" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="120">
-      <c r="A164" s="100"/>
-      <c r="B164" s="101"/>
-      <c r="C164" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D164" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30">
-      <c r="A165" s="102"/>
-      <c r="B165" s="98"/>
-      <c r="C165" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D165" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="60">
-      <c r="A166" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D166" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30">
-      <c r="A167" s="113"/>
-      <c r="B167" s="98"/>
-      <c r="C167" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D167" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="60">
-      <c r="A168" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D168" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="113"/>
-      <c r="B169" s="98"/>
-      <c r="C169" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D169" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E169" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="60">
-      <c r="A170" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D170" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="113"/>
-      <c r="B171" s="98"/>
-      <c r="C171" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D171" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="60">
-      <c r="A172" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B172" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D172" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F172" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="30">
-      <c r="A173" s="113"/>
-      <c r="B173" s="98"/>
-      <c r="C173" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D173" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F173" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="60">
-      <c r="A174" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="B174" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D174" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F174" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="113"/>
-      <c r="B175" s="98"/>
-      <c r="C175" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D175" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E175" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="60">
-      <c r="A176" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="B176" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D176" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30">
-      <c r="A177" s="113"/>
-      <c r="B177" s="98"/>
-      <c r="C177" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="60">
-      <c r="A178" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D178" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E178" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F178" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="30">
-      <c r="A179" s="113"/>
-      <c r="B179" s="98"/>
-      <c r="C179" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D179" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="60">
-      <c r="A180" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="B180" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D180" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E180" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F180" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="30">
-      <c r="A181" s="113"/>
-      <c r="B181" s="98"/>
-      <c r="C181" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D181" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E181" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="60">
-      <c r="A182" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B182" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D182" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E182" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="30">
-      <c r="A183" s="113"/>
-      <c r="B183" s="98"/>
-      <c r="C183" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D183" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="60">
-      <c r="A184" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B184" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D184" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F184" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30">
-      <c r="A185" s="113"/>
-      <c r="B185" s="98"/>
-      <c r="C185" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D185" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="60">
-      <c r="A186" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B186" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D186" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F186" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30">
-      <c r="A187" s="113"/>
-      <c r="B187" s="98"/>
-      <c r="C187" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D187" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="60">
-      <c r="A188" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="B188" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D188" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30">
-      <c r="A189" s="113"/>
-      <c r="B189" s="98"/>
-      <c r="C189" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D189" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F189" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="60">
-      <c r="A190" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="B190" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D190" s="77" t="s">
-        <v>46</v>
       </c>
       <c r="E190" s="24" t="s">
         <v>22</v>
@@ -11728,14 +14429,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="30">
-      <c r="A191" s="113"/>
-      <c r="B191" s="98"/>
+    <row r="191" spans="1:6" ht="120">
+      <c r="A191" s="114"/>
+      <c r="B191" s="109"/>
       <c r="C191" s="11" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D191" s="77" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E191" s="24" t="s">
         <v>22</v>
@@ -11744,18 +14445,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A192" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" s="81" t="s">
-        <v>64</v>
+    <row r="192" spans="1:6" ht="120">
+      <c r="A192" s="114"/>
+      <c r="B192" s="109"/>
+      <c r="C192" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D192" s="77" t="s">
+        <v>29</v>
       </c>
       <c r="E192" s="24" t="s">
         <v>22</v>
@@ -11764,8 +14461,544 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="63" t="s">
+    <row r="193" spans="1:6" ht="120">
+      <c r="A193" s="114"/>
+      <c r="B193" s="109"/>
+      <c r="C193" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D193" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="120">
+      <c r="A194" s="114"/>
+      <c r="B194" s="109"/>
+      <c r="C194" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30">
+      <c r="A195" s="115"/>
+      <c r="B195" s="101"/>
+      <c r="C195" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D195" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="60">
+      <c r="A196" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D196" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30">
+      <c r="A197" s="99"/>
+      <c r="B197" s="101"/>
+      <c r="C197" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D197" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="60">
+      <c r="A198" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D198" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="99"/>
+      <c r="B199" s="101"/>
+      <c r="C199" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D199" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="60">
+      <c r="A200" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D200" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="99"/>
+      <c r="B201" s="101"/>
+      <c r="C201" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="60">
+      <c r="A202" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D202" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30">
+      <c r="A203" s="99"/>
+      <c r="B203" s="101"/>
+      <c r="C203" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D203" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="60">
+      <c r="A204" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B204" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D204" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="99"/>
+      <c r="B205" s="101"/>
+      <c r="C205" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="60">
+      <c r="A206" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B206" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D206" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30">
+      <c r="A207" s="99"/>
+      <c r="B207" s="101"/>
+      <c r="C207" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D207" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="60">
+      <c r="A208" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="30">
+      <c r="A209" s="99"/>
+      <c r="B209" s="101"/>
+      <c r="C209" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D209" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="60">
+      <c r="A210" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D210" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30">
+      <c r="A211" s="99"/>
+      <c r="B211" s="101"/>
+      <c r="C211" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D211" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="60">
+      <c r="A212" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D212" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30">
+      <c r="A213" s="99"/>
+      <c r="B213" s="101"/>
+      <c r="C213" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D213" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="60">
+      <c r="A214" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B214" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D214" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30">
+      <c r="A215" s="99"/>
+      <c r="B215" s="101"/>
+      <c r="C215" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E215" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="60">
+      <c r="A216" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D216" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30">
+      <c r="A217" s="99"/>
+      <c r="B217" s="101"/>
+      <c r="C217" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D217" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="60">
+      <c r="A218" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D218" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30">
+      <c r="A219" s="99"/>
+      <c r="B219" s="101"/>
+      <c r="C219" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D219" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="60">
+      <c r="A220" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B220" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D220" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30">
+      <c r="A221" s="99"/>
+      <c r="B221" s="101"/>
+      <c r="C221" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D221" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A222" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11780,54 +15013,56 @@
       <autoFilter ref="E1:F1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="45">
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
+  <mergeCells count="47">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A160:A165"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B207"/>
   </mergeCells>
-  <conditionalFormatting sqref="E160:E1048576 E1:E158">
+  <conditionalFormatting sqref="E190:E1048576 E1:E188">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -11835,21 +15070,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160:F192 F2:F158">
+  <conditionalFormatting sqref="F190:F222 F2:F188">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160:F192 F2:F158">
+  <conditionalFormatting sqref="F190:F222 F2:F188">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E158 E160:E192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E188 E190:E222">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F158 F160:F192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F188 F190:F222">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -9471,12 +9471,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9963,11 +9971,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9977,14 +9985,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -9998,7 +10006,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10022,20 +10030,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10044,10 +10052,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10056,7 +10064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10069,7 +10077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10079,7 +10087,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10088,7 +10096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10100,16 +10108,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10121,19 +10129,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -10145,7 +10153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10169,26 +10177,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10202,26 +10213,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10229,52 +10240,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10286,16 +10270,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10611,7 +10619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10622,7 +10630,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10782,10 +10790,10 @@
   <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10821,7 +10829,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="122" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -10841,7 +10849,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -10857,7 +10865,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="103"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -10873,7 +10881,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="104"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -10942,10 +10950,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -10962,8 +10970,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -10978,10 +10986,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -10998,8 +11006,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -11014,8 +11022,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -11102,10 +11110,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -11122,8 +11130,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -11138,8 +11146,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -11154,10 +11162,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="120" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -11174,8 +11182,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -11190,10 +11198,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="120" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -11210,8 +11218,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -11262,10 +11270,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="110" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -11282,8 +11290,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -11298,8 +11306,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -11314,8 +11322,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -11330,8 +11338,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="120"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -11346,10 +11354,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="110" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -11366,8 +11374,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="117"/>
-      <c r="B33" s="120"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -11838,10 +11846,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="121" t="s">
+      <c r="A57" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="110" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -11858,8 +11866,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="122"/>
-      <c r="B58" s="119"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -11874,8 +11882,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="122"/>
-      <c r="B59" s="119"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -11890,8 +11898,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="123"/>
-      <c r="B60" s="120"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -13792,7 +13800,7 @@
       <c r="B156" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="C156" s="124" t="s">
+      <c r="C156" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D156" s="78" t="s">
@@ -13806,13 +13814,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A157" s="121" t="s">
+      <c r="A157" s="113" t="s">
         <v>439</v>
       </c>
-      <c r="B157" s="118" t="s">
+      <c r="B157" s="110" t="s">
         <v>440</v>
       </c>
-      <c r="C157" s="124" t="s">
+      <c r="C157" s="98" t="s">
         <v>442</v>
       </c>
       <c r="D157" s="78" t="s">
@@ -13826,9 +13834,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A158" s="122"/>
-      <c r="B158" s="119"/>
-      <c r="C158" s="124" t="s">
+      <c r="A158" s="114"/>
+      <c r="B158" s="111"/>
+      <c r="C158" s="98" t="s">
         <v>443</v>
       </c>
       <c r="D158" s="78" t="s">
@@ -13842,9 +13850,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A159" s="123"/>
-      <c r="B159" s="120"/>
-      <c r="C159" s="124" t="s">
+      <c r="A159" s="115"/>
+      <c r="B159" s="112"/>
+      <c r="C159" s="98" t="s">
         <v>445</v>
       </c>
       <c r="D159" s="78" t="s">
@@ -13864,7 +13872,7 @@
       <c r="B160" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="C160" s="124" t="s">
+      <c r="C160" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D160" s="78" t="s">
@@ -13884,7 +13892,7 @@
       <c r="B161" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="C161" s="124" t="s">
+      <c r="C161" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D161" s="78" t="s">
@@ -13904,7 +13912,7 @@
       <c r="B162" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="C162" s="124" t="s">
+      <c r="C162" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D162" s="78" t="s">
@@ -13924,7 +13932,7 @@
       <c r="B163" s="96" t="s">
         <v>453</v>
       </c>
-      <c r="C163" s="124" t="s">
+      <c r="C163" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D163" s="78" t="s">
@@ -13944,7 +13952,7 @@
       <c r="B164" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="C164" s="124" t="s">
+      <c r="C164" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D164" s="78" t="s">
@@ -13964,7 +13972,7 @@
       <c r="B165" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="C165" s="124" t="s">
+      <c r="C165" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D165" s="78" t="s">
@@ -13984,7 +13992,7 @@
       <c r="B166" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="C166" s="124" t="s">
+      <c r="C166" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D166" s="78" t="s">
@@ -14004,7 +14012,7 @@
       <c r="B167" s="96" t="s">
         <v>461</v>
       </c>
-      <c r="C167" s="124" t="s">
+      <c r="C167" s="98" t="s">
         <v>438</v>
       </c>
       <c r="D167" s="78" t="s">
@@ -14024,7 +14032,7 @@
       <c r="B168" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="C168" s="124" t="s">
+      <c r="C168" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D168" s="78" t="s">
@@ -14044,7 +14052,7 @@
       <c r="B169" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="C169" s="124" t="s">
+      <c r="C169" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D169" s="78" t="s">
@@ -14064,7 +14072,7 @@
       <c r="B170" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="C170" s="124" t="s">
+      <c r="C170" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D170" s="78" t="s">
@@ -14084,7 +14092,7 @@
       <c r="B171" s="96" t="s">
         <v>469</v>
       </c>
-      <c r="C171" s="124" t="s">
+      <c r="C171" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D171" s="78" t="s">
@@ -14104,7 +14112,7 @@
       <c r="B172" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="C172" s="124" t="s">
+      <c r="C172" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D172" s="78" t="s">
@@ -14124,7 +14132,7 @@
       <c r="B173" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="C173" s="124" t="s">
+      <c r="C173" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D173" s="78" t="s">
@@ -14144,7 +14152,7 @@
       <c r="B174" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C174" s="124" t="s">
+      <c r="C174" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D174" s="78" t="s">
@@ -14164,7 +14172,7 @@
       <c r="B175" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="C175" s="124" t="s">
+      <c r="C175" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D175" s="78" t="s">
@@ -14184,7 +14192,7 @@
       <c r="B176" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="C176" s="124" t="s">
+      <c r="C176" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D176" s="78" t="s">
@@ -14204,7 +14212,7 @@
       <c r="B177" s="96" t="s">
         <v>481</v>
       </c>
-      <c r="C177" s="124" t="s">
+      <c r="C177" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D177" s="78" t="s">
@@ -14224,7 +14232,7 @@
       <c r="B178" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C178" s="124" t="s">
+      <c r="C178" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D178" s="78" t="s">
@@ -14244,7 +14252,7 @@
       <c r="B179" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="C179" s="124" t="s">
+      <c r="C179" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D179" s="78" t="s">
@@ -14264,7 +14272,7 @@
       <c r="B180" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="C180" s="124" t="s">
+      <c r="C180" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D180" s="78" t="s">
@@ -14284,7 +14292,7 @@
       <c r="B181" s="96" t="s">
         <v>489</v>
       </c>
-      <c r="C181" s="124" t="s">
+      <c r="C181" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D181" s="78" t="s">
@@ -14304,7 +14312,7 @@
       <c r="B182" s="96" t="s">
         <v>494</v>
       </c>
-      <c r="C182" s="124" t="s">
+      <c r="C182" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D182" s="78" t="s">
@@ -14324,7 +14332,7 @@
       <c r="B183" s="96" t="s">
         <v>492</v>
       </c>
-      <c r="C183" s="124" t="s">
+      <c r="C183" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D183" s="78" t="s">
@@ -14344,7 +14352,7 @@
       <c r="B184" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="C184" s="124" t="s">
+      <c r="C184" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D184" s="78" t="s">
@@ -14364,7 +14372,7 @@
       <c r="B185" s="96" t="s">
         <v>497</v>
       </c>
-      <c r="C185" s="124" t="s">
+      <c r="C185" s="98" t="s">
         <v>437</v>
       </c>
       <c r="D185" s="78" t="s">
@@ -14380,7 +14388,7 @@
     <row r="186" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A186" s="95"/>
       <c r="B186" s="96"/>
-      <c r="C186" s="124"/>
+      <c r="C186" s="98"/>
       <c r="D186" s="78"/>
       <c r="E186" s="26"/>
       <c r="F186" s="29"/>
@@ -14410,10 +14418,10 @@
       <c r="F189" s="29"/>
     </row>
     <row r="190" spans="1:6" ht="120">
-      <c r="A190" s="114" t="s">
+      <c r="A190" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B190" s="109" t="s">
+      <c r="B190" s="105" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="56" t="s">
@@ -14430,8 +14438,8 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="120">
-      <c r="A191" s="114"/>
-      <c r="B191" s="109"/>
+      <c r="A191" s="104"/>
+      <c r="B191" s="105"/>
       <c r="C191" s="11" t="s">
         <v>76</v>
       </c>
@@ -14446,8 +14454,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="120">
-      <c r="A192" s="114"/>
-      <c r="B192" s="109"/>
+      <c r="A192" s="104"/>
+      <c r="B192" s="105"/>
       <c r="C192" s="11" t="s">
         <v>77</v>
       </c>
@@ -14462,8 +14470,8 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="120">
-      <c r="A193" s="114"/>
-      <c r="B193" s="109"/>
+      <c r="A193" s="104"/>
+      <c r="B193" s="105"/>
       <c r="C193" s="11" t="s">
         <v>78</v>
       </c>
@@ -14478,8 +14486,8 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="120">
-      <c r="A194" s="114"/>
-      <c r="B194" s="109"/>
+      <c r="A194" s="104"/>
+      <c r="B194" s="105"/>
       <c r="C194" s="11" t="s">
         <v>79</v>
       </c>
@@ -14494,8 +14502,8 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="30">
-      <c r="A195" s="115"/>
-      <c r="B195" s="101"/>
+      <c r="A195" s="106"/>
+      <c r="B195" s="102"/>
       <c r="C195" s="11" t="s">
         <v>80</v>
       </c>
@@ -14510,10 +14518,10 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="60">
-      <c r="A196" s="98" t="s">
+      <c r="A196" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="100" t="s">
+      <c r="B196" s="101" t="s">
         <v>32</v>
       </c>
       <c r="C196" s="11" t="s">
@@ -14530,8 +14538,8 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="30">
-      <c r="A197" s="99"/>
-      <c r="B197" s="101"/>
+      <c r="A197" s="117"/>
+      <c r="B197" s="102"/>
       <c r="C197" s="11" t="s">
         <v>82</v>
       </c>
@@ -14546,10 +14554,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="60">
-      <c r="A198" s="98" t="s">
+      <c r="A198" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B198" s="100" t="s">
+      <c r="B198" s="101" t="s">
         <v>35</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -14566,8 +14574,8 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="99"/>
-      <c r="B199" s="101"/>
+      <c r="A199" s="117"/>
+      <c r="B199" s="102"/>
       <c r="C199" s="11" t="s">
         <v>84</v>
       </c>
@@ -14582,10 +14590,10 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="60">
-      <c r="A200" s="98" t="s">
+      <c r="A200" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B200" s="100" t="s">
+      <c r="B200" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C200" s="11" t="s">
@@ -14602,8 +14610,8 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="99"/>
-      <c r="B201" s="101"/>
+      <c r="A201" s="117"/>
+      <c r="B201" s="102"/>
       <c r="C201" s="11" t="s">
         <v>86</v>
       </c>
@@ -14618,10 +14626,10 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="60">
-      <c r="A202" s="98" t="s">
+      <c r="A202" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="100" t="s">
+      <c r="B202" s="101" t="s">
         <v>41</v>
       </c>
       <c r="C202" s="11" t="s">
@@ -14638,8 +14646,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="30">
-      <c r="A203" s="99"/>
-      <c r="B203" s="101"/>
+      <c r="A203" s="117"/>
+      <c r="B203" s="102"/>
       <c r="C203" s="11" t="s">
         <v>88</v>
       </c>
@@ -14654,10 +14662,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="60">
-      <c r="A204" s="98" t="s">
+      <c r="A204" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="100" t="s">
+      <c r="B204" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C204" s="11" t="s">
@@ -14674,8 +14682,8 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="99"/>
-      <c r="B205" s="101"/>
+      <c r="A205" s="117"/>
+      <c r="B205" s="102"/>
       <c r="C205" s="11" t="s">
         <v>90</v>
       </c>
@@ -14690,10 +14698,10 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="60">
-      <c r="A206" s="98" t="s">
+      <c r="A206" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B206" s="100" t="s">
+      <c r="B206" s="101" t="s">
         <v>47</v>
       </c>
       <c r="C206" s="11" t="s">
@@ -14710,8 +14718,8 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="30">
-      <c r="A207" s="99"/>
-      <c r="B207" s="101"/>
+      <c r="A207" s="117"/>
+      <c r="B207" s="102"/>
       <c r="C207" s="11" t="s">
         <v>82</v>
       </c>
@@ -14726,10 +14734,10 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="60">
-      <c r="A208" s="98" t="s">
+      <c r="A208" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B208" s="100" t="s">
+      <c r="B208" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C208" s="11" t="s">
@@ -14746,8 +14754,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="30">
-      <c r="A209" s="99"/>
-      <c r="B209" s="101"/>
+      <c r="A209" s="117"/>
+      <c r="B209" s="102"/>
       <c r="C209" s="11" t="s">
         <v>91</v>
       </c>
@@ -14762,10 +14770,10 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="60">
-      <c r="A210" s="98" t="s">
+      <c r="A210" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B210" s="100" t="s">
+      <c r="B210" s="101" t="s">
         <v>53</v>
       </c>
       <c r="C210" s="11" t="s">
@@ -14782,8 +14790,8 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="30">
-      <c r="A211" s="99"/>
-      <c r="B211" s="101"/>
+      <c r="A211" s="117"/>
+      <c r="B211" s="102"/>
       <c r="C211" s="11" t="s">
         <v>92</v>
       </c>
@@ -14798,10 +14806,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="60">
-      <c r="A212" s="98" t="s">
+      <c r="A212" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B212" s="100" t="s">
+      <c r="B212" s="101" t="s">
         <v>52</v>
       </c>
       <c r="C212" s="11" t="s">
@@ -14818,8 +14826,8 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="30">
-      <c r="A213" s="99"/>
-      <c r="B213" s="101"/>
+      <c r="A213" s="117"/>
+      <c r="B213" s="102"/>
       <c r="C213" s="11" t="s">
         <v>84</v>
       </c>
@@ -14834,10 +14842,10 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="60">
-      <c r="A214" s="98" t="s">
+      <c r="A214" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B214" s="100" t="s">
+      <c r="B214" s="101" t="s">
         <v>60</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -14854,8 +14862,8 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="30">
-      <c r="A215" s="99"/>
-      <c r="B215" s="101"/>
+      <c r="A215" s="117"/>
+      <c r="B215" s="102"/>
       <c r="C215" s="11" t="s">
         <v>95</v>
       </c>
@@ -14870,10 +14878,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="60">
-      <c r="A216" s="98" t="s">
+      <c r="A216" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="100" t="s">
+      <c r="B216" s="101" t="s">
         <v>59</v>
       </c>
       <c r="C216" s="11" t="s">
@@ -14890,8 +14898,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="30">
-      <c r="A217" s="99"/>
-      <c r="B217" s="101"/>
+      <c r="A217" s="117"/>
+      <c r="B217" s="102"/>
       <c r="C217" s="11" t="s">
         <v>97</v>
       </c>
@@ -14906,10 +14914,10 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="60">
-      <c r="A218" s="98" t="s">
+      <c r="A218" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B218" s="100" t="s">
+      <c r="B218" s="101" t="s">
         <v>58</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -14926,8 +14934,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="99"/>
-      <c r="B219" s="101"/>
+      <c r="A219" s="117"/>
+      <c r="B219" s="102"/>
       <c r="C219" s="11" t="s">
         <v>99</v>
       </c>
@@ -14942,10 +14950,10 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="60">
-      <c r="A220" s="98" t="s">
+      <c r="A220" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B220" s="100" t="s">
+      <c r="B220" s="101" t="s">
         <v>62</v>
       </c>
       <c r="C220" s="11" t="s">
@@ -14962,8 +14970,8 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="30">
-      <c r="A221" s="99"/>
-      <c r="B221" s="101"/>
+      <c r="A221" s="117"/>
+      <c r="B221" s="102"/>
       <c r="C221" s="11" t="s">
         <v>101</v>
       </c>
@@ -15014,37 +15022,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="47">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="A202:A203"/>
     <mergeCell ref="A220:A221"/>
     <mergeCell ref="B220:B221"/>
     <mergeCell ref="B2:B5"/>
@@ -15061,6 +15038,37 @@
     <mergeCell ref="A204:A205"/>
     <mergeCell ref="B204:B205"/>
     <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
   </mergeCells>
   <conditionalFormatting sqref="E190:E1048576 E1:E188">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="576">
   <si>
     <t>Requirements</t>
   </si>
@@ -9464,6 +9464,1854 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0164(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0165(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0166(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the tool will create a master container whick will contain all the EnGwCLD PDUs and will be called  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CddPduRUpperLayerContribution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide to the tool a valid LIN network </t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0167(0)</t>
+  </si>
+  <si>
+    <t>- check that the EnGwCLD.epc fille will have the corect content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide to the tool a valid LIN 1.3 network </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network that has at least one ECU connected to it, the tool will create the following PDU: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerRxPdu_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0168(0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU generated as above, the tool will have to generate the following parameters: • CddPduRUpperLayerHandleId:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REP_&lt;network_name&gt;_1P3_LinIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0169(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LIN 1.3 network that has at least one ECU connected to it, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerTxPdu_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0170(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REQ_&lt;network_name&gt;_1P3_LinIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1: Provide to the tool a valid LIN 2.1 network </t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0171(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerTxPdu_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide to the tool a valid LIN 2.1 network </t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0172(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if or each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_LinTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0173(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerRxPdu_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0174(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_LinTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0175(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, and for each DIAG configured network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerRxPdu_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0176(0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0177(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, and for each DIAG configured network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerTxPdu_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0178(0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Check if for each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanTp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0179(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool a valid LIN 2.1 network and a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool a valid LIN 2.1 network  and a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, and for each DIAG configured network, the tool will create the following routing path between PDUs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDRoutingPath_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDSrcRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REP_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDDestRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REP_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0180(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, and for each DIAG configured network, the tool will create the following routing path between PDUs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDRoutingPath_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0181(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0182(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDSrcRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REQ_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDDestRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REQ_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 2.1 network, and for each DIAG configured network, the tool will create the following REQ-REP association:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDReqRepConfiguration_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0183(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0184(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDReqRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REQ_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDRepRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REP_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_2P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDCanBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/EnGwCLDBuffer/cEnGw_GW_CAN_&lt;DIAG_name&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDLinBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/EnGwCLDBuffer/cEnGw_&lt;network_name&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 1.3 network, and for each DIAG configured network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerRxPdu_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0185(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool a valid LIN 1.3 network  and a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0186(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool a valid LIN 1.3 network  and a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0187(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 1.3 network, and for each DIAG configured network, the tool will create the following PDU:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduRUpperLayerTxPdu_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each PDU generated as above, the tool will have to generate the following parameters:
+• CddPduRUpperLayerHandleId: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRApiType: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CddPduRUpperLayerPduRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EcuC/EcuC/EcucPduCollection/EnGwCLD_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_CanIf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0188(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0189(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0190(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 1.3 network, and for each DIAG configured network, the tool will create the following routing path between PDUs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDRoutingPath_REP_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDSrcRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REP_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDDestRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REP_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0191(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDSrcRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REQ_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDDestRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0192(0)</t>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0193(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 1.3 network, and for each DIAG configured network, the tool will create the following routing path between PDUs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDRoutingPath_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU that is connected to a 1.3 network, and for each DIAG configured network, the tool will create the following REQ-REP association:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnGwCLDReqRepConfiguration_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for the routing path generated as above, the tool will set the source and destination as it follows:
+• EnGwCLDReqRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerRxPdu_REQ_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDRepRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/CddComStackContribution/CddPduRUpperLayerContribution/PduRUpperLayerTxPdu_REP_&lt;DIAG_name&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDCanBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/EnGwCLDBuffer/cEnGw_GW_CAN_&lt;DIAG_name&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• EnGwCLDLinBufferRef: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/EnGwCLD/EnGwCLD/EnGwCLDBuffer/cEnGw_&lt;network_name&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0194(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CddPduRUpperLayerHandleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter will be integer and continuous from 0. It have the same value for the (REQ, REP) pair.</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0195(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool multiple valid LIN networks and a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0196(0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each DIAG configured network found in the input files, the tool will create the following buffer:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cEnGw_GW_CAN_&lt;DIAG_network&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool a valid DIAG network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each network found that has at least one ECU connected to it in the input files, the tool will create the following buffer:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cEnGw_&lt;network_name&gt;_INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.COMCONF.GEN.0197(0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool a valid LIN network </t>
     </r>
   </si>
 </sst>
@@ -9962,7 +11810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -10228,11 +12076,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10240,22 +12094,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10279,31 +12160,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10619,7 +12476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10787,13 +12644,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10829,7 +12686,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="105" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -10849,7 +12706,7 @@
       <c r="A3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -10865,7 +12722,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="84"/>
-      <c r="B4" s="123"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -10881,7 +12738,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="84"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -10950,10 +12807,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="103" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -10970,8 +12827,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -10986,10 +12843,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="103" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -11006,8 +12863,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -11022,8 +12879,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -11110,10 +12967,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="111" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -11130,8 +12987,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -11146,8 +13003,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -11162,10 +13019,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="111" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -11182,8 +13039,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -11198,10 +13055,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="111" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -11218,8 +13075,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -11270,10 +13127,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="121" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -11290,8 +13147,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="108"/>
-      <c r="B28" s="111"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -11306,8 +13163,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -11322,8 +13179,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -11338,8 +13195,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="109"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="59" t="s">
         <v>156</v>
       </c>
@@ -11354,10 +13211,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="121" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -11374,8 +13231,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="109"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="60" t="s">
         <v>158</v>
       </c>
@@ -11846,10 +13703,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="121" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -11866,8 +13723,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="114"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="89" t="s">
         <v>267</v>
       </c>
@@ -11882,8 +13739,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="114"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="122"/>
       <c r="C59" s="89" t="s">
         <v>268</v>
       </c>
@@ -11898,8 +13755,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="115"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="123"/>
       <c r="C60" s="89" t="s">
         <v>269</v>
       </c>
@@ -13814,10 +15671,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A157" s="113" t="s">
+      <c r="A157" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="B157" s="110" t="s">
+      <c r="B157" s="121" t="s">
         <v>440</v>
       </c>
       <c r="C157" s="98" t="s">
@@ -13834,8 +15691,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A158" s="114"/>
-      <c r="B158" s="111"/>
+      <c r="A158" s="125"/>
+      <c r="B158" s="122"/>
       <c r="C158" s="98" t="s">
         <v>443</v>
       </c>
@@ -13850,8 +15707,8 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A159" s="115"/>
-      <c r="B159" s="112"/>
+      <c r="A159" s="126"/>
+      <c r="B159" s="123"/>
       <c r="C159" s="98" t="s">
         <v>445</v>
       </c>
@@ -14366,7 +16223,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" s="22" customFormat="1" ht="156" customHeight="1">
-      <c r="A185" s="95" t="s">
+      <c r="A185" s="99" t="s">
         <v>496</v>
       </c>
       <c r="B185" s="96" t="s">
@@ -14386,627 +16243,1343 @@
       </c>
     </row>
     <row r="186" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A186" s="95"/>
-      <c r="B186" s="96"/>
-      <c r="C186" s="98"/>
+      <c r="A186" s="99" t="s">
+        <v>498</v>
+      </c>
+      <c r="B186" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" s="127" t="s">
+        <v>103</v>
+      </c>
       <c r="D186" s="78"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="29"/>
+      <c r="E186" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="187" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A187" s="82"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="97"/>
+      <c r="A187" s="82" t="s">
+        <v>499</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" s="127" t="s">
+        <v>103</v>
+      </c>
       <c r="D187" s="78"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="29"/>
+      <c r="E187" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="188" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A188" s="82"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="97"/>
-      <c r="D188" s="78"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="29"/>
+      <c r="A188" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C188" s="127" t="s">
+        <v>502</v>
+      </c>
+      <c r="D188" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="189" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A189" s="72"/>
-      <c r="B189" s="47"/>
-      <c r="C189" s="46"/>
-      <c r="D189" s="73"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="29"/>
-    </row>
-    <row r="190" spans="1:6" ht="120">
-      <c r="A190" s="104" t="s">
+      <c r="A189" s="82" t="s">
+        <v>503</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C189" s="127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D189" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A190" s="82" t="s">
+        <v>507</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C190" s="127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D190" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="22" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A191" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C191" s="127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D191" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="22" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A192" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C192" s="127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D192" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A193" s="82" t="s">
+        <v>514</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C193" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="D193" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A194" s="82" t="s">
+        <v>517</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C194" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A195" s="82" t="s">
+        <v>519</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C195" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="22" customFormat="1" ht="108" customHeight="1">
+      <c r="A196" s="82" t="s">
+        <v>521</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C196" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="D196" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A197" s="82" t="s">
+        <v>523</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="C197" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="D197" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
+      <c r="A198" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C198" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="D198" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A199" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C199" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="D199" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A200" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C200" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D200" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="22" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A201" s="82" t="s">
+        <v>531</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="C201" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D201" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="22" customFormat="1" ht="174.75" customHeight="1">
+      <c r="A202" s="82" t="s">
+        <v>536</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C202" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D202" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
+      <c r="A203" s="82" t="s">
+        <v>538</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C203" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D203" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="22" customFormat="1" ht="169.5" customHeight="1">
+      <c r="A204" s="82" t="s">
+        <v>539</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C204" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D204" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A205" s="82" t="s">
+        <v>542</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C205" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D205" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="22" customFormat="1" ht="258" customHeight="1">
+      <c r="A206" s="82" t="s">
+        <v>543</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C206" s="127" t="s">
+        <v>533</v>
+      </c>
+      <c r="D206" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A207" s="82" t="s">
+        <v>546</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C207" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
+      <c r="A208" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="C208" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D208" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A209" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="C209" s="127" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="22" customFormat="1" ht="113.25" customHeight="1">
+      <c r="A210" s="82" t="s">
+        <v>554</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C210" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D210" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A211" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D211" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="22" customFormat="1" ht="173.25" customHeight="1">
+      <c r="A212" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C212" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D212" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F212" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="22" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A213" s="82" t="s">
+        <v>559</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C213" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D213" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="22" customFormat="1" ht="166.5" customHeight="1">
+      <c r="A214" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="C214" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D214" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A215" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="C215" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D215" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="22" customFormat="1" ht="259.5" customHeight="1">
+      <c r="A216" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C216" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="D216" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A217" s="82" t="s">
+        <v>568</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C217" s="127" t="s">
+        <v>569</v>
+      </c>
+      <c r="D217" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A218" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="C218" s="127" t="s">
+        <v>572</v>
+      </c>
+      <c r="D218" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A219" s="82" t="s">
+        <v>574</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C219" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="D219" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A220" s="82"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="60"/>
+      <c r="D220" s="78"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="29"/>
+    </row>
+    <row r="221" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A221" s="82"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="78"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="29"/>
+    </row>
+    <row r="222" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A222" s="82"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="127"/>
+      <c r="D222" s="78"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="29"/>
+    </row>
+    <row r="223" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A223" s="82"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="127"/>
+      <c r="D223" s="78"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="29"/>
+    </row>
+    <row r="224" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A224" s="82"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="127"/>
+      <c r="D224" s="78"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="29"/>
+    </row>
+    <row r="225" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A225" s="82"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="127"/>
+      <c r="D225" s="78"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="29"/>
+    </row>
+    <row r="226" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A226" s="82"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="127"/>
+      <c r="D226" s="78"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="29"/>
+    </row>
+    <row r="227" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A227" s="82"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="78"/>
+      <c r="E227" s="26"/>
+      <c r="F227" s="29"/>
+    </row>
+    <row r="228" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A228" s="72"/>
+      <c r="B228" s="47"/>
+      <c r="C228" s="46"/>
+      <c r="D228" s="73"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="29"/>
+    </row>
+    <row r="229" spans="1:6" ht="120">
+      <c r="A229" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B190" s="105" t="s">
+      <c r="B229" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C190" s="56" t="s">
+      <c r="C229" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D190" s="71" t="s">
+      <c r="D229" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E190" s="24" t="s">
+      <c r="E229" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F190" s="27" t="s">
+      <c r="F229" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="120">
-      <c r="A191" s="104"/>
-      <c r="B191" s="105"/>
-      <c r="C191" s="11" t="s">
+    <row r="230" spans="1:6" ht="120">
+      <c r="A230" s="117"/>
+      <c r="B230" s="112"/>
+      <c r="C230" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D191" s="77" t="s">
+      <c r="D230" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E191" s="24" t="s">
+      <c r="E230" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F191" s="27" t="s">
+      <c r="F230" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="120">
-      <c r="A192" s="104"/>
-      <c r="B192" s="105"/>
-      <c r="C192" s="11" t="s">
+    <row r="231" spans="1:6" ht="120">
+      <c r="A231" s="117"/>
+      <c r="B231" s="112"/>
+      <c r="C231" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D192" s="77" t="s">
+      <c r="D231" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E192" s="24" t="s">
+      <c r="E231" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F192" s="27" t="s">
+      <c r="F231" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="120">
-      <c r="A193" s="104"/>
-      <c r="B193" s="105"/>
-      <c r="C193" s="11" t="s">
+    <row r="232" spans="1:6" ht="120">
+      <c r="A232" s="117"/>
+      <c r="B232" s="112"/>
+      <c r="C232" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D193" s="77" t="s">
+      <c r="D232" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="24" t="s">
+      <c r="E232" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F193" s="27" t="s">
+      <c r="F232" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="120">
-      <c r="A194" s="104"/>
-      <c r="B194" s="105"/>
-      <c r="C194" s="11" t="s">
+    <row r="233" spans="1:6" ht="120">
+      <c r="A233" s="117"/>
+      <c r="B233" s="112"/>
+      <c r="C233" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D194" s="77" t="s">
+      <c r="D233" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E194" s="24" t="s">
+      <c r="E233" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F194" s="27" t="s">
+      <c r="F233" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30">
-      <c r="A195" s="106"/>
-      <c r="B195" s="102"/>
-      <c r="C195" s="11" t="s">
+    <row r="234" spans="1:6" ht="30">
+      <c r="A234" s="118"/>
+      <c r="B234" s="104"/>
+      <c r="C234" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D195" s="77" t="s">
+      <c r="D234" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E195" s="24" t="s">
+      <c r="E234" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F195" s="27" t="s">
+      <c r="F234" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="60">
-      <c r="A196" s="116" t="s">
+    <row r="235" spans="1:6" ht="60">
+      <c r="A235" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="101" t="s">
+      <c r="B235" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C235" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D196" s="77" t="s">
+      <c r="D235" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E196" s="24" t="s">
+      <c r="E235" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F196" s="27" t="s">
+      <c r="F235" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30">
-      <c r="A197" s="117"/>
-      <c r="B197" s="102"/>
-      <c r="C197" s="11" t="s">
+    <row r="236" spans="1:6" ht="30">
+      <c r="A236" s="102"/>
+      <c r="B236" s="104"/>
+      <c r="C236" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D197" s="77" t="s">
+      <c r="D236" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E197" s="24" t="s">
+      <c r="E236" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F197" s="27" t="s">
+      <c r="F236" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="60">
-      <c r="A198" s="116" t="s">
+    <row r="237" spans="1:6" ht="60">
+      <c r="A237" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B198" s="101" t="s">
+      <c r="B237" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C237" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D198" s="77" t="s">
+      <c r="D237" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E198" s="24" t="s">
+      <c r="E237" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F198" s="27" t="s">
+      <c r="F237" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="117"/>
-      <c r="B199" s="102"/>
-      <c r="C199" s="11" t="s">
+    <row r="238" spans="1:6">
+      <c r="A238" s="102"/>
+      <c r="B238" s="104"/>
+      <c r="C238" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D199" s="77" t="s">
+      <c r="D238" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E199" s="24" t="s">
+      <c r="E238" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F199" s="27" t="s">
+      <c r="F238" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="60">
-      <c r="A200" s="116" t="s">
+    <row r="239" spans="1:6" ht="60">
+      <c r="A239" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B200" s="101" t="s">
+      <c r="B239" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C239" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D200" s="77" t="s">
+      <c r="D239" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E200" s="24" t="s">
+      <c r="E239" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F200" s="27" t="s">
+      <c r="F239" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="117"/>
-      <c r="B201" s="102"/>
-      <c r="C201" s="11" t="s">
+    <row r="240" spans="1:6">
+      <c r="A240" s="102"/>
+      <c r="B240" s="104"/>
+      <c r="C240" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D201" s="77" t="s">
+      <c r="D240" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E201" s="24" t="s">
+      <c r="E240" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F201" s="27" t="s">
+      <c r="F240" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="60">
-      <c r="A202" s="116" t="s">
+    <row r="241" spans="1:6" ht="60">
+      <c r="A241" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="101" t="s">
+      <c r="B241" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C241" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D202" s="77" t="s">
+      <c r="D241" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E202" s="24" t="s">
+      <c r="E241" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F202" s="27" t="s">
+      <c r="F241" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="30">
-      <c r="A203" s="117"/>
-      <c r="B203" s="102"/>
-      <c r="C203" s="11" t="s">
+    <row r="242" spans="1:6" ht="30">
+      <c r="A242" s="102"/>
+      <c r="B242" s="104"/>
+      <c r="C242" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D203" s="77" t="s">
+      <c r="D242" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E203" s="24" t="s">
+      <c r="E242" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F203" s="27" t="s">
+      <c r="F242" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="60">
-      <c r="A204" s="116" t="s">
+    <row r="243" spans="1:6" ht="60">
+      <c r="A243" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="101" t="s">
+      <c r="B243" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C243" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D204" s="77" t="s">
+      <c r="D243" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E204" s="24" t="s">
+      <c r="E243" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F204" s="27" t="s">
+      <c r="F243" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="117"/>
-      <c r="B205" s="102"/>
-      <c r="C205" s="11" t="s">
+    <row r="244" spans="1:6">
+      <c r="A244" s="102"/>
+      <c r="B244" s="104"/>
+      <c r="C244" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D205" s="77" t="s">
+      <c r="D244" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E205" s="24" t="s">
+      <c r="E244" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F205" s="27" t="s">
+      <c r="F244" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="60">
-      <c r="A206" s="116" t="s">
+    <row r="245" spans="1:6" ht="60">
+      <c r="A245" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B206" s="101" t="s">
+      <c r="B245" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C245" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D206" s="77" t="s">
+      <c r="D245" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E206" s="24" t="s">
+      <c r="E245" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F206" s="27" t="s">
+      <c r="F245" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30">
-      <c r="A207" s="117"/>
-      <c r="B207" s="102"/>
-      <c r="C207" s="11" t="s">
+    <row r="246" spans="1:6" ht="30">
+      <c r="A246" s="102"/>
+      <c r="B246" s="104"/>
+      <c r="C246" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D207" s="77" t="s">
+      <c r="D246" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E207" s="24" t="s">
+      <c r="E246" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F207" s="27" t="s">
+      <c r="F246" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="60">
-      <c r="A208" s="116" t="s">
+    <row r="247" spans="1:6" ht="60">
+      <c r="A247" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B208" s="101" t="s">
+      <c r="B247" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C247" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D208" s="77" t="s">
+      <c r="D247" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E208" s="24" t="s">
+      <c r="E247" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F208" s="27" t="s">
+      <c r="F247" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="30">
-      <c r="A209" s="117"/>
-      <c r="B209" s="102"/>
-      <c r="C209" s="11" t="s">
+    <row r="248" spans="1:6" ht="30">
+      <c r="A248" s="102"/>
+      <c r="B248" s="104"/>
+      <c r="C248" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D209" s="77" t="s">
+      <c r="D248" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E209" s="24" t="s">
+      <c r="E248" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F209" s="27" t="s">
+      <c r="F248" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="60">
-      <c r="A210" s="116" t="s">
+    <row r="249" spans="1:6" ht="60">
+      <c r="A249" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B210" s="101" t="s">
+      <c r="B249" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C249" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D210" s="77" t="s">
+      <c r="D249" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E210" s="24" t="s">
+      <c r="E249" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F210" s="27" t="s">
+      <c r="F249" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="30">
-      <c r="A211" s="117"/>
-      <c r="B211" s="102"/>
-      <c r="C211" s="11" t="s">
+    <row r="250" spans="1:6" ht="30">
+      <c r="A250" s="102"/>
+      <c r="B250" s="104"/>
+      <c r="C250" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D211" s="77" t="s">
+      <c r="D250" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E211" s="24" t="s">
+      <c r="E250" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F211" s="27" t="s">
+      <c r="F250" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="60">
-      <c r="A212" s="116" t="s">
+    <row r="251" spans="1:6" ht="60">
+      <c r="A251" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B212" s="101" t="s">
+      <c r="B251" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C251" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D212" s="77" t="s">
+      <c r="D251" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="24" t="s">
+      <c r="E251" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F212" s="27" t="s">
+      <c r="F251" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="30">
-      <c r="A213" s="117"/>
-      <c r="B213" s="102"/>
-      <c r="C213" s="11" t="s">
+    <row r="252" spans="1:6" ht="30">
+      <c r="A252" s="102"/>
+      <c r="B252" s="104"/>
+      <c r="C252" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D213" s="77" t="s">
+      <c r="D252" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E213" s="24" t="s">
+      <c r="E252" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F213" s="27" t="s">
+      <c r="F252" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="60">
-      <c r="A214" s="116" t="s">
+    <row r="253" spans="1:6" ht="60">
+      <c r="A253" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B214" s="101" t="s">
+      <c r="B253" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C253" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D214" s="77" t="s">
+      <c r="D253" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E214" s="24" t="s">
+      <c r="E253" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F214" s="27" t="s">
+      <c r="F253" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30">
-      <c r="A215" s="117"/>
-      <c r="B215" s="102"/>
-      <c r="C215" s="11" t="s">
+    <row r="254" spans="1:6" ht="30">
+      <c r="A254" s="102"/>
+      <c r="B254" s="104"/>
+      <c r="C254" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D215" s="77" t="s">
+      <c r="D254" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E215" s="24" t="s">
+      <c r="E254" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F215" s="27" t="s">
+      <c r="F254" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="60">
-      <c r="A216" s="116" t="s">
+    <row r="255" spans="1:6" ht="60">
+      <c r="A255" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="101" t="s">
+      <c r="B255" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C255" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D216" s="77" t="s">
+      <c r="D255" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E216" s="24" t="s">
+      <c r="E255" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F216" s="27" t="s">
+      <c r="F255" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30">
-      <c r="A217" s="117"/>
-      <c r="B217" s="102"/>
-      <c r="C217" s="11" t="s">
+    <row r="256" spans="1:6" ht="30">
+      <c r="A256" s="102"/>
+      <c r="B256" s="104"/>
+      <c r="C256" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D217" s="77" t="s">
+      <c r="D256" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E217" s="24" t="s">
+      <c r="E256" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F217" s="27" t="s">
+      <c r="F256" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="60">
-      <c r="A218" s="116" t="s">
+    <row r="257" spans="1:6" ht="60">
+      <c r="A257" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B218" s="101" t="s">
+      <c r="B257" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C257" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D218" s="77" t="s">
+      <c r="D257" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E218" s="24" t="s">
+      <c r="E257" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F218" s="27" t="s">
+      <c r="F257" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="117"/>
-      <c r="B219" s="102"/>
-      <c r="C219" s="11" t="s">
+    <row r="258" spans="1:6" ht="30">
+      <c r="A258" s="102"/>
+      <c r="B258" s="104"/>
+      <c r="C258" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D219" s="77" t="s">
+      <c r="D258" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E219" s="24" t="s">
+      <c r="E258" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F219" s="27" t="s">
+      <c r="F258" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="60">
-      <c r="A220" s="116" t="s">
+    <row r="259" spans="1:6" ht="60">
+      <c r="A259" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B220" s="101" t="s">
+      <c r="B259" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C259" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D220" s="77" t="s">
+      <c r="D259" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E220" s="24" t="s">
+      <c r="E259" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F220" s="27" t="s">
+      <c r="F259" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30">
-      <c r="A221" s="117"/>
-      <c r="B221" s="102"/>
-      <c r="C221" s="11" t="s">
+    <row r="260" spans="1:6" ht="30">
+      <c r="A260" s="102"/>
+      <c r="B260" s="104"/>
+      <c r="C260" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D221" s="77" t="s">
+      <c r="D260" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E221" s="24" t="s">
+      <c r="E260" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F221" s="27" t="s">
+      <c r="F260" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A222" s="88" t="s">
+    <row r="261" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A261" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B261" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C222" s="37" t="s">
+      <c r="C261" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D222" s="81" t="s">
+      <c r="D261" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E222" s="24" t="s">
+      <c r="E261" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F222" s="27" t="s">
+      <c r="F261" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="63" t="s">
+    <row r="274" spans="2:2">
+      <c r="B274" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15022,45 +17595,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="47">
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="B229:B234"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B27:B31"/>
@@ -15069,8 +17609,41 @@
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="A157:A159"/>
     <mergeCell ref="B157:B159"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B245:B246"/>
   </mergeCells>
-  <conditionalFormatting sqref="E190:E1048576 E1:E188">
+  <conditionalFormatting sqref="E229:E1048576 E1:E227">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -15078,21 +17651,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190:F222 F2:F188">
+  <conditionalFormatting sqref="F229:F261 F2:F227">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190:F222 F2:F188">
+  <conditionalFormatting sqref="F229:F261 F2:F227">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E188 E190:E222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E227 E229:E261">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F188 F190:F222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F227 F229:F261">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -4296,89 +4296,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have ti generate the following parameters: LinIfSchdeuleTableName: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SCH_REQ_&lt;network_name&gt;_1P3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; LinIfResumePosition: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>START_FROM_BEGINNING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; LinIfRunMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RUN_ONCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; LinIfScheduleMode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINTP_DIAG_REQUEST</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have to generate an LinIf entry with the following name : </t>
     </r>
     <r>
@@ -4546,23 +4463,6 @@
   </si>
   <si>
     <t>TRS.COMCONF.GEN.0100(0)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if for each channel crated, the tool will create one PDU for each ECU connected to the LIN network and DIAG network with the following name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CanTpRxNSdu_REQ_&lt;DIAG_network&gt;_&lt;network&gt;_&lt;ECU_name&gt;</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5916,60 +5816,7 @@
     <t>TRS.COMCONF.GEN.0122(0)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3network and each DIAG configured network, the tool will create an PDU with the following data:  Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CanIfRxPduCfg_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>TRS.COMCONF.GEN.0123(0)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> provide to the tool a valid LIN 2.1 network that has at least one ECU connected to it</t>
-    </r>
   </si>
   <si>
     <t>TRS.COMCONF.GEN.0124(0)</t>
@@ -12967,6 +12814,159 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> provide to the tool only one &lt;GATEWAY-MAPPING&gt; which has a &lt;SOURCE-I-PDU-REF&gt; and a &lt;TARGET-I-PDU-REF&gt;. The &lt;SOURCE-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction. The &lt;TARGET-I-PDU-REF&gt; has a valid PDU ID and a valid Transmission direction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each LinIf schedule-table generated as above, the tool will have to generate the following parameters: LinIfSchdeuleTableName: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCH_REQ_&lt;network_name&gt;_1P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfResumePosition: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>START_FROM_BEGINNING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfRunMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RUN_ONCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; LinIfScheduleMode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINTP_DIAG_REQUEST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each channel created, the tool will create one PDU for each ECU connected to the LIN network and DIAG network with the following name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanTpRxNSdu_REQ_&lt;DIAG_network&gt;_&lt;network&gt;_&lt;ECU_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide to the tool a valid LIN 1.3 network that has at least one ECU connected to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if for each ECU connected to a LIN 1.3 network and each DIAG configured network, the tool will create an PDU with the following data:  Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CanIfRxPduCfg_REQ_&lt;DIAG_network&gt;_&lt;ECU_name&gt;_&lt;network_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -12974,12 +12974,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13497,7 +13505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -13506,11 +13514,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -13520,14 +13528,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -13541,7 +13549,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13565,20 +13573,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13587,10 +13595,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13599,7 +13607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13612,7 +13620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13622,7 +13630,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13631,7 +13639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13643,28 +13651,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -13676,7 +13684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13700,26 +13708,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13733,22 +13744,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13757,10 +13765,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13772,79 +13780,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -13860,13 +13802,85 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14182,7 +14196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14353,10 +14367,10 @@
   <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14392,7 +14406,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="79"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="117" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -14412,7 +14426,7 @@
       <c r="A3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="124"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
@@ -14428,7 +14442,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="80"/>
-      <c r="B4" s="124"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
@@ -14444,7 +14458,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="80"/>
-      <c r="B5" s="125"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="35" t="s">
         <v>74</v>
       </c>
@@ -14513,10 +14527,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="115" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -14533,8 +14547,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="34" t="s">
         <v>130</v>
       </c>
@@ -14549,10 +14563,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="115" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -14569,8 +14583,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="36" t="s">
         <v>136</v>
       </c>
@@ -14585,8 +14599,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="40" t="s">
         <v>137</v>
       </c>
@@ -14673,10 +14687,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -14693,8 +14707,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
@@ -14709,8 +14723,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
@@ -14725,10 +14739,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="123" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -14745,8 +14759,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="122"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="17" t="s">
         <v>142</v>
       </c>
@@ -14761,10 +14775,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="123" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -14781,8 +14795,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="122"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
@@ -14833,10 +14847,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="133" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="55" t="s">
@@ -14853,8 +14867,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="55" t="s">
         <v>153</v>
       </c>
@@ -14869,8 +14883,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="112"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="60" t="s">
         <v>154</v>
       </c>
@@ -14885,8 +14899,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="60" t="s">
         <v>155</v>
       </c>
@@ -14901,10 +14915,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="116"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="59" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>156</v>
@@ -14917,10 +14931,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="133" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -14937,8 +14951,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="60" t="s">
         <v>157</v>
       </c>
@@ -15409,10 +15423,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="133" t="s">
         <v>269</v>
       </c>
       <c r="C57" s="85" t="s">
@@ -15429,8 +15443,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="85" t="s">
         <v>266</v>
       </c>
@@ -15445,8 +15459,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="115"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="134"/>
       <c r="C59" s="85" t="s">
         <v>267</v>
       </c>
@@ -15461,8 +15475,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="113"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="85" t="s">
         <v>268</v>
       </c>
@@ -16473,7 +16487,7 @@
         <v>336</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>339</v>
+        <v>659</v>
       </c>
       <c r="C111" s="88" t="s">
         <v>316</v>
@@ -16493,7 +16507,7 @@
         <v>337</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C112" s="88" t="s">
         <v>316</v>
@@ -16510,10 +16524,10 @@
     </row>
     <row r="113" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A113" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="B113" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>342</v>
       </c>
       <c r="C113" s="89" t="s">
         <v>307</v>
@@ -16530,7 +16544,7 @@
     </row>
     <row r="114" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A114" s="78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>104</v>
@@ -16548,7 +16562,7 @@
     </row>
     <row r="115" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A115" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B115" s="26" t="s">
         <v>104</v>
@@ -16566,16 +16580,16 @@
     </row>
     <row r="116" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A116" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="136" t="s">
+        <v>388</v>
+      </c>
+      <c r="D116" s="74" t="s">
         <v>345</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C116" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="D116" s="74" t="s">
-        <v>346</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>4</v>
@@ -16586,16 +16600,16 @@
     </row>
     <row r="117" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A117" s="78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C117" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D117" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>4</v>
@@ -16606,16 +16620,16 @@
     </row>
     <row r="118" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A118" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="B118" s="26" t="s">
-        <v>353</v>
-      </c>
       <c r="C118" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D118" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>4</v>
@@ -16626,16 +16640,16 @@
     </row>
     <row r="119" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A119" s="78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>356</v>
+        <v>660</v>
       </c>
       <c r="C119" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D119" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E119" s="26" t="s">
         <v>4</v>
@@ -16646,16 +16660,16 @@
     </row>
     <row r="120" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
       <c r="A120" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="B120" s="26" t="s">
-        <v>357</v>
-      </c>
       <c r="C120" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D120" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>4</v>
@@ -16666,16 +16680,16 @@
     </row>
     <row r="121" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A121" s="78" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C121" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D121" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>4</v>
@@ -16686,16 +16700,16 @@
     </row>
     <row r="122" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A122" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="B122" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B122" s="26" t="s">
-        <v>362</v>
-      </c>
       <c r="C122" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D122" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>4</v>
@@ -16706,16 +16720,16 @@
     </row>
     <row r="123" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A123" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B123" s="26" t="s">
-        <v>363</v>
-      </c>
       <c r="C123" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D123" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>4</v>
@@ -16726,16 +16740,16 @@
     </row>
     <row r="124" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A124" s="78" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C124" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D124" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>4</v>
@@ -16746,16 +16760,16 @@
     </row>
     <row r="125" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A125" s="78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C125" s="89" t="s">
-        <v>349</v>
+        <v>367</v>
+      </c>
+      <c r="C125" s="136" t="s">
+        <v>348</v>
       </c>
       <c r="D125" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>4</v>
@@ -16766,16 +16780,16 @@
     </row>
     <row r="126" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A126" s="78" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="26" t="s">
-        <v>370</v>
-      </c>
       <c r="C126" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D126" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>4</v>
@@ -16786,16 +16800,16 @@
     </row>
     <row r="127" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
       <c r="A127" s="78" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B127" s="90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C127" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>4</v>
@@ -16806,16 +16820,16 @@
     </row>
     <row r="128" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A128" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="B128" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="B128" s="26" t="s">
-        <v>374</v>
-      </c>
       <c r="C128" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D128" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>4</v>
@@ -16826,16 +16840,16 @@
     </row>
     <row r="129" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A129" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B129" s="26" t="s">
-        <v>377</v>
-      </c>
       <c r="C129" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D129" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>4</v>
@@ -16846,16 +16860,16 @@
     </row>
     <row r="130" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A130" s="78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C130" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D130" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>4</v>
@@ -16866,16 +16880,16 @@
     </row>
     <row r="131" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A131" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B131" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="B131" s="26" t="s">
-        <v>380</v>
-      </c>
       <c r="C131" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D131" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E131" s="26" t="s">
         <v>4</v>
@@ -16886,16 +16900,16 @@
     </row>
     <row r="132" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A132" s="78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C132" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D132" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E132" s="26" t="s">
         <v>4</v>
@@ -16906,16 +16920,16 @@
     </row>
     <row r="133" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A133" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C133" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="B133" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="C133" s="60" t="s">
-        <v>385</v>
-      </c>
       <c r="D133" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>4</v>
@@ -16926,7 +16940,7 @@
     </row>
     <row r="134" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A134" s="78" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B134" s="26" t="s">
         <v>104</v>
@@ -16944,7 +16958,7 @@
     </row>
     <row r="135" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A135" s="78" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B135" s="26" t="s">
         <v>105</v>
@@ -16962,16 +16976,16 @@
     </row>
     <row r="136" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A136" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C136" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="B136" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="C136" s="92" t="s">
-        <v>390</v>
-      </c>
       <c r="D136" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>4</v>
@@ -16982,16 +16996,16 @@
     </row>
     <row r="137" spans="1:6" s="22" customFormat="1" ht="99.95" customHeight="1">
       <c r="A137" s="78" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C137" s="92" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D137" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E137" s="26" t="s">
         <v>4</v>
@@ -17002,16 +17016,16 @@
     </row>
     <row r="138" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
       <c r="A138" s="78" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C138" s="92" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D138" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E138" s="26" t="s">
         <v>4</v>
@@ -17022,16 +17036,16 @@
     </row>
     <row r="139" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A139" s="78" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B139" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C139" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" s="74" t="s">
         <v>396</v>
-      </c>
-      <c r="C139" s="92" t="s">
-        <v>390</v>
-      </c>
-      <c r="D139" s="74" t="s">
-        <v>398</v>
       </c>
       <c r="E139" s="26" t="s">
         <v>4</v>
@@ -17042,16 +17056,16 @@
     </row>
     <row r="140" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A140" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="B140" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="B140" s="26" t="s">
-        <v>399</v>
-      </c>
       <c r="C140" s="92" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D140" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>4</v>
@@ -17062,16 +17076,16 @@
     </row>
     <row r="141" spans="1:6" s="22" customFormat="1" ht="99.75" customHeight="1">
       <c r="A141" s="78" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C141" s="92" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D141" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>4</v>
@@ -17082,16 +17096,16 @@
     </row>
     <row r="142" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A142" s="78" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="C142" s="92" t="s">
-        <v>390</v>
+        <v>662</v>
+      </c>
+      <c r="C142" s="136" t="s">
+        <v>307</v>
       </c>
       <c r="D142" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E142" s="26" t="s">
         <v>4</v>
@@ -17102,16 +17116,16 @@
     </row>
     <row r="143" spans="1:6" s="22" customFormat="1" ht="116.25" customHeight="1">
       <c r="A143" s="78" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C143" s="92" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="C143" s="136" t="s">
+        <v>307</v>
       </c>
       <c r="D143" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>4</v>
@@ -17122,16 +17136,16 @@
     </row>
     <row r="144" spans="1:6" s="22" customFormat="1" ht="150" customHeight="1">
       <c r="A144" s="78" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C144" s="92" t="s">
-        <v>390</v>
+        <v>404</v>
+      </c>
+      <c r="C144" s="136" t="s">
+        <v>661</v>
       </c>
       <c r="D144" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E144" s="26" t="s">
         <v>4</v>
@@ -17142,16 +17156,16 @@
     </row>
     <row r="145" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A145" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C145" s="92" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="C145" s="136" t="s">
+        <v>406</v>
       </c>
       <c r="D145" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E145" s="26" t="s">
         <v>4</v>
@@ -17162,16 +17176,16 @@
     </row>
     <row r="146" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1">
       <c r="A146" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C146" s="92" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D146" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>4</v>
@@ -17182,16 +17196,16 @@
     </row>
     <row r="147" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
       <c r="A147" s="78" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C147" s="92" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D147" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E147" s="26" t="s">
         <v>4</v>
@@ -17202,16 +17216,16 @@
     </row>
     <row r="148" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A148" s="78" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C148" s="92" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D148" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E148" s="26" t="s">
         <v>4</v>
@@ -17222,16 +17236,16 @@
     </row>
     <row r="149" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
       <c r="A149" s="78" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C149" s="92" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D149" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E149" s="26" t="s">
         <v>4</v>
@@ -17242,16 +17256,16 @@
     </row>
     <row r="150" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
       <c r="A150" s="78" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C150" s="92" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E150" s="26" t="s">
         <v>4</v>
@@ -17262,16 +17276,16 @@
     </row>
     <row r="151" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A151" s="78" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C151" s="92" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D151" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E151" s="26" t="s">
         <v>4</v>
@@ -17282,16 +17296,16 @@
     </row>
     <row r="152" spans="1:6" s="22" customFormat="1" ht="96" customHeight="1">
       <c r="A152" s="78" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C152" s="92" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D152" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E152" s="26" t="s">
         <v>4</v>
@@ -17302,16 +17316,16 @@
     </row>
     <row r="153" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
       <c r="A153" s="78" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C153" s="92" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D153" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E153" s="26" t="s">
         <v>4</v>
@@ -17322,7 +17336,7 @@
     </row>
     <row r="154" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A154" s="78" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B154" s="26" t="s">
         <v>104</v>
@@ -17340,7 +17354,7 @@
     </row>
     <row r="155" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
       <c r="A155" s="78" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>105</v>
@@ -17358,68 +17372,68 @@
     </row>
     <row r="156" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A156" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="D156" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A157" s="131" t="s">
         <v>434</v>
       </c>
-      <c r="C156" s="93" t="s">
+      <c r="B157" s="133" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" s="136" t="s">
         <v>437</v>
       </c>
-      <c r="D156" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A157" s="111" t="s">
+      <c r="D157" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A158" s="122"/>
+      <c r="B158" s="134"/>
+      <c r="C158" s="93" t="s">
         <v>438</v>
       </c>
-      <c r="B157" s="114" t="s">
+      <c r="D158" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="A159" s="132"/>
+      <c r="B159" s="135"/>
+      <c r="C159" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D159" s="74" t="s">
         <v>439</v>
-      </c>
-      <c r="C157" s="93" t="s">
-        <v>441</v>
-      </c>
-      <c r="D157" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A158" s="112"/>
-      <c r="B158" s="115"/>
-      <c r="C158" s="93" t="s">
-        <v>442</v>
-      </c>
-      <c r="D158" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A159" s="113"/>
-      <c r="B159" s="116"/>
-      <c r="C159" s="93" t="s">
-        <v>444</v>
-      </c>
-      <c r="D159" s="74" t="s">
-        <v>443</v>
       </c>
       <c r="E159" s="26" t="s">
         <v>4</v>
@@ -17430,16 +17444,16 @@
     </row>
     <row r="160" spans="1:6" s="22" customFormat="1" ht="159" customHeight="1">
       <c r="A160" s="91" t="s">
-        <v>445</v>
-      </c>
-      <c r="B160" s="101" t="s">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="B160" s="103" t="s">
+        <v>442</v>
       </c>
       <c r="C160" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D160" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>4</v>
@@ -17450,16 +17464,16 @@
     </row>
     <row r="161" spans="1:6" s="22" customFormat="1" ht="228.75" customHeight="1">
       <c r="A161" s="91" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B161" s="101" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C161" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D161" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>4</v>
@@ -17470,16 +17484,16 @@
     </row>
     <row r="162" spans="1:6" s="22" customFormat="1" ht="180.75" customHeight="1">
       <c r="A162" s="91" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B162" s="101" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C162" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D162" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>4</v>
@@ -17490,16 +17504,16 @@
     </row>
     <row r="163" spans="1:6" s="22" customFormat="1" ht="228" customHeight="1">
       <c r="A163" s="91" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B163" s="101" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C163" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D163" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>4</v>
@@ -17510,16 +17524,16 @@
     </row>
     <row r="164" spans="1:6" s="22" customFormat="1" ht="240.75" customHeight="1">
       <c r="A164" s="91" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B164" s="101" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C164" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D164" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E164" s="26" t="s">
         <v>4</v>
@@ -17530,16 +17544,16 @@
     </row>
     <row r="165" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
       <c r="A165" s="91" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B165" s="101" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C165" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D165" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E165" s="26" t="s">
         <v>4</v>
@@ -17550,16 +17564,16 @@
     </row>
     <row r="166" spans="1:6" s="22" customFormat="1" ht="206.25" customHeight="1">
       <c r="A166" s="91" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B166" s="101" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C166" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D166" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>4</v>
@@ -17570,16 +17584,16 @@
     </row>
     <row r="167" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
       <c r="A167" s="91" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B167" s="101" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C167" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D167" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>4</v>
@@ -17590,16 +17604,16 @@
     </row>
     <row r="168" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
       <c r="A168" s="91" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B168" s="101" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C168" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D168" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E168" s="26" t="s">
         <v>4</v>
@@ -17610,16 +17624,16 @@
     </row>
     <row r="169" spans="1:6" s="22" customFormat="1" ht="182.25" customHeight="1">
       <c r="A169" s="91" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B169" s="101" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C169" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D169" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>4</v>
@@ -17630,16 +17644,16 @@
     </row>
     <row r="170" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
       <c r="A170" s="91" t="s">
-        <v>465</v>
-      </c>
-      <c r="B170" s="101" t="s">
-        <v>466</v>
+        <v>461</v>
+      </c>
+      <c r="B170" s="103" t="s">
+        <v>462</v>
       </c>
       <c r="C170" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D170" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>4</v>
@@ -17650,16 +17664,16 @@
     </row>
     <row r="171" spans="1:6" s="22" customFormat="1" ht="140.25" customHeight="1">
       <c r="A171" s="91" t="s">
-        <v>467</v>
-      </c>
-      <c r="B171" s="101" t="s">
-        <v>468</v>
+        <v>463</v>
+      </c>
+      <c r="B171" s="103" t="s">
+        <v>464</v>
       </c>
       <c r="C171" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D171" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>4</v>
@@ -17670,16 +17684,16 @@
     </row>
     <row r="172" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
       <c r="A172" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="B172" s="101" t="s">
-        <v>470</v>
+        <v>465</v>
+      </c>
+      <c r="B172" s="103" t="s">
+        <v>466</v>
       </c>
       <c r="C172" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D172" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E172" s="26" t="s">
         <v>4</v>
@@ -17690,16 +17704,16 @@
     </row>
     <row r="173" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
       <c r="A173" s="91" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B173" s="101" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C173" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D173" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E173" s="26" t="s">
         <v>4</v>
@@ -17710,16 +17724,16 @@
     </row>
     <row r="174" spans="1:6" s="22" customFormat="1" ht="181.5" customHeight="1">
       <c r="A174" s="91" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B174" s="101" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C174" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D174" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>4</v>
@@ -17730,16 +17744,16 @@
     </row>
     <row r="175" spans="1:6" s="22" customFormat="1" ht="187.5" customHeight="1">
       <c r="A175" s="91" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B175" s="101" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C175" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D175" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E175" s="26" t="s">
         <v>4</v>
@@ -17750,16 +17764,16 @@
     </row>
     <row r="176" spans="1:6" s="22" customFormat="1" ht="217.5" customHeight="1">
       <c r="A176" s="91" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B176" s="101" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C176" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D176" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E176" s="26" t="s">
         <v>4</v>
@@ -17770,16 +17784,16 @@
     </row>
     <row r="177" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
       <c r="A177" s="91" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B177" s="101" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C177" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D177" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E177" s="26" t="s">
         <v>4</v>
@@ -17790,16 +17804,16 @@
     </row>
     <row r="178" spans="1:6" s="22" customFormat="1" ht="216.75" customHeight="1">
       <c r="A178" s="91" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B178" s="101" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C178" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D178" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E178" s="26" t="s">
         <v>4</v>
@@ -17810,16 +17824,16 @@
     </row>
     <row r="179" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
       <c r="A179" s="91" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B179" s="101" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C179" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D179" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E179" s="26" t="s">
         <v>4</v>
@@ -17830,16 +17844,16 @@
     </row>
     <row r="180" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
       <c r="A180" s="91" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B180" s="101" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C180" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D180" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E180" s="26" t="s">
         <v>4</v>
@@ -17850,16 +17864,16 @@
     </row>
     <row r="181" spans="1:6" s="22" customFormat="1" ht="204.75" customHeight="1">
       <c r="A181" s="91" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B181" s="101" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C181" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D181" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E181" s="26" t="s">
         <v>4</v>
@@ -17870,16 +17884,16 @@
     </row>
     <row r="182" spans="1:6" s="22" customFormat="1" ht="216" customHeight="1">
       <c r="A182" s="91" t="s">
+        <v>485</v>
+      </c>
+      <c r="B182" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="B182" s="101" t="s">
-        <v>493</v>
-      </c>
       <c r="C182" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D182" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E182" s="26" t="s">
         <v>4</v>
@@ -17890,16 +17904,16 @@
     </row>
     <row r="183" spans="1:6" s="22" customFormat="1" ht="214.5" customHeight="1">
       <c r="A183" s="91" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B183" s="101" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C183" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D183" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E183" s="26" t="s">
         <v>4</v>
@@ -17910,16 +17924,16 @@
     </row>
     <row r="184" spans="1:6" s="22" customFormat="1" ht="213" customHeight="1">
       <c r="A184" s="91" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B184" s="101" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C184" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D184" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E184" s="26" t="s">
         <v>4</v>
@@ -17930,16 +17944,16 @@
     </row>
     <row r="185" spans="1:6" s="22" customFormat="1" ht="156" customHeight="1">
       <c r="A185" s="94" t="s">
-        <v>495</v>
-      </c>
-      <c r="B185" s="101" t="s">
-        <v>496</v>
+        <v>491</v>
+      </c>
+      <c r="B185" s="103" t="s">
+        <v>492</v>
       </c>
       <c r="C185" s="93" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D185" s="74" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E185" s="26" t="s">
         <v>4</v>
@@ -17950,7 +17964,7 @@
     </row>
     <row r="186" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A186" s="94" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B186" s="101" t="s">
         <v>104</v>
@@ -17968,7 +17982,7 @@
     </row>
     <row r="187" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A187" s="78" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B187" s="26" t="s">
         <v>105</v>
@@ -17986,16 +18000,16 @@
     </row>
     <row r="188" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A188" s="78" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C188" s="102" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D188" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E188" s="26" t="s">
         <v>4</v>
@@ -18006,16 +18020,16 @@
     </row>
     <row r="189" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A189" s="78" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C189" s="102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D189" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E189" s="26" t="s">
         <v>4</v>
@@ -18026,16 +18040,16 @@
     </row>
     <row r="190" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
       <c r="A190" s="78" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C190" s="102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D190" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E190" s="26" t="s">
         <v>4</v>
@@ -18046,16 +18060,16 @@
     </row>
     <row r="191" spans="1:6" s="22" customFormat="1" ht="73.5" customHeight="1">
       <c r="A191" s="78" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C191" s="102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D191" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E191" s="26" t="s">
         <v>4</v>
@@ -18066,16 +18080,16 @@
     </row>
     <row r="192" spans="1:6" s="22" customFormat="1" ht="106.5" customHeight="1">
       <c r="A192" s="78" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C192" s="102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D192" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E192" s="26" t="s">
         <v>4</v>
@@ -18086,16 +18100,16 @@
     </row>
     <row r="193" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A193" s="78" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C193" s="102" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D193" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E193" s="26" t="s">
         <v>4</v>
@@ -18106,16 +18120,16 @@
     </row>
     <row r="194" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
       <c r="A194" s="78" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C194" s="102" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D194" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E194" s="26" t="s">
         <v>4</v>
@@ -18126,16 +18140,16 @@
     </row>
     <row r="195" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A195" s="78" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C195" s="102" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D195" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E195" s="26" t="s">
         <v>4</v>
@@ -18146,16 +18160,16 @@
     </row>
     <row r="196" spans="1:6" s="22" customFormat="1" ht="108" customHeight="1">
       <c r="A196" s="78" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C196" s="102" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D196" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E196" s="26" t="s">
         <v>4</v>
@@ -18166,16 +18180,16 @@
     </row>
     <row r="197" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A197" s="78" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C197" s="102" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D197" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E197" s="26" t="s">
         <v>4</v>
@@ -18186,16 +18200,16 @@
     </row>
     <row r="198" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
       <c r="A198" s="78" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C198" s="102" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D198" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E198" s="26" t="s">
         <v>4</v>
@@ -18206,16 +18220,16 @@
     </row>
     <row r="199" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A199" s="78" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B199" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C199" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="C199" s="102" t="s">
-        <v>530</v>
-      </c>
       <c r="D199" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E199" s="26" t="s">
         <v>4</v>
@@ -18226,16 +18240,16 @@
     </row>
     <row r="200" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
       <c r="A200" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="C200" s="102" t="s">
         <v>527</v>
       </c>
-      <c r="B200" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="C200" s="102" t="s">
-        <v>531</v>
-      </c>
       <c r="D200" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E200" s="26" t="s">
         <v>4</v>
@@ -18246,16 +18260,16 @@
     </row>
     <row r="201" spans="1:6" s="22" customFormat="1" ht="97.5" customHeight="1">
       <c r="A201" s="78" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C201" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D201" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E201" s="26" t="s">
         <v>4</v>
@@ -18266,16 +18280,16 @@
     </row>
     <row r="202" spans="1:6" s="22" customFormat="1" ht="174.75" customHeight="1">
       <c r="A202" s="78" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C202" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D202" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E202" s="26" t="s">
         <v>4</v>
@@ -18286,16 +18300,16 @@
     </row>
     <row r="203" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
       <c r="A203" s="78" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C203" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D203" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>4</v>
@@ -18306,16 +18320,16 @@
     </row>
     <row r="204" spans="1:6" s="22" customFormat="1" ht="169.5" customHeight="1">
       <c r="A204" s="78" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C204" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D204" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E204" s="26" t="s">
         <v>4</v>
@@ -18326,16 +18340,16 @@
     </row>
     <row r="205" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A205" s="78" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C205" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D205" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E205" s="26" t="s">
         <v>4</v>
@@ -18346,16 +18360,16 @@
     </row>
     <row r="206" spans="1:6" s="22" customFormat="1" ht="258" customHeight="1">
       <c r="A206" s="78" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C206" s="102" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D206" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E206" s="26" t="s">
         <v>4</v>
@@ -18366,16 +18380,16 @@
     </row>
     <row r="207" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A207" s="78" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C207" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D207" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>4</v>
@@ -18386,16 +18400,16 @@
     </row>
     <row r="208" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
       <c r="A208" s="78" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C208" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D208" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E208" s="26" t="s">
         <v>4</v>
@@ -18406,16 +18420,16 @@
     </row>
     <row r="209" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A209" s="78" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C209" s="102" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D209" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E209" s="26" t="s">
         <v>4</v>
@@ -18426,16 +18440,16 @@
     </row>
     <row r="210" spans="1:6" s="22" customFormat="1" ht="113.25" customHeight="1">
       <c r="A210" s="78" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C210" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D210" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E210" s="26" t="s">
         <v>4</v>
@@ -18446,16 +18460,16 @@
     </row>
     <row r="211" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
       <c r="A211" s="78" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C211" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D211" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E211" s="26" t="s">
         <v>4</v>
@@ -18466,16 +18480,16 @@
     </row>
     <row r="212" spans="1:6" s="22" customFormat="1" ht="173.25" customHeight="1">
       <c r="A212" s="78" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C212" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D212" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E212" s="26" t="s">
         <v>4</v>
@@ -18486,16 +18500,16 @@
     </row>
     <row r="213" spans="1:6" s="22" customFormat="1" ht="98.25" customHeight="1">
       <c r="A213" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="B213" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="B213" s="26" t="s">
-        <v>561</v>
-      </c>
       <c r="C213" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D213" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E213" s="26" t="s">
         <v>4</v>
@@ -18506,16 +18520,16 @@
     </row>
     <row r="214" spans="1:6" s="22" customFormat="1" ht="166.5" customHeight="1">
       <c r="A214" s="78" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C214" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D214" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E214" s="26" t="s">
         <v>4</v>
@@ -18526,16 +18540,16 @@
     </row>
     <row r="215" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A215" s="78" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C215" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D215" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E215" s="26" t="s">
         <v>4</v>
@@ -18546,16 +18560,16 @@
     </row>
     <row r="216" spans="1:6" s="22" customFormat="1" ht="259.5" customHeight="1">
       <c r="A216" s="78" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C216" s="102" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D216" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E216" s="26" t="s">
         <v>4</v>
@@ -18566,16 +18580,16 @@
     </row>
     <row r="217" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A217" s="78" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C217" s="102" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D217" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E217" s="26" t="s">
         <v>4</v>
@@ -18586,16 +18600,16 @@
     </row>
     <row r="218" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A218" s="78" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C218" s="102" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D218" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E218" s="26" t="s">
         <v>4</v>
@@ -18606,16 +18620,16 @@
     </row>
     <row r="219" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A219" s="78" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C219" s="60" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D219" s="74" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E219" s="26" t="s">
         <v>4</v>
@@ -18626,16 +18640,16 @@
     </row>
     <row r="220" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A220" s="78" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C220" s="60" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D220" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E220" s="26" t="s">
         <v>4</v>
@@ -18646,16 +18660,16 @@
     </row>
     <row r="221" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A221" s="78" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="C221" s="126" t="s">
-        <v>579</v>
+        <v>574</v>
+      </c>
+      <c r="C221" s="104" t="s">
+        <v>575</v>
       </c>
       <c r="D221" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E221" s="26" t="s">
         <v>4</v>
@@ -18666,16 +18680,16 @@
     </row>
     <row r="222" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
       <c r="A222" s="78" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="C222" s="126" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="C222" s="104" t="s">
+        <v>575</v>
       </c>
       <c r="D222" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E222" s="26" t="s">
         <v>4</v>
@@ -18686,16 +18700,16 @@
     </row>
     <row r="223" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
       <c r="A223" s="78" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="C223" s="126" t="s">
         <v>579</v>
       </c>
+      <c r="C223" s="104" t="s">
+        <v>575</v>
+      </c>
       <c r="D223" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E223" s="26" t="s">
         <v>4</v>
@@ -18706,16 +18720,16 @@
     </row>
     <row r="224" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A224" s="78" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="C224" s="126" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="C224" s="104" t="s">
+        <v>581</v>
       </c>
       <c r="D224" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E224" s="26" t="s">
         <v>4</v>
@@ -18726,16 +18740,16 @@
     </row>
     <row r="225" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1">
       <c r="A225" s="78" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="C225" s="126" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="C225" s="104" t="s">
+        <v>581</v>
       </c>
       <c r="D225" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E225" s="26" t="s">
         <v>4</v>
@@ -18746,16 +18760,16 @@
     </row>
     <row r="226" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A226" s="78" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="C226" s="126" t="s">
-        <v>592</v>
+        <v>586</v>
+      </c>
+      <c r="C226" s="104" t="s">
+        <v>588</v>
       </c>
       <c r="D226" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E226" s="26" t="s">
         <v>4</v>
@@ -18766,16 +18780,16 @@
     </row>
     <row r="227" spans="1:6" s="22" customFormat="1" ht="78.75" customHeight="1">
       <c r="A227" s="78" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="C227" s="126" t="s">
-        <v>585</v>
+        <v>589</v>
+      </c>
+      <c r="C227" s="104" t="s">
+        <v>581</v>
       </c>
       <c r="D227" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E227" s="26" t="s">
         <v>4</v>
@@ -18786,16 +18800,16 @@
     </row>
     <row r="228" spans="1:6" s="22" customFormat="1" ht="186" customHeight="1">
       <c r="A228" s="78" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="C228" s="126" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+      <c r="C228" s="104" t="s">
+        <v>591</v>
       </c>
       <c r="D228" s="74" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E228" s="26" t="s">
         <v>4</v>
@@ -18806,16 +18820,16 @@
     </row>
     <row r="229" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A229" s="78" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="C229" s="126" t="s">
-        <v>600</v>
+        <v>650</v>
+      </c>
+      <c r="C229" s="104" t="s">
+        <v>596</v>
       </c>
       <c r="D229" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E229" s="26" t="s">
         <v>4</v>
@@ -18826,16 +18840,16 @@
     </row>
     <row r="230" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A230" s="78" t="s">
+        <v>594</v>
+      </c>
+      <c r="B230" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="B230" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="C230" s="126" t="s">
-        <v>599</v>
+      <c r="C230" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D230" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E230" s="26" t="s">
         <v>4</v>
@@ -18846,16 +18860,16 @@
     </row>
     <row r="231" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A231" s="78" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="C231" s="126" t="s">
         <v>599</v>
       </c>
+      <c r="C231" s="104" t="s">
+        <v>595</v>
+      </c>
       <c r="D231" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E231" s="26" t="s">
         <v>4</v>
@@ -18866,16 +18880,16 @@
     </row>
     <row r="232" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
       <c r="A232" s="78" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="C232" s="126" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="C232" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D232" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E232" s="26" t="s">
         <v>4</v>
@@ -18886,16 +18900,16 @@
     </row>
     <row r="233" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A233" s="78" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="C233" s="126" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="C233" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D233" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E233" s="26" t="s">
         <v>4</v>
@@ -18906,16 +18920,16 @@
     </row>
     <row r="234" spans="1:6" s="22" customFormat="1" ht="90.75" customHeight="1">
       <c r="A234" s="78" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="C234" s="126" t="s">
-        <v>599</v>
+        <v>605</v>
+      </c>
+      <c r="C234" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D234" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E234" s="26" t="s">
         <v>4</v>
@@ -18926,16 +18940,16 @@
     </row>
     <row r="235" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A235" s="78" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="C235" s="126" t="s">
-        <v>599</v>
+        <v>607</v>
+      </c>
+      <c r="C235" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D235" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E235" s="26" t="s">
         <v>4</v>
@@ -18946,16 +18960,16 @@
     </row>
     <row r="236" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A236" s="78" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C236" s="60" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D236" s="74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E236" s="26" t="s">
         <v>4</v>
@@ -18966,16 +18980,16 @@
     </row>
     <row r="237" spans="1:6" s="32" customFormat="1" ht="182.25" customHeight="1">
       <c r="A237" s="97" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B237" s="99" t="s">
-        <v>637</v>
-      </c>
-      <c r="C237" s="132" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="C237" s="110" t="s">
+        <v>632</v>
       </c>
       <c r="D237" s="73" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E237" s="99" t="s">
         <v>4</v>
@@ -18986,16 +19000,16 @@
     </row>
     <row r="238" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A238" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="B238" s="133" t="s">
-        <v>575</v>
-      </c>
-      <c r="C238" s="126" t="s">
-        <v>639</v>
+        <v>610</v>
+      </c>
+      <c r="B238" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="C238" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D238" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E238" s="26" t="s">
         <v>4</v>
@@ -19004,18 +19018,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="128" customFormat="1" ht="75" customHeight="1">
+    <row r="239" spans="1:6" s="106" customFormat="1" ht="75" customHeight="1">
       <c r="A239" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="B239" s="133" t="s">
-        <v>638</v>
-      </c>
-      <c r="C239" s="126" t="s">
-        <v>639</v>
-      </c>
-      <c r="D239" s="127" t="s">
-        <v>651</v>
+        <v>611</v>
+      </c>
+      <c r="B239" s="111" t="s">
+        <v>634</v>
+      </c>
+      <c r="C239" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D239" s="105" t="s">
+        <v>647</v>
       </c>
       <c r="E239" s="26" t="s">
         <v>4</v>
@@ -19024,38 +19038,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="131" customFormat="1" ht="75" customHeight="1">
+    <row r="240" spans="1:6" s="109" customFormat="1" ht="75" customHeight="1">
       <c r="A240" s="98" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B240" s="101" t="s">
-        <v>640</v>
-      </c>
-      <c r="C240" s="134" t="s">
-        <v>639</v>
-      </c>
-      <c r="D240" s="129" t="s">
-        <v>651</v>
+        <v>636</v>
+      </c>
+      <c r="C240" s="112" t="s">
+        <v>635</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>647</v>
       </c>
       <c r="E240" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F240" s="130" t="s">
+      <c r="F240" s="108" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
       <c r="A241" s="78" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="C241" s="126" t="s">
-        <v>639</v>
+        <v>579</v>
+      </c>
+      <c r="C241" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D241" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E241" s="26" t="s">
         <v>4</v>
@@ -19066,16 +19080,16 @@
     </row>
     <row r="242" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A242" s="78" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="C242" s="126" t="s">
-        <v>641</v>
+        <v>638</v>
+      </c>
+      <c r="C242" s="104" t="s">
+        <v>637</v>
       </c>
       <c r="D242" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E242" s="26" t="s">
         <v>4</v>
@@ -19086,16 +19100,16 @@
     </row>
     <row r="243" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
       <c r="A243" s="78" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="C243" s="126" t="s">
-        <v>639</v>
+        <v>605</v>
+      </c>
+      <c r="C243" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D243" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E243" s="26" t="s">
         <v>4</v>
@@ -19106,16 +19120,16 @@
     </row>
     <row r="244" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A244" s="78" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="C244" s="126" t="s">
-        <v>639</v>
+        <v>586</v>
+      </c>
+      <c r="C244" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D244" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E244" s="26" t="s">
         <v>4</v>
@@ -19126,16 +19140,16 @@
     </row>
     <row r="245" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A245" s="78" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C245" s="126" t="s">
         <v>639</v>
       </c>
+      <c r="C245" s="104" t="s">
+        <v>635</v>
+      </c>
       <c r="D245" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E245" s="26" t="s">
         <v>4</v>
@@ -19146,16 +19160,16 @@
     </row>
     <row r="246" spans="1:6" s="22" customFormat="1" ht="183.75" customHeight="1">
       <c r="A246" s="78" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="C246" s="126" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="C246" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D246" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E246" s="26" t="s">
         <v>4</v>
@@ -19166,16 +19180,16 @@
     </row>
     <row r="247" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A247" s="78" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>645</v>
-      </c>
-      <c r="C247" s="126" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="C247" s="104" t="s">
+        <v>635</v>
       </c>
       <c r="D247" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E247" s="26" t="s">
         <v>4</v>
@@ -19186,16 +19200,16 @@
     </row>
     <row r="248" spans="1:6" s="22" customFormat="1" ht="377.25" customHeight="1">
       <c r="A248" s="78" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="C248" s="126" t="s">
+        <v>642</v>
+      </c>
+      <c r="C248" s="104" t="s">
+        <v>643</v>
+      </c>
+      <c r="D248" s="74" t="s">
         <v>647</v>
-      </c>
-      <c r="D248" s="74" t="s">
-        <v>651</v>
       </c>
       <c r="E248" s="26" t="s">
         <v>4</v>
@@ -19206,16 +19220,16 @@
     </row>
     <row r="249" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A249" s="78" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="C249" s="126" t="s">
-        <v>655</v>
+        <v>650</v>
+      </c>
+      <c r="C249" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D249" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>4</v>
@@ -19226,16 +19240,16 @@
     </row>
     <row r="250" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A250" s="78" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="C250" s="126" t="s">
-        <v>655</v>
+        <v>653</v>
+      </c>
+      <c r="C250" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D250" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E250" s="26" t="s">
         <v>4</v>
@@ -19246,16 +19260,16 @@
     </row>
     <row r="251" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A251" s="78" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="C251" s="126" t="s">
-        <v>655</v>
+        <v>654</v>
+      </c>
+      <c r="C251" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D251" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E251" s="26" t="s">
         <v>4</v>
@@ -19266,16 +19280,16 @@
     </row>
     <row r="252" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
       <c r="A252" s="78" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="C252" s="126" t="s">
-        <v>655</v>
+        <v>579</v>
+      </c>
+      <c r="C252" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D252" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E252" s="26" t="s">
         <v>4</v>
@@ -19286,16 +19300,16 @@
     </row>
     <row r="253" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A253" s="78" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="C253" s="126" t="s">
         <v>655</v>
       </c>
+      <c r="C253" s="104" t="s">
+        <v>651</v>
+      </c>
       <c r="D253" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E253" s="26" t="s">
         <v>4</v>
@@ -19306,16 +19320,16 @@
     </row>
     <row r="254" spans="1:6" s="22" customFormat="1" ht="91.5" customHeight="1">
       <c r="A254" s="78" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="C254" s="126" t="s">
-        <v>655</v>
+        <v>584</v>
+      </c>
+      <c r="C254" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D254" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E254" s="26" t="s">
         <v>4</v>
@@ -19326,16 +19340,16 @@
     </row>
     <row r="255" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A255" s="78" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="C255" s="126" t="s">
-        <v>655</v>
+        <v>586</v>
+      </c>
+      <c r="C255" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D255" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E255" s="26" t="s">
         <v>4</v>
@@ -19346,16 +19360,16 @@
     </row>
     <row r="256" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A256" s="78" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C256" s="126" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="C256" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="D256" s="74" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E256" s="26" t="s">
         <v>4</v>
@@ -19366,16 +19380,16 @@
     </row>
     <row r="257" spans="1:6" s="22" customFormat="1" ht="189" customHeight="1">
       <c r="A257" s="78" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="C257" s="126" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+      <c r="C257" s="104" t="s">
+        <v>652</v>
       </c>
       <c r="D257" s="74" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E257" s="26" t="s">
         <v>4</v>
@@ -19387,7 +19401,7 @@
     <row r="258" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A258" s="78"/>
       <c r="B258" s="26"/>
-      <c r="C258" s="126"/>
+      <c r="C258" s="104"/>
       <c r="D258" s="74"/>
       <c r="E258" s="26"/>
       <c r="F258" s="29"/>
@@ -19395,7 +19409,7 @@
     <row r="259" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
       <c r="A259" s="78"/>
       <c r="B259" s="26"/>
-      <c r="C259" s="126"/>
+      <c r="C259" s="104"/>
       <c r="D259" s="74"/>
       <c r="E259" s="26"/>
       <c r="F259" s="29"/>
@@ -19409,10 +19423,10 @@
       <c r="F260" s="29"/>
     </row>
     <row r="261" spans="1:6" ht="120">
-      <c r="A261" s="108" t="s">
+      <c r="A261" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B261" s="109" t="s">
+      <c r="B261" s="124" t="s">
         <v>28</v>
       </c>
       <c r="C261" s="56" t="s">
@@ -19429,8 +19443,8 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="120">
-      <c r="A262" s="108"/>
-      <c r="B262" s="109"/>
+      <c r="A262" s="129"/>
+      <c r="B262" s="124"/>
       <c r="C262" s="11" t="s">
         <v>76</v>
       </c>
@@ -19445,8 +19459,8 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="120">
-      <c r="A263" s="108"/>
-      <c r="B263" s="109"/>
+      <c r="A263" s="129"/>
+      <c r="B263" s="124"/>
       <c r="C263" s="11" t="s">
         <v>77</v>
       </c>
@@ -19461,8 +19475,8 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="120">
-      <c r="A264" s="108"/>
-      <c r="B264" s="109"/>
+      <c r="A264" s="129"/>
+      <c r="B264" s="124"/>
       <c r="C264" s="11" t="s">
         <v>78</v>
       </c>
@@ -19477,8 +19491,8 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="120">
-      <c r="A265" s="108"/>
-      <c r="B265" s="109"/>
+      <c r="A265" s="129"/>
+      <c r="B265" s="124"/>
       <c r="C265" s="11" t="s">
         <v>79</v>
       </c>
@@ -19493,8 +19507,8 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="30">
-      <c r="A266" s="110"/>
-      <c r="B266" s="106"/>
+      <c r="A266" s="130"/>
+      <c r="B266" s="116"/>
       <c r="C266" s="11" t="s">
         <v>80</v>
       </c>
@@ -19509,10 +19523,10 @@
       </c>
     </row>
     <row r="267" spans="1:6" ht="60">
-      <c r="A267" s="117" t="s">
+      <c r="A267" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B267" s="105" t="s">
+      <c r="B267" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C267" s="11" t="s">
@@ -19529,8 +19543,8 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="30">
-      <c r="A268" s="118"/>
-      <c r="B268" s="106"/>
+      <c r="A268" s="114"/>
+      <c r="B268" s="116"/>
       <c r="C268" s="11" t="s">
         <v>82</v>
       </c>
@@ -19545,10 +19559,10 @@
       </c>
     </row>
     <row r="269" spans="1:6" ht="60">
-      <c r="A269" s="117" t="s">
+      <c r="A269" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B269" s="105" t="s">
+      <c r="B269" s="115" t="s">
         <v>35</v>
       </c>
       <c r="C269" s="11" t="s">
@@ -19565,8 +19579,8 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="118"/>
-      <c r="B270" s="106"/>
+      <c r="A270" s="114"/>
+      <c r="B270" s="116"/>
       <c r="C270" s="11" t="s">
         <v>84</v>
       </c>
@@ -19581,10 +19595,10 @@
       </c>
     </row>
     <row r="271" spans="1:6" ht="60">
-      <c r="A271" s="117" t="s">
+      <c r="A271" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B271" s="105" t="s">
+      <c r="B271" s="115" t="s">
         <v>37</v>
       </c>
       <c r="C271" s="11" t="s">
@@ -19601,8 +19615,8 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="118"/>
-      <c r="B272" s="106"/>
+      <c r="A272" s="114"/>
+      <c r="B272" s="116"/>
       <c r="C272" s="11" t="s">
         <v>86</v>
       </c>
@@ -19617,10 +19631,10 @@
       </c>
     </row>
     <row r="273" spans="1:6" ht="60">
-      <c r="A273" s="117" t="s">
+      <c r="A273" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B273" s="105" t="s">
+      <c r="B273" s="115" t="s">
         <v>41</v>
       </c>
       <c r="C273" s="11" t="s">
@@ -19637,8 +19651,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="30">
-      <c r="A274" s="118"/>
-      <c r="B274" s="106"/>
+      <c r="A274" s="114"/>
+      <c r="B274" s="116"/>
       <c r="C274" s="11" t="s">
         <v>88</v>
       </c>
@@ -19653,10 +19667,10 @@
       </c>
     </row>
     <row r="275" spans="1:6" ht="60">
-      <c r="A275" s="117" t="s">
+      <c r="A275" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B275" s="105" t="s">
+      <c r="B275" s="115" t="s">
         <v>43</v>
       </c>
       <c r="C275" s="11" t="s">
@@ -19673,8 +19687,8 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="118"/>
-      <c r="B276" s="106"/>
+      <c r="A276" s="114"/>
+      <c r="B276" s="116"/>
       <c r="C276" s="11" t="s">
         <v>90</v>
       </c>
@@ -19689,10 +19703,10 @@
       </c>
     </row>
     <row r="277" spans="1:6" ht="60">
-      <c r="A277" s="117" t="s">
+      <c r="A277" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B277" s="105" t="s">
+      <c r="B277" s="115" t="s">
         <v>47</v>
       </c>
       <c r="C277" s="11" t="s">
@@ -19709,8 +19723,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="30">
-      <c r="A278" s="118"/>
-      <c r="B278" s="106"/>
+      <c r="A278" s="114"/>
+      <c r="B278" s="116"/>
       <c r="C278" s="11" t="s">
         <v>82</v>
       </c>
@@ -19725,10 +19739,10 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="60">
-      <c r="A279" s="117" t="s">
+      <c r="A279" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="B279" s="105" t="s">
+      <c r="B279" s="115" t="s">
         <v>49</v>
       </c>
       <c r="C279" s="11" t="s">
@@ -19745,8 +19759,8 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="30">
-      <c r="A280" s="118"/>
-      <c r="B280" s="106"/>
+      <c r="A280" s="114"/>
+      <c r="B280" s="116"/>
       <c r="C280" s="11" t="s">
         <v>91</v>
       </c>
@@ -19761,10 +19775,10 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="60">
-      <c r="A281" s="117" t="s">
+      <c r="A281" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B281" s="105" t="s">
+      <c r="B281" s="115" t="s">
         <v>53</v>
       </c>
       <c r="C281" s="11" t="s">
@@ -19781,8 +19795,8 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="30">
-      <c r="A282" s="118"/>
-      <c r="B282" s="106"/>
+      <c r="A282" s="114"/>
+      <c r="B282" s="116"/>
       <c r="C282" s="11" t="s">
         <v>92</v>
       </c>
@@ -19797,10 +19811,10 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="60">
-      <c r="A283" s="117" t="s">
+      <c r="A283" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="B283" s="105" t="s">
+      <c r="B283" s="115" t="s">
         <v>52</v>
       </c>
       <c r="C283" s="11" t="s">
@@ -19817,8 +19831,8 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="30">
-      <c r="A284" s="118"/>
-      <c r="B284" s="106"/>
+      <c r="A284" s="114"/>
+      <c r="B284" s="116"/>
       <c r="C284" s="11" t="s">
         <v>84</v>
       </c>
@@ -19833,10 +19847,10 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="60">
-      <c r="A285" s="117" t="s">
+      <c r="A285" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B285" s="105" t="s">
+      <c r="B285" s="115" t="s">
         <v>60</v>
       </c>
       <c r="C285" s="11" t="s">
@@ -19853,8 +19867,8 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="30">
-      <c r="A286" s="118"/>
-      <c r="B286" s="106"/>
+      <c r="A286" s="114"/>
+      <c r="B286" s="116"/>
       <c r="C286" s="11" t="s">
         <v>95</v>
       </c>
@@ -19869,10 +19883,10 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="60">
-      <c r="A287" s="117" t="s">
+      <c r="A287" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B287" s="105" t="s">
+      <c r="B287" s="115" t="s">
         <v>59</v>
       </c>
       <c r="C287" s="11" t="s">
@@ -19889,8 +19903,8 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="30">
-      <c r="A288" s="118"/>
-      <c r="B288" s="106"/>
+      <c r="A288" s="114"/>
+      <c r="B288" s="116"/>
       <c r="C288" s="11" t="s">
         <v>97</v>
       </c>
@@ -19905,10 +19919,10 @@
       </c>
     </row>
     <row r="289" spans="1:6" ht="60">
-      <c r="A289" s="117" t="s">
+      <c r="A289" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B289" s="105" t="s">
+      <c r="B289" s="115" t="s">
         <v>58</v>
       </c>
       <c r="C289" s="11" t="s">
@@ -19925,8 +19939,8 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="30">
-      <c r="A290" s="118"/>
-      <c r="B290" s="106"/>
+      <c r="A290" s="114"/>
+      <c r="B290" s="116"/>
       <c r="C290" s="11" t="s">
         <v>99</v>
       </c>
@@ -19941,10 +19955,10 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="60">
-      <c r="A291" s="117" t="s">
+      <c r="A291" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B291" s="105" t="s">
+      <c r="B291" s="115" t="s">
         <v>62</v>
       </c>
       <c r="C291" s="11" t="s">
@@ -19961,8 +19975,8 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="30">
-      <c r="A292" s="118"/>
-      <c r="B292" s="106"/>
+      <c r="A292" s="114"/>
+      <c r="B292" s="116"/>
       <c r="C292" s="11" t="s">
         <v>101</v>
       </c>
@@ -20013,6 +20027,37 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="47">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="A273:A274"/>
     <mergeCell ref="A291:A292"/>
     <mergeCell ref="B291:B292"/>
     <mergeCell ref="B2:B5"/>
@@ -20029,37 +20074,6 @@
     <mergeCell ref="A275:A276"/>
     <mergeCell ref="B275:B276"/>
     <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
   </mergeCells>
   <conditionalFormatting sqref="E261:E1048576 E1:E259">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">

--- a/COM_Configurator_test_plan.xlsx
+++ b/COM_Configurator_test_plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcsterpu\PycharmProjects\COM_Configurator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7D636-9466-4B05-A645-9C9D7220C735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,8 @@
   <customWorkbookViews>
     <customWorkbookView name="msnecula - Personal View" guid="{F55926EB-4591-4F40-B535-C38067E62E05}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="970" activeSheetId="2"/>
   </customWorkbookViews>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="673">
   <si>
     <t>Requirements</t>
   </si>
@@ -12969,12 +12975,90 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>LPHM.tests</t>
+  </si>
+  <si>
+    <t>Check the format of LPHM configuration file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check that the tool will produce the correct LIN cluster with the correct RX IPDU Groups </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check that the tool will produce the correct LIN cluster with the correct TX IPDU Groups </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check that the tool will produce the correct CAN cluster with the correct RX IPDU Groups </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check that the tool will produce the correct CAN cluster with the correct TX IPDU Groups </t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the tool produces the output file which will contain RX IPDU Groups for the LIN cluster</t>
+  </si>
+  <si>
+    <t>Check that the tool produces the output file which will contain TX IPDU Groups for the LIN cluster</t>
+  </si>
+  <si>
+    <t>Check that the tool produces the output file which will contain RX IPDU Groups for the CAN cluster</t>
+  </si>
+  <si>
+    <t>Check that the tool produces the output file which will contain TX IPDU Groups for the CAN cluster</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13505,7 +13589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -13811,43 +13895,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13856,16 +13904,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13880,7 +13940,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14196,28 +14301,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -14231,7 +14336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -14245,7 +14350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -14259,91 +14364,91 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -14363,28 +14468,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B197" sqref="B197"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="95" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="35.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.86328125" style="95" customWidth="1"/>
+    <col min="3" max="3" width="79.1328125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="46.265625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -14404,365 +14509,365 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="1:6" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="137" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="138"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>670</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="138"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="34" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" s="143" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="143" t="s">
+        <v>672</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="79"/>
+      <c r="B6" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C6" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="80" t="s">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="34" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="80"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="34" t="s">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="80"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="80"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="35" t="s">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="80"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D9" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="81" t="s">
+    <row r="10" spans="1:6" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B10" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C10" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="26" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="81" t="s">
+    <row r="11" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="26" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A8" s="81" t="s">
+    <row r="12" spans="1:6" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="26" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="126" t="s">
+    <row r="13" spans="1:6" s="32" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B13" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A10" s="127"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="34" t="s">
+      <c r="E13" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="22" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D14" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="128" t="s">
+      <c r="E14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C15" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="36" t="s">
+      <c r="E15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="22" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D16" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="40" t="s">
+      <c r="E16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="32" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D17" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="E17" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B18" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="26" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="45" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A15" s="63" t="s">
+    <row r="19" spans="1:6" s="45" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B19" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C19" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="20" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F19" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A16" s="82" t="s">
+    <row r="20" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="21" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A17" s="82" t="s">
+    <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="21" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A18" s="120" t="s">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B22" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A20" s="121"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A21" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>112</v>
@@ -14774,307 +14879,295 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A23" s="120" t="s">
+    <row r="23" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="123"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="15" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="131"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="131"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="15" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B27" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C27" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D27" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A24" s="121"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="62" t="s">
+      <c r="E27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="51" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="131"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D28" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A25" s="78" t="s">
+      <c r="E28" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B29" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C29" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="26" t="s">
+      <c r="D29" s="74"/>
+      <c r="E29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F29" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A26" s="78" t="s">
+    <row r="30" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B30" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C30" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="26" t="s">
+      <c r="D30" s="74"/>
+      <c r="E30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F30" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A27" s="131" t="s">
+    <row r="31" spans="1:6" s="32" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B31" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D31" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="55" t="s">
+      <c r="E31" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="123"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D32" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="60" t="s">
+      <c r="E32" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="123"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D33" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="60" t="s">
+      <c r="E33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="123"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D34" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A31" s="132"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="59" t="s">
+      <c r="E34" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="124"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="59" t="s">
         <v>658</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D35" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A32" s="131" t="s">
+      <c r="E35" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B36" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C36" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D36" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="60" t="s">
+      <c r="E36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="22" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="124"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D37" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A34" s="83" t="s">
+      <c r="E37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B38" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C38" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D38" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A35" s="83" t="s">
+      <c r="E38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B39" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C39" s="64" t="s">
         <v>165</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="22" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A36" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A37" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="22" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A38" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A39" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="D39" s="74" t="s">
         <v>164</v>
@@ -15086,75 +15179,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="22" customFormat="1" ht="81.75" customHeight="1">
+    <row r="40" spans="1:6" s="22" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="78" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>165</v>
       </c>
       <c r="D40" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="22" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A41" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="26" t="s">
+      <c r="E42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C43" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="99" customHeight="1">
-      <c r="A42" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A43" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>185</v>
       </c>
       <c r="D43" s="74" t="s">
         <v>164</v>
@@ -15166,15 +15259,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+    <row r="44" spans="1:6" s="22" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="78" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="D44" s="74" t="s">
         <v>172</v>
@@ -15186,15 +15279,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="22" customFormat="1" ht="61.5" customHeight="1">
+    <row r="45" spans="1:6" s="22" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="78" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D45" s="74" t="s">
         <v>164</v>
@@ -15206,35 +15299,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
-      <c r="A46" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="78" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D47" s="74" t="s">
         <v>164</v>
@@ -15246,55 +15339,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1">
+    <row r="48" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="78" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C48" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="22" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="64" t="s">
         <v>198</v>
-      </c>
-      <c r="D48" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="32" customFormat="1" ht="93" customHeight="1">
-      <c r="A49" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A50" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>207</v>
       </c>
       <c r="D50" s="74" t="s">
         <v>211</v>
@@ -15306,15 +15399,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+    <row r="51" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="78" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D51" s="74" t="s">
         <v>164</v>
@@ -15326,15 +15419,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
+    <row r="52" spans="1:6" s="22" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="78" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D52" s="74" t="s">
         <v>211</v>
@@ -15346,239 +15439,239 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A53" s="78" t="s">
+    <row r="53" spans="1:6" s="32" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C57" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D57" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A54" s="78" t="s">
+      <c r="E57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B58" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C58" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D58" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A55" s="78" t="s">
+      <c r="E58" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="87" t="s">
+      <c r="C59" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="26" t="s">
+      <c r="D59" s="74"/>
+      <c r="E59" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F59" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A56" s="78" t="s">
+    <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B60" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C60" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="26" t="s">
+      <c r="D60" s="74"/>
+      <c r="E60" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F60" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A57" s="131" t="s">
+    <row r="61" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B61" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C61" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="D57" s="74" t="s">
+      <c r="D61" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A58" s="122"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="85" t="s">
+      <c r="E61" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="123"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D62" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A59" s="122"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="85" t="s">
+      <c r="E62" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="123"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D63" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1">
-      <c r="A60" s="132"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="85" t="s">
+      <c r="E63" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="124"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D64" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E60" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A61" s="78" t="s">
+      <c r="E64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B65" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C65" s="85" t="s">
         <v>207</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A62" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A63" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A64" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A65" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>185</v>
       </c>
       <c r="D65" s="74" t="s">
         <v>218</v>
@@ -15590,15 +15683,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="66" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="78" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D66" s="74" t="s">
         <v>218</v>
@@ -15610,15 +15703,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="67" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="78" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D67" s="74" t="s">
         <v>218</v>
@@ -15630,15 +15723,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="68" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="78" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D68" s="74" t="s">
         <v>218</v>
@@ -15650,15 +15743,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="69" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="78" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D69" s="74" t="s">
         <v>218</v>
@@ -15670,15 +15763,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="70" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="78" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D70" s="74" t="s">
         <v>218</v>
@@ -15690,15 +15783,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="71" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="78" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D71" s="74" t="s">
         <v>218</v>
@@ -15710,15 +15803,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="72" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="78" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D72" s="74" t="s">
         <v>218</v>
@@ -15730,15 +15823,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="73" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="78" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D73" s="74" t="s">
         <v>218</v>
@@ -15750,15 +15843,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="74" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="78" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D74" s="74" t="s">
         <v>218</v>
@@ -15770,15 +15863,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="75" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="78" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D75" s="74" t="s">
         <v>218</v>
@@ -15790,15 +15883,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="76" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="78" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D76" s="74" t="s">
         <v>218</v>
@@ -15810,15 +15903,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="77" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="78" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C77" s="85" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D77" s="74" t="s">
         <v>218</v>
@@ -15830,15 +15923,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="78" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="78" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D78" s="74" t="s">
         <v>218</v>
@@ -15850,15 +15943,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="79" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D79" s="74" t="s">
         <v>218</v>
@@ -15870,15 +15963,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="80" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="78" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="C80" s="85" t="s">
+        <v>246</v>
       </c>
       <c r="D80" s="74" t="s">
         <v>218</v>
@@ -15890,15 +15983,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="81" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="78" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D81" s="74" t="s">
         <v>218</v>
@@ -15910,15 +16003,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="82" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="78" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C82" s="85" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="D82" s="74" t="s">
         <v>218</v>
@@ -15930,134 +16023,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+    <row r="83" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B87" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C87" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="26" t="s">
+      <c r="D87" s="74"/>
+      <c r="E87" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F87" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A84" s="78" t="s">
+    <row r="88" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B88" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C88" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="74"/>
-      <c r="E84" s="26" t="s">
+      <c r="D88" s="74"/>
+      <c r="E88" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F88" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A85" s="78" t="s">
+    <row r="89" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B89" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="C85" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="D85" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A86" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1">
-      <c r="A87" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="D87" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A88" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="C88" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A89" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="C89" s="86" t="s">
         <v>276</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>4</v>
@@ -16066,15 +16159,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1">
+    <row r="90" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="78" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C90" s="86" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D90" s="74" t="s">
         <v>303</v>
@@ -16086,171 +16179,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
+    <row r="91" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="22" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B95" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C95" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="D91" s="74" t="s">
+      <c r="D95" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1">
-      <c r="A92" s="78" t="s">
+      <c r="E95" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="22" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B96" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C96" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="D96" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="E92" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A93" s="78" t="s">
+      <c r="E96" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B97" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="89" t="s">
+      <c r="C97" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="74"/>
-      <c r="E93" s="26" t="s">
+      <c r="D97" s="74"/>
+      <c r="E97" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F97" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A94" s="78" t="s">
+    <row r="98" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B98" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="87" t="s">
+      <c r="C98" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="74"/>
-      <c r="E94" s="26" t="s">
+      <c r="D98" s="74"/>
+      <c r="E98" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F98" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A95" s="78" t="s">
+    <row r="99" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B99" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C99" s="60" t="s">
         <v>301</v>
-      </c>
-      <c r="D95" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A96" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A97" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C97" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A98" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
-      <c r="A99" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="88" t="s">
-        <v>307</v>
       </c>
       <c r="D99" s="74" t="s">
         <v>304</v>
@@ -16262,15 +16355,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="100" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="78" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C100" s="88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D100" s="74" t="s">
         <v>304</v>
@@ -16282,15 +16375,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="101" spans="1:6" s="22" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="78" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C101" s="88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D101" s="74" t="s">
         <v>304</v>
@@ -16302,15 +16395,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="102" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="78" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C102" s="88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D102" s="74" t="s">
         <v>304</v>
@@ -16322,15 +16415,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="103" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="78" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C103" s="88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D103" s="74" t="s">
         <v>304</v>
@@ -16342,12 +16435,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="104" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="78" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C104" s="88" t="s">
         <v>316</v>
@@ -16362,12 +16455,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="105" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="78" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C105" s="88" t="s">
         <v>316</v>
@@ -16382,12 +16475,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="106" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="78" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C106" s="88" t="s">
         <v>316</v>
@@ -16402,12 +16495,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="107" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="78" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C107" s="88" t="s">
         <v>316</v>
@@ -16422,12 +16515,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="108" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="78" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C108" s="88" t="s">
         <v>316</v>
@@ -16442,12 +16535,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="109" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="78" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C109" s="88" t="s">
         <v>316</v>
@@ -16462,12 +16555,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="110" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="78" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C110" s="88" t="s">
         <v>316</v>
@@ -16482,12 +16575,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="111" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="78" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>659</v>
+        <v>331</v>
       </c>
       <c r="C111" s="88" t="s">
         <v>316</v>
@@ -16502,12 +16595,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="112" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="78" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C112" s="88" t="s">
         <v>316</v>
@@ -16522,15 +16615,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="113" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="78" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C113" s="89" t="s">
-        <v>307</v>
+        <v>334</v>
+      </c>
+      <c r="C113" s="88" t="s">
+        <v>316</v>
       </c>
       <c r="D113" s="74" t="s">
         <v>304</v>
@@ -16542,131 +16635,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+    <row r="114" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="C115" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D116" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D117" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B118" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="92" t="s">
+      <c r="C118" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="74"/>
-      <c r="E114" s="26" t="s">
+      <c r="D118" s="74"/>
+      <c r="E118" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F118" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A115" s="78" t="s">
+    <row r="119" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="78" t="s">
         <v>343</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B119" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="89" t="s">
+      <c r="C119" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="74"/>
-      <c r="E115" s="26" t="s">
+      <c r="D119" s="74"/>
+      <c r="E119" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F119" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A116" s="78" t="s">
+    <row r="120" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B120" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C116" s="136" t="s">
+      <c r="C120" s="113" t="s">
         <v>388</v>
-      </c>
-      <c r="D116" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A117" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D117" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A118" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C118" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D118" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A119" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C119" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D119" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
-      <c r="A120" s="78" t="s">
-        <v>354</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C120" s="89" t="s">
-        <v>349</v>
       </c>
       <c r="D120" s="74" t="s">
         <v>345</v>
@@ -16678,12 +16771,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="121" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="78" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C121" s="89" t="s">
         <v>349</v>
@@ -16698,12 +16791,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="122" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="78" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C122" s="89" t="s">
         <v>349</v>
@@ -16718,12 +16811,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="123" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="78" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>361</v>
+        <v>660</v>
       </c>
       <c r="C123" s="89" t="s">
         <v>349</v>
@@ -16738,12 +16831,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="124" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="78" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C124" s="89" t="s">
         <v>349</v>
@@ -16758,15 +16851,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="125" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="78" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C125" s="136" t="s">
-        <v>348</v>
+        <v>357</v>
+      </c>
+      <c r="C125" s="89" t="s">
+        <v>349</v>
       </c>
       <c r="D125" s="74" t="s">
         <v>345</v>
@@ -16778,12 +16871,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="126" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="78" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C126" s="89" t="s">
         <v>349</v>
@@ -16798,12 +16891,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1">
+    <row r="127" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="78" t="s">
-        <v>365</v>
-      </c>
-      <c r="B127" s="90" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>361</v>
       </c>
       <c r="C127" s="89" t="s">
         <v>349</v>
@@ -16818,15 +16911,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="128" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="78" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C128" s="89" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="D128" s="74" t="s">
         <v>345</v>
@@ -16838,15 +16931,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="129" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="78" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="C129" s="89" t="s">
-        <v>349</v>
+        <v>367</v>
+      </c>
+      <c r="C129" s="113" t="s">
+        <v>348</v>
       </c>
       <c r="D129" s="74" t="s">
         <v>345</v>
@@ -16858,12 +16951,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="130" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="78" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>349</v>
@@ -16878,12 +16971,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="131" spans="1:6" s="22" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>378</v>
+        <v>365</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>369</v>
       </c>
       <c r="C131" s="89" t="s">
         <v>349</v>
@@ -16898,12 +16991,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
+    <row r="132" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="78" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C132" s="89" t="s">
         <v>371</v>
@@ -16918,15 +17011,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="133" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="78" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="C133" s="60" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+      <c r="C133" s="89" t="s">
+        <v>349</v>
       </c>
       <c r="D133" s="74" t="s">
         <v>345</v>
@@ -16938,128 +17031,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+    <row r="134" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D135" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136" s="89" t="s">
+        <v>371</v>
+      </c>
+      <c r="D136" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C137" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="D137" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B138" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="92" t="s">
+      <c r="C138" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D134" s="74"/>
-      <c r="E134" s="26" t="s">
+      <c r="D138" s="74"/>
+      <c r="E138" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F138" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A135" s="78" t="s">
+    <row r="139" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B139" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="92" t="s">
+      <c r="C139" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D135" s="74"/>
-      <c r="E135" s="26" t="s">
+      <c r="D139" s="74"/>
+      <c r="E139" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F135" s="29" t="s">
+      <c r="F139" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A136" s="78" t="s">
+    <row r="140" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="78" t="s">
         <v>386</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B140" s="26" t="s">
         <v>390</v>
-      </c>
-      <c r="C136" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D136" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="22" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A137" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="C137" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D137" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1">
-      <c r="A138" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="C138" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D138" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A139" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="C139" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D139" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A140" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>397</v>
       </c>
       <c r="C140" s="92" t="s">
         <v>388</v>
@@ -17074,12 +17167,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="22" customFormat="1" ht="99.75" customHeight="1">
+    <row r="141" spans="1:6" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="78" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C141" s="92" t="s">
         <v>388</v>
@@ -17094,15 +17187,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="142" spans="1:6" s="22" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="78" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="C142" s="136" t="s">
-        <v>307</v>
+        <v>392</v>
+      </c>
+      <c r="C142" s="92" t="s">
+        <v>388</v>
       </c>
       <c r="D142" s="74" t="s">
         <v>396</v>
@@ -17114,15 +17207,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="22" customFormat="1" ht="116.25" customHeight="1">
+    <row r="143" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="78" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="C143" s="136" t="s">
-        <v>307</v>
+        <v>394</v>
+      </c>
+      <c r="C143" s="92" t="s">
+        <v>388</v>
       </c>
       <c r="D143" s="74" t="s">
         <v>396</v>
@@ -17134,15 +17227,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="22" customFormat="1" ht="150" customHeight="1">
+    <row r="144" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="78" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C144" s="136" t="s">
-        <v>661</v>
+        <v>397</v>
+      </c>
+      <c r="C144" s="92" t="s">
+        <v>388</v>
       </c>
       <c r="D144" s="74" t="s">
         <v>396</v>
@@ -17154,15 +17247,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="145" spans="1:6" s="22" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="78" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C145" s="136" t="s">
-        <v>406</v>
+        <v>399</v>
+      </c>
+      <c r="C145" s="92" t="s">
+        <v>388</v>
       </c>
       <c r="D145" s="74" t="s">
         <v>396</v>
@@ -17174,15 +17267,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1">
+    <row r="146" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="78" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="C146" s="92" t="s">
-        <v>406</v>
+        <v>662</v>
+      </c>
+      <c r="C146" s="113" t="s">
+        <v>307</v>
       </c>
       <c r="D146" s="74" t="s">
         <v>396</v>
@@ -17194,15 +17287,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
+    <row r="147" spans="1:6" s="22" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="78" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C147" s="92" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="C147" s="113" t="s">
+        <v>307</v>
       </c>
       <c r="D147" s="74" t="s">
         <v>396</v>
@@ -17214,15 +17307,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="148" spans="1:6" s="22" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="78" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="92" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="C148" s="113" t="s">
+        <v>661</v>
       </c>
       <c r="D148" s="74" t="s">
         <v>396</v>
@@ -17234,15 +17327,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
+    <row r="149" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="78" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="C149" s="92" t="s">
-        <v>413</v>
+        <v>407</v>
+      </c>
+      <c r="C149" s="113" t="s">
+        <v>406</v>
       </c>
       <c r="D149" s="74" t="s">
         <v>396</v>
@@ -17254,15 +17347,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
+    <row r="150" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="78" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C150" s="92" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D150" s="74" t="s">
         <v>396</v>
@@ -17274,15 +17367,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="151" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="78" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C151" s="92" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D151" s="74" t="s">
         <v>396</v>
@@ -17294,15 +17387,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="22" customFormat="1" ht="96" customHeight="1">
+    <row r="152" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="78" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C152" s="92" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D152" s="74" t="s">
         <v>396</v>
@@ -17314,12 +17407,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
+    <row r="153" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="78" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C153" s="92" t="s">
         <v>413</v>
@@ -17334,120 +17427,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
+    <row r="154" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C154" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="D154" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="22" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C155" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="D155" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="22" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C156" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C157" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="D157" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="78" t="s">
         <v>428</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B158" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C154" s="92" t="s">
+      <c r="C158" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D154" s="74"/>
-      <c r="E154" s="26" t="s">
+      <c r="D158" s="74"/>
+      <c r="E158" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="F158" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A155" s="78" t="s">
+    <row r="159" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="78" t="s">
         <v>427</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B159" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="92" t="s">
+      <c r="C159" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="26" t="s">
+      <c r="D159" s="74"/>
+      <c r="E159" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F155" s="29" t="s">
+      <c r="F159" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A156" s="78" t="s">
+    <row r="160" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B160" s="26" t="s">
         <v>430</v>
-      </c>
-      <c r="C156" s="93" t="s">
-        <v>433</v>
-      </c>
-      <c r="D156" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A157" s="131" t="s">
-        <v>434</v>
-      </c>
-      <c r="B157" s="133" t="s">
-        <v>435</v>
-      </c>
-      <c r="C157" s="136" t="s">
-        <v>437</v>
-      </c>
-      <c r="D157" s="74" t="s">
-        <v>436</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A158" s="122"/>
-      <c r="B158" s="134"/>
-      <c r="C158" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="D158" s="74" t="s">
-        <v>436</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A159" s="132"/>
-      <c r="B159" s="135"/>
-      <c r="C159" s="93" t="s">
-        <v>440</v>
-      </c>
-      <c r="D159" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="22" customFormat="1" ht="159" customHeight="1">
-      <c r="A160" s="91" t="s">
-        <v>441</v>
-      </c>
-      <c r="B160" s="103" t="s">
-        <v>442</v>
       </c>
       <c r="C160" s="93" t="s">
         <v>433</v>
@@ -17462,18 +17563,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="22" customFormat="1" ht="228.75" customHeight="1">
-      <c r="A161" s="91" t="s">
-        <v>443</v>
-      </c>
-      <c r="B161" s="101" t="s">
-        <v>444</v>
-      </c>
-      <c r="C161" s="93" t="s">
-        <v>433</v>
+    <row r="161" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="122" t="s">
+        <v>434</v>
+      </c>
+      <c r="B161" s="125" t="s">
+        <v>435</v>
+      </c>
+      <c r="C161" s="113" t="s">
+        <v>437</v>
       </c>
       <c r="D161" s="74" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>4</v>
@@ -17482,18 +17583,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="22" customFormat="1" ht="180.75" customHeight="1">
-      <c r="A162" s="91" t="s">
-        <v>445</v>
-      </c>
-      <c r="B162" s="101" t="s">
-        <v>446</v>
-      </c>
+    <row r="162" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="123"/>
+      <c r="B162" s="126"/>
       <c r="C162" s="93" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D162" s="74" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>4</v>
@@ -17502,18 +17599,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="22" customFormat="1" ht="228" customHeight="1">
-      <c r="A163" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="B163" s="101" t="s">
-        <v>448</v>
-      </c>
+    <row r="163" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="124"/>
+      <c r="B163" s="127"/>
       <c r="C163" s="93" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D163" s="74" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>4</v>
@@ -17522,12 +17615,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="22" customFormat="1" ht="240.75" customHeight="1">
+    <row r="164" spans="1:6" s="22" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="91" t="s">
-        <v>449</v>
-      </c>
-      <c r="B164" s="101" t="s">
-        <v>454</v>
+        <v>441</v>
+      </c>
+      <c r="B164" s="103" t="s">
+        <v>442</v>
       </c>
       <c r="C164" s="93" t="s">
         <v>433</v>
@@ -17542,12 +17635,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
+    <row r="165" spans="1:6" s="22" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="91" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B165" s="101" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C165" s="93" t="s">
         <v>433</v>
@@ -17562,12 +17655,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="22" customFormat="1" ht="206.25" customHeight="1">
+    <row r="166" spans="1:6" s="22" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="91" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B166" s="101" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C166" s="93" t="s">
         <v>433</v>
@@ -17582,12 +17675,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+    <row r="167" spans="1:6" s="22" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="91" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B167" s="101" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C167" s="93" t="s">
         <v>433</v>
@@ -17602,15 +17695,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+    <row r="168" spans="1:6" s="22" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="91" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B168" s="101" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C168" s="93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D168" s="74" t="s">
         <v>431</v>
@@ -17622,15 +17715,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="22" customFormat="1" ht="182.25" customHeight="1">
+    <row r="169" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="91" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B169" s="101" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C169" s="93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D169" s="74" t="s">
         <v>431</v>
@@ -17642,15 +17735,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
+    <row r="170" spans="1:6" s="22" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="91" t="s">
-        <v>461</v>
-      </c>
-      <c r="B170" s="103" t="s">
-        <v>462</v>
+        <v>451</v>
+      </c>
+      <c r="B170" s="101" t="s">
+        <v>452</v>
       </c>
       <c r="C170" s="93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D170" s="74" t="s">
         <v>431</v>
@@ -17662,15 +17755,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="22" customFormat="1" ht="140.25" customHeight="1">
+    <row r="171" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="91" t="s">
-        <v>463</v>
-      </c>
-      <c r="B171" s="103" t="s">
-        <v>464</v>
+        <v>455</v>
+      </c>
+      <c r="B171" s="101" t="s">
+        <v>456</v>
       </c>
       <c r="C171" s="93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D171" s="74" t="s">
         <v>431</v>
@@ -17682,12 +17775,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1">
+    <row r="172" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="91" t="s">
-        <v>465</v>
-      </c>
-      <c r="B172" s="103" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="B172" s="101" t="s">
+        <v>458</v>
       </c>
       <c r="C172" s="93" t="s">
         <v>432</v>
@@ -17702,12 +17795,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
+    <row r="173" spans="1:6" s="22" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="91" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B173" s="101" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C173" s="93" t="s">
         <v>432</v>
@@ -17722,12 +17815,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="22" customFormat="1" ht="181.5" customHeight="1">
+    <row r="174" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="B174" s="101" t="s">
-        <v>470</v>
+        <v>461</v>
+      </c>
+      <c r="B174" s="103" t="s">
+        <v>462</v>
       </c>
       <c r="C174" s="93" t="s">
         <v>432</v>
@@ -17742,12 +17835,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="22" customFormat="1" ht="187.5" customHeight="1">
+    <row r="175" spans="1:6" s="22" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="91" t="s">
-        <v>471</v>
-      </c>
-      <c r="B175" s="101" t="s">
-        <v>472</v>
+        <v>463</v>
+      </c>
+      <c r="B175" s="103" t="s">
+        <v>464</v>
       </c>
       <c r="C175" s="93" t="s">
         <v>432</v>
@@ -17762,12 +17855,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="22" customFormat="1" ht="217.5" customHeight="1">
+    <row r="176" spans="1:6" s="22" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="91" t="s">
-        <v>473</v>
-      </c>
-      <c r="B176" s="101" t="s">
-        <v>474</v>
+        <v>465</v>
+      </c>
+      <c r="B176" s="103" t="s">
+        <v>466</v>
       </c>
       <c r="C176" s="93" t="s">
         <v>432</v>
@@ -17782,12 +17875,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1">
+    <row r="177" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="91" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B177" s="101" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C177" s="93" t="s">
         <v>432</v>
@@ -17802,12 +17895,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="22" customFormat="1" ht="216.75" customHeight="1">
+    <row r="178" spans="1:6" s="22" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="91" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B178" s="101" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C178" s="93" t="s">
         <v>432</v>
@@ -17822,12 +17915,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1">
+    <row r="179" spans="1:6" s="22" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="91" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B179" s="101" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C179" s="93" t="s">
         <v>432</v>
@@ -17842,12 +17935,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1">
+    <row r="180" spans="1:6" s="22" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="91" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B180" s="101" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C180" s="93" t="s">
         <v>432</v>
@@ -17862,12 +17955,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="22" customFormat="1" ht="204.75" customHeight="1">
+    <row r="181" spans="1:6" s="22" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B181" s="101" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C181" s="93" t="s">
         <v>432</v>
@@ -17882,12 +17975,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="22" customFormat="1" ht="216" customHeight="1">
+    <row r="182" spans="1:6" s="22" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="91" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B182" s="101" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C182" s="93" t="s">
         <v>432</v>
@@ -17902,12 +17995,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="22" customFormat="1" ht="214.5" customHeight="1">
+    <row r="183" spans="1:6" s="22" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="91" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B183" s="101" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C183" s="93" t="s">
         <v>432</v>
@@ -17922,12 +18015,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="22" customFormat="1" ht="213" customHeight="1">
+    <row r="184" spans="1:6" s="22" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="91" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B184" s="101" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C184" s="93" t="s">
         <v>432</v>
@@ -17942,12 +18035,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="22" customFormat="1" ht="156" customHeight="1">
-      <c r="A185" s="94" t="s">
-        <v>491</v>
-      </c>
-      <c r="B185" s="103" t="s">
-        <v>492</v>
+    <row r="185" spans="1:6" s="22" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B185" s="101" t="s">
+        <v>484</v>
       </c>
       <c r="C185" s="93" t="s">
         <v>432</v>
@@ -17962,131 +18055,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A186" s="94" t="s">
+    <row r="186" spans="1:6" s="22" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="91" t="s">
+        <v>485</v>
+      </c>
+      <c r="B186" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C186" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="D186" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="22" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="91" t="s">
+        <v>486</v>
+      </c>
+      <c r="B187" s="101" t="s">
+        <v>487</v>
+      </c>
+      <c r="C187" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="D187" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="22" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="91" t="s">
+        <v>488</v>
+      </c>
+      <c r="B188" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C188" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="D188" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="22" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="94" t="s">
+        <v>491</v>
+      </c>
+      <c r="B189" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="C189" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="94" t="s">
         <v>493</v>
       </c>
-      <c r="B186" s="101" t="s">
+      <c r="B190" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C186" s="102" t="s">
+      <c r="C190" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D186" s="74"/>
-      <c r="E186" s="26" t="s">
+      <c r="D190" s="74"/>
+      <c r="E190" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F186" s="29" t="s">
+      <c r="F190" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A187" s="78" t="s">
+    <row r="191" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B191" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C187" s="102" t="s">
+      <c r="C191" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D187" s="74"/>
-      <c r="E187" s="26" t="s">
+      <c r="D191" s="74"/>
+      <c r="E191" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F187" s="29" t="s">
+      <c r="F191" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A188" s="78" t="s">
+    <row r="192" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="78" t="s">
         <v>495</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B192" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="C188" s="102" t="s">
+      <c r="C192" s="102" t="s">
         <v>497</v>
-      </c>
-      <c r="D188" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F188" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A189" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="C189" s="102" t="s">
-        <v>499</v>
-      </c>
-      <c r="D189" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="E189" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A190" s="78" t="s">
-        <v>501</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C190" s="102" t="s">
-        <v>499</v>
-      </c>
-      <c r="D190" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="E190" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F190" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" s="22" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A191" s="78" t="s">
-        <v>503</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="C191" s="102" t="s">
-        <v>499</v>
-      </c>
-      <c r="D191" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="E191" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F191" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="22" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A192" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C192" s="102" t="s">
-        <v>499</v>
       </c>
       <c r="D192" s="74" t="s">
         <v>644</v>
@@ -18098,15 +18191,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="193" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="78" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C193" s="102" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D193" s="74" t="s">
         <v>644</v>
@@ -18118,15 +18211,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1">
+    <row r="194" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="78" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C194" s="102" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D194" s="74" t="s">
         <v>644</v>
@@ -18138,15 +18231,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="195" spans="1:6" s="22" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="78" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C195" s="102" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D195" s="74" t="s">
         <v>644</v>
@@ -18158,15 +18251,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="22" customFormat="1" ht="108" customHeight="1">
+    <row r="196" spans="1:6" s="22" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="78" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C196" s="102" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D196" s="74" t="s">
         <v>644</v>
@@ -18178,15 +18271,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="197" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="78" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C197" s="102" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="D197" s="74" t="s">
         <v>644</v>
@@ -18198,15 +18291,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1">
+    <row r="198" spans="1:6" s="22" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="78" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C198" s="102" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D198" s="74" t="s">
         <v>644</v>
@@ -18218,15 +18311,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="199" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="78" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C199" s="102" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D199" s="74" t="s">
         <v>644</v>
@@ -18238,15 +18331,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1">
+    <row r="200" spans="1:6" s="22" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="78" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C200" s="102" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D200" s="74" t="s">
         <v>644</v>
@@ -18258,15 +18351,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="22" customFormat="1" ht="97.5" customHeight="1">
+    <row r="201" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="78" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C201" s="102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D201" s="74" t="s">
         <v>644</v>
@@ -18278,15 +18371,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="22" customFormat="1" ht="174.75" customHeight="1">
+    <row r="202" spans="1:6" s="22" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="78" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C202" s="102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D202" s="74" t="s">
         <v>644</v>
@@ -18298,15 +18391,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
+    <row r="203" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="78" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C203" s="102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D203" s="74" t="s">
         <v>644</v>
@@ -18318,12 +18411,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="22" customFormat="1" ht="169.5" customHeight="1">
+    <row r="204" spans="1:6" s="22" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="78" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C204" s="102" t="s">
         <v>527</v>
@@ -18338,12 +18431,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="205" spans="1:6" s="22" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="78" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C205" s="102" t="s">
         <v>527</v>
@@ -18358,12 +18451,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="22" customFormat="1" ht="258" customHeight="1">
+    <row r="206" spans="1:6" s="22" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="78" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C206" s="102" t="s">
         <v>527</v>
@@ -18378,15 +18471,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="207" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="78" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C207" s="102" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D207" s="74" t="s">
         <v>644</v>
@@ -18398,15 +18491,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1">
+    <row r="208" spans="1:6" s="22" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="78" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C208" s="102" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D208" s="74" t="s">
         <v>644</v>
@@ -18418,15 +18511,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="209" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="78" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C209" s="102" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="D209" s="74" t="s">
         <v>644</v>
@@ -18438,15 +18531,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="22" customFormat="1" ht="113.25" customHeight="1">
+    <row r="210" spans="1:6" s="22" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="78" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C210" s="102" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D210" s="74" t="s">
         <v>644</v>
@@ -18458,12 +18551,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1">
+    <row r="211" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="78" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C211" s="102" t="s">
         <v>541</v>
@@ -18478,12 +18571,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="22" customFormat="1" ht="173.25" customHeight="1">
+    <row r="212" spans="1:6" s="22" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="78" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C212" s="102" t="s">
         <v>541</v>
@@ -18498,15 +18591,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="22" customFormat="1" ht="98.25" customHeight="1">
+    <row r="213" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="78" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C213" s="102" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D213" s="74" t="s">
         <v>644</v>
@@ -18518,12 +18611,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="22" customFormat="1" ht="166.5" customHeight="1">
+    <row r="214" spans="1:6" s="22" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="78" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C214" s="102" t="s">
         <v>541</v>
@@ -18538,12 +18631,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="215" spans="1:6" s="22" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="78" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C215" s="102" t="s">
         <v>541</v>
@@ -18558,12 +18651,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="22" customFormat="1" ht="259.5" customHeight="1">
+    <row r="216" spans="1:6" s="22" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="78" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C216" s="102" t="s">
         <v>541</v>
@@ -18578,15 +18671,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="217" spans="1:6" s="22" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="78" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C217" s="102" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="D217" s="74" t="s">
         <v>644</v>
@@ -18598,15 +18691,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="218" spans="1:6" s="22" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="78" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C218" s="102" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D218" s="74" t="s">
         <v>644</v>
@@ -18618,15 +18711,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="219" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="78" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C219" s="60" t="s">
-        <v>569</v>
+        <v>558</v>
+      </c>
+      <c r="C219" s="102" t="s">
+        <v>541</v>
       </c>
       <c r="D219" s="74" t="s">
         <v>644</v>
@@ -18638,95 +18731,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
+    <row r="220" spans="1:6" s="22" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="78" t="s">
+        <v>560</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C220" s="102" t="s">
+        <v>541</v>
+      </c>
+      <c r="D220" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E220" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="78" t="s">
+        <v>562</v>
+      </c>
+      <c r="B221" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C221" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="D221" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E221" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A222" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="B222" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C222" s="102" t="s">
+        <v>566</v>
+      </c>
+      <c r="D222" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="78" t="s">
+        <v>568</v>
+      </c>
+      <c r="B223" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="D223" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="78" t="s">
         <v>570</v>
       </c>
-      <c r="B220" s="26" t="s">
+      <c r="B224" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="C220" s="60" t="s">
+      <c r="C224" s="60" t="s">
         <v>572</v>
-      </c>
-      <c r="D220" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="E220" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F220" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A221" s="78" t="s">
-        <v>573</v>
-      </c>
-      <c r="B221" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="C221" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="D221" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="E221" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F221" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A222" s="78" t="s">
-        <v>577</v>
-      </c>
-      <c r="B222" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="C222" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="D222" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F222" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A223" s="78" t="s">
-        <v>578</v>
-      </c>
-      <c r="B223" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C223" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="D223" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A224" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="B224" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="C224" s="104" t="s">
-        <v>581</v>
       </c>
       <c r="D224" s="74" t="s">
         <v>645</v>
@@ -18738,15 +18831,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1">
+    <row r="225" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="78" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C225" s="104" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D225" s="74" t="s">
         <v>645</v>
@@ -18758,15 +18851,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="226" spans="1:6" s="22" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="78" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C226" s="104" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D226" s="74" t="s">
         <v>645</v>
@@ -18778,15 +18871,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="22" customFormat="1" ht="78.75" customHeight="1">
+    <row r="227" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="78" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C227" s="104" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D227" s="74" t="s">
         <v>645</v>
@@ -18798,15 +18891,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="22" customFormat="1" ht="186" customHeight="1">
+    <row r="228" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="78" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C228" s="104" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D228" s="74" t="s">
         <v>645</v>
@@ -18818,95 +18911,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="229" spans="1:6" s="22" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="78" t="s">
+        <v>583</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="C229" s="104" t="s">
+        <v>581</v>
+      </c>
+      <c r="D229" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="E229" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A230" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="B230" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="C230" s="104" t="s">
+        <v>588</v>
+      </c>
+      <c r="D230" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="E230" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="22" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="78" t="s">
+        <v>587</v>
+      </c>
+      <c r="B231" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C231" s="104" t="s">
+        <v>581</v>
+      </c>
+      <c r="D231" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="E231" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="22" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="78" t="s">
+        <v>592</v>
+      </c>
+      <c r="B232" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C232" s="104" t="s">
+        <v>591</v>
+      </c>
+      <c r="D232" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="E232" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="78" t="s">
         <v>593</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B233" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="C229" s="104" t="s">
+      <c r="C233" s="104" t="s">
         <v>596</v>
-      </c>
-      <c r="D229" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="E229" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F229" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A230" s="78" t="s">
-        <v>594</v>
-      </c>
-      <c r="B230" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="C230" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="D230" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="E230" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F230" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A231" s="78" t="s">
-        <v>597</v>
-      </c>
-      <c r="B231" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="C231" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="D231" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="E231" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F231" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A232" s="78" t="s">
-        <v>601</v>
-      </c>
-      <c r="B232" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="C232" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="D232" s="74" t="s">
-        <v>646</v>
-      </c>
-      <c r="E232" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F232" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A233" s="78" t="s">
-        <v>603</v>
-      </c>
-      <c r="B233" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="C233" s="104" t="s">
-        <v>595</v>
       </c>
       <c r="D233" s="74" t="s">
         <v>646</v>
@@ -18918,12 +19011,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="22" customFormat="1" ht="90.75" customHeight="1">
+    <row r="234" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="78" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C234" s="104" t="s">
         <v>595</v>
@@ -18938,12 +19031,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="235" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="78" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C235" s="104" t="s">
         <v>595</v>
@@ -18958,15 +19051,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="236" spans="1:6" s="22" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="78" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="C236" s="60" t="s">
-        <v>631</v>
+        <v>600</v>
+      </c>
+      <c r="C236" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="D236" s="74" t="s">
         <v>646</v>
@@ -18978,115 +19071,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="32" customFormat="1" ht="182.25" customHeight="1">
-      <c r="A237" s="97" t="s">
+    <row r="237" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="B237" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="C237" s="104" t="s">
+        <v>595</v>
+      </c>
+      <c r="D237" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="E237" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F237" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="22" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="78" t="s">
+        <v>604</v>
+      </c>
+      <c r="B238" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="C238" s="104" t="s">
+        <v>595</v>
+      </c>
+      <c r="D238" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="E238" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A239" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="B239" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C239" s="104" t="s">
+        <v>595</v>
+      </c>
+      <c r="D239" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="E239" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A240" s="78" t="s">
+        <v>608</v>
+      </c>
+      <c r="B240" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C240" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="D240" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="E240" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="32" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="B237" s="99" t="s">
+      <c r="B241" s="99" t="s">
         <v>633</v>
       </c>
-      <c r="C237" s="110" t="s">
+      <c r="C241" s="110" t="s">
         <v>632</v>
       </c>
-      <c r="D237" s="73" t="s">
+      <c r="D241" s="73" t="s">
         <v>646</v>
       </c>
-      <c r="E237" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F237" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A238" s="78" t="s">
+      <c r="E241" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="B238" s="111" t="s">
+      <c r="B242" s="111" t="s">
         <v>571</v>
       </c>
-      <c r="C238" s="104" t="s">
+      <c r="C242" s="104" t="s">
         <v>635</v>
-      </c>
-      <c r="D238" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="E238" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F238" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" s="106" customFormat="1" ht="75" customHeight="1">
-      <c r="A239" s="78" t="s">
-        <v>611</v>
-      </c>
-      <c r="B239" s="111" t="s">
-        <v>634</v>
-      </c>
-      <c r="C239" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D239" s="105" t="s">
-        <v>647</v>
-      </c>
-      <c r="E239" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F239" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" s="109" customFormat="1" ht="75" customHeight="1">
-      <c r="A240" s="98" t="s">
-        <v>612</v>
-      </c>
-      <c r="B240" s="101" t="s">
-        <v>636</v>
-      </c>
-      <c r="C240" s="112" t="s">
-        <v>635</v>
-      </c>
-      <c r="D240" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="E240" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F240" s="108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A241" s="78" t="s">
-        <v>613</v>
-      </c>
-      <c r="B241" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C241" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D241" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="E241" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F241" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A242" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="B242" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="C242" s="104" t="s">
-        <v>637</v>
       </c>
       <c r="D242" s="74" t="s">
         <v>647</v>
@@ -19098,17 +19191,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1">
+    <row r="243" spans="1:6" s="106" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="B243" s="26" t="s">
-        <v>605</v>
+        <v>611</v>
+      </c>
+      <c r="B243" s="111" t="s">
+        <v>634</v>
       </c>
       <c r="C243" s="104" t="s">
         <v>635</v>
       </c>
-      <c r="D243" s="74" t="s">
+      <c r="D243" s="105" t="s">
         <v>647</v>
       </c>
       <c r="E243" s="26" t="s">
@@ -19118,32 +19211,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A244" s="78" t="s">
-        <v>616</v>
-      </c>
-      <c r="B244" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="C244" s="104" t="s">
+    <row r="244" spans="1:6" s="109" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="98" t="s">
+        <v>612</v>
+      </c>
+      <c r="B244" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="C244" s="112" t="s">
         <v>635</v>
       </c>
-      <c r="D244" s="74" t="s">
+      <c r="D244" s="107" t="s">
         <v>647</v>
       </c>
-      <c r="E244" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F244" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+      <c r="E244" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" s="108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="78" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="C245" s="104" t="s">
         <v>635</v>
@@ -19158,15 +19251,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="22" customFormat="1" ht="183.75" customHeight="1">
+    <row r="246" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="78" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C246" s="104" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D246" s="74" t="s">
         <v>647</v>
@@ -19178,12 +19271,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="247" spans="1:6" s="22" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="78" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="C247" s="104" t="s">
         <v>635</v>
@@ -19198,15 +19291,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="22" customFormat="1" ht="377.25" customHeight="1">
+    <row r="248" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="78" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="C248" s="104" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D248" s="74" t="s">
         <v>647</v>
@@ -19218,92 +19311,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="249" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="78" t="s">
+        <v>617</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C249" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D249" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E249" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="22" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="B250" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="C250" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D250" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E250" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F250" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C251" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D251" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E251" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="22" customFormat="1" ht="377.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="B252" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C252" s="104" t="s">
+        <v>643</v>
+      </c>
+      <c r="D252" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="E252" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="78" t="s">
         <v>621</v>
       </c>
-      <c r="B249" s="26" t="s">
+      <c r="B253" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="C249" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="D249" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="E249" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F249" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A250" s="78" t="s">
-        <v>622</v>
-      </c>
-      <c r="B250" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="C250" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="D250" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="E250" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F250" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A251" s="78" t="s">
-        <v>623</v>
-      </c>
-      <c r="B251" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="C251" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="D251" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="E251" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F251" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1">
-      <c r="A252" s="78" t="s">
-        <v>624</v>
-      </c>
-      <c r="B252" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C252" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="D252" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="E252" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F252" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A253" s="78" t="s">
-        <v>625</v>
-      </c>
-      <c r="B253" s="26" t="s">
-        <v>655</v>
       </c>
       <c r="C253" s="104" t="s">
         <v>651</v>
@@ -19318,12 +19411,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="22" customFormat="1" ht="91.5" customHeight="1">
+    <row r="254" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="78" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="C254" s="104" t="s">
         <v>651</v>
@@ -19338,12 +19431,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="255" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="78" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="C255" s="104" t="s">
         <v>651</v>
@@ -19358,12 +19451,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
+    <row r="256" spans="1:6" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="78" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>656</v>
+        <v>579</v>
       </c>
       <c r="C256" s="104" t="s">
         <v>651</v>
@@ -19378,125 +19471,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="22" customFormat="1" ht="189" customHeight="1">
+    <row r="257" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="78" t="s">
+        <v>625</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="C257" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="D257" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="E257" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="22" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="B258" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="C258" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="D258" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="E258" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="78" t="s">
+        <v>627</v>
+      </c>
+      <c r="B259" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="C259" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="D259" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="E259" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A260" s="78" t="s">
+        <v>628</v>
+      </c>
+      <c r="B260" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="C260" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="D260" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="E260" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="22" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A261" s="78" t="s">
         <v>629</v>
       </c>
-      <c r="B257" s="26" t="s">
+      <c r="B261" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="C257" s="104" t="s">
+      <c r="C261" s="104" t="s">
         <v>652</v>
       </c>
-      <c r="D257" s="74" t="s">
+      <c r="D261" s="74" t="s">
         <v>648</v>
       </c>
-      <c r="E257" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F257" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A258" s="78"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="104"/>
-      <c r="D258" s="74"/>
-      <c r="E258" s="26"/>
-      <c r="F258" s="29"/>
-    </row>
-    <row r="259" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A259" s="78"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="104"/>
-      <c r="D259" s="74"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="29"/>
-    </row>
-    <row r="260" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1">
-      <c r="A260" s="68"/>
-      <c r="B260" s="47"/>
-      <c r="C260" s="46"/>
-      <c r="D260" s="69"/>
-      <c r="E260" s="26"/>
-      <c r="F260" s="29"/>
-    </row>
-    <row r="261" spans="1:6" ht="120">
-      <c r="A261" s="129" t="s">
+      <c r="E261" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F261" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="78"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="104"/>
+      <c r="D262" s="74"/>
+      <c r="E262" s="26"/>
+      <c r="F262" s="29"/>
+    </row>
+    <row r="263" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A263" s="78"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="104"/>
+      <c r="D263" s="74"/>
+      <c r="E263" s="26"/>
+      <c r="F263" s="29"/>
+    </row>
+    <row r="264" spans="1:6" s="22" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A264" s="68"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="46"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="29"/>
+    </row>
+    <row r="265" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A265" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B261" s="124" t="s">
+      <c r="B265" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C261" s="56" t="s">
+      <c r="C265" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D261" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E261" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F261" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="120">
-      <c r="A262" s="129"/>
-      <c r="B262" s="124"/>
-      <c r="C262" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D262" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E262" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F262" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="120">
-      <c r="A263" s="129"/>
-      <c r="B263" s="124"/>
-      <c r="C263" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D263" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E263" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F263" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="120">
-      <c r="A264" s="129"/>
-      <c r="B264" s="124"/>
-      <c r="C264" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D264" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E264" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F264" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="120">
-      <c r="A265" s="129"/>
-      <c r="B265" s="124"/>
-      <c r="C265" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D265" s="73" t="s">
+      <c r="D265" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E265" s="24" t="s">
@@ -19506,14 +19615,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="30">
-      <c r="A266" s="130"/>
-      <c r="B266" s="116"/>
+    <row r="266" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A266" s="119"/>
+      <c r="B266" s="120"/>
       <c r="C266" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D266" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E266" s="24" t="s">
         <v>22</v>
@@ -19522,18 +19631,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="60">
-      <c r="A267" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B267" s="115" t="s">
-        <v>32</v>
-      </c>
+    <row r="267" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A267" s="119"/>
+      <c r="B267" s="120"/>
       <c r="C267" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D267" s="73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E267" s="24" t="s">
         <v>22</v>
@@ -19542,14 +19647,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30">
-      <c r="A268" s="114"/>
-      <c r="B268" s="116"/>
+    <row r="268" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A268" s="119"/>
+      <c r="B268" s="120"/>
       <c r="C268" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D268" s="73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E268" s="24" t="s">
         <v>22</v>
@@ -19558,18 +19663,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="60">
-      <c r="A269" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="B269" s="115" t="s">
-        <v>35</v>
-      </c>
+    <row r="269" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A269" s="119"/>
+      <c r="B269" s="120"/>
       <c r="C269" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D269" s="73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E269" s="24" t="s">
         <v>22</v>
@@ -19578,14 +19679,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="114"/>
-      <c r="B270" s="116"/>
+    <row r="270" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A270" s="121"/>
+      <c r="B270" s="117"/>
       <c r="C270" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D270" s="73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E270" s="24" t="s">
         <v>22</v>
@@ -19594,18 +19695,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60">
-      <c r="A271" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B271" s="115" t="s">
-        <v>37</v>
+    <row r="271" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A271" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B271" s="116" t="s">
+        <v>32</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D271" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E271" s="24" t="s">
         <v>22</v>
@@ -19614,11 +19715,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="114"/>
-      <c r="B272" s="116"/>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="129"/>
+      <c r="B272" s="117"/>
       <c r="C272" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D272" s="73" t="s">
         <v>33</v>
@@ -19630,15 +19731,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60">
-      <c r="A273" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="B273" s="115" t="s">
-        <v>41</v>
+    <row r="273" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A273" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B273" s="116" t="s">
+        <v>35</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D273" s="73" t="s">
         <v>38</v>
@@ -19650,11 +19751,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="30">
-      <c r="A274" s="114"/>
-      <c r="B274" s="116"/>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="129"/>
+      <c r="B274" s="117"/>
       <c r="C274" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D274" s="73" t="s">
         <v>33</v>
@@ -19666,18 +19767,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="60">
-      <c r="A275" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B275" s="115" t="s">
-        <v>43</v>
+    <row r="275" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A275" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B275" s="116" t="s">
+        <v>37</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D275" s="73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E275" s="24" t="s">
         <v>22</v>
@@ -19686,11 +19787,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="114"/>
-      <c r="B276" s="116"/>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276" s="129"/>
+      <c r="B276" s="117"/>
       <c r="C276" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D276" s="73" t="s">
         <v>33</v>
@@ -19702,18 +19803,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="60">
-      <c r="A277" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="B277" s="115" t="s">
-        <v>47</v>
+    <row r="277" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A277" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B277" s="116" t="s">
+        <v>41</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D277" s="73" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E277" s="24" t="s">
         <v>22</v>
@@ -19722,14 +19823,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="30">
-      <c r="A278" s="114"/>
-      <c r="B278" s="116"/>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278" s="129"/>
+      <c r="B278" s="117"/>
       <c r="C278" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D278" s="73" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E278" s="24" t="s">
         <v>22</v>
@@ -19738,18 +19839,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="60">
-      <c r="A279" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="B279" s="115" t="s">
-        <v>49</v>
+    <row r="279" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A279" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B279" s="116" t="s">
+        <v>43</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D279" s="73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E279" s="24" t="s">
         <v>22</v>
@@ -19758,14 +19859,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30">
-      <c r="A280" s="114"/>
-      <c r="B280" s="116"/>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280" s="129"/>
+      <c r="B280" s="117"/>
       <c r="C280" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D280" s="73" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E280" s="24" t="s">
         <v>22</v>
@@ -19774,15 +19875,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="60">
-      <c r="A281" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="B281" s="115" t="s">
-        <v>53</v>
+    <row r="281" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A281" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281" s="116" t="s">
+        <v>47</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D281" s="73" t="s">
         <v>46</v>
@@ -19794,11 +19895,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="30">
-      <c r="A282" s="114"/>
-      <c r="B282" s="116"/>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282" s="129"/>
+      <c r="B282" s="117"/>
       <c r="C282" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D282" s="73" t="s">
         <v>50</v>
@@ -19810,15 +19911,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="60">
-      <c r="A283" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="B283" s="115" t="s">
-        <v>52</v>
+    <row r="283" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A283" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B283" s="116" t="s">
+        <v>49</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D283" s="73" t="s">
         <v>46</v>
@@ -19830,11 +19931,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30">
-      <c r="A284" s="114"/>
-      <c r="B284" s="116"/>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284" s="129"/>
+      <c r="B284" s="117"/>
       <c r="C284" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D284" s="73" t="s">
         <v>50</v>
@@ -19846,15 +19947,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="60">
-      <c r="A285" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="B285" s="115" t="s">
-        <v>60</v>
+    <row r="285" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A285" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B285" s="116" t="s">
+        <v>53</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D285" s="73" t="s">
         <v>46</v>
@@ -19866,14 +19967,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30">
-      <c r="A286" s="114"/>
-      <c r="B286" s="116"/>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" s="129"/>
+      <c r="B286" s="117"/>
       <c r="C286" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D286" s="73" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E286" s="24" t="s">
         <v>22</v>
@@ -19882,15 +19983,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="60">
-      <c r="A287" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B287" s="115" t="s">
-        <v>59</v>
+    <row r="287" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A287" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B287" s="116" t="s">
+        <v>52</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D287" s="73" t="s">
         <v>46</v>
@@ -19902,14 +20003,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30">
-      <c r="A288" s="114"/>
-      <c r="B288" s="116"/>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" s="129"/>
+      <c r="B288" s="117"/>
       <c r="C288" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D288" s="73" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E288" s="24" t="s">
         <v>22</v>
@@ -19918,15 +20019,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="60">
-      <c r="A289" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="B289" s="115" t="s">
-        <v>58</v>
+    <row r="289" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A289" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B289" s="116" t="s">
+        <v>60</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D289" s="73" t="s">
         <v>46</v>
@@ -19938,11 +20039,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="30">
-      <c r="A290" s="114"/>
-      <c r="B290" s="116"/>
+    <row r="290" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A290" s="129"/>
+      <c r="B290" s="117"/>
       <c r="C290" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D290" s="73" t="s">
         <v>63</v>
@@ -19954,15 +20055,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60">
-      <c r="A291" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="B291" s="115" t="s">
-        <v>62</v>
+    <row r="291" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A291" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B291" s="116" t="s">
+        <v>59</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D291" s="73" t="s">
         <v>46</v>
@@ -19974,11 +20075,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30">
-      <c r="A292" s="114"/>
-      <c r="B292" s="116"/>
+    <row r="292" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A292" s="129"/>
+      <c r="B292" s="117"/>
       <c r="C292" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D292" s="73" t="s">
         <v>63</v>
@@ -19990,18 +20091,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A293" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C293" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D293" s="77" t="s">
-        <v>64</v>
+    <row r="293" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A293" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="B293" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D293" s="73" t="s">
+        <v>46</v>
       </c>
       <c r="E293" s="24" t="s">
         <v>22</v>
@@ -20010,72 +20111,146 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="95" t="s">
+    <row r="294" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A294" s="129"/>
+      <c r="B294" s="117"/>
+      <c r="C294" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D294" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E294" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A295" s="128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B295" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D295" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E295" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F295" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A296" s="129"/>
+      <c r="B296" s="117"/>
+      <c r="C296" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D296" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E296" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F296" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A297" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F297" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B310" s="95" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F18"/>
+  <autoFilter ref="E1:F22" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{F55926EB-4591-4F40-B535-C38067E62E05}" scale="85" showGridLines="0" showAutoFilter="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="A16 A17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="E1:F1"/>
+      <autoFilter ref="E1:F1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="47">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A277:A278"/>
+  <mergeCells count="49">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B289:B290"/>
     <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="A273:A274"/>
     <mergeCell ref="A291:A292"/>
     <mergeCell ref="B291:B292"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A285:A286"/>
     <mergeCell ref="B285:B286"/>
-    <mergeCell ref="A285:A286"/>
     <mergeCell ref="A287:A288"/>
     <mergeCell ref="B287:B288"/>
     <mergeCell ref="A279:A280"/>
     <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B281:B282"/>
     <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
     <mergeCell ref="A275:A276"/>
     <mergeCell ref="B275:B276"/>
     <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A265:A270"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
   </mergeCells>
-  <conditionalFormatting sqref="E261:E1048576 E1:E259">
+  <conditionalFormatting sqref="E265:E1048576 E1:E263">
     <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -20083,21 +20258,21 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261:F293 F2:F259">
+  <conditionalFormatting sqref="F265:F297 F2:F263">
     <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261:F293 F2:F259">
+  <conditionalFormatting sqref="F265:F297 F2:F263">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E259 E261:E293">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E265:E297 E2:E263" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F259 F261:F293">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F265:F297 F2:F263" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
